--- a/Code/Results/Cases/Case_0_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8852774139637295</v>
+        <v>0.8852774139637329</v>
       </c>
       <c r="D2">
-        <v>0.9022733431396541</v>
+        <v>0.9022733431396576</v>
       </c>
       <c r="E2">
-        <v>0.9058974999866581</v>
+        <v>0.9058974999866615</v>
       </c>
       <c r="F2">
-        <v>0.8842301482260897</v>
+        <v>0.8842301482260932</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02635504471138</v>
+        <v>1.026355044711381</v>
       </c>
       <c r="J2">
-        <v>0.9115292718544806</v>
+        <v>0.9115292718544842</v>
       </c>
       <c r="K2">
-        <v>0.9152858450398894</v>
+        <v>0.9152858450398929</v>
       </c>
       <c r="L2">
-        <v>0.9188446317621014</v>
+        <v>0.9188446317621048</v>
       </c>
       <c r="M2">
-        <v>0.8975785380501498</v>
+        <v>0.8975785380501532</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.90825085780167</v>
+        <v>0.9082508578016695</v>
       </c>
       <c r="D3">
-        <v>0.9227449003724775</v>
+        <v>0.9227449003724769</v>
       </c>
       <c r="E3">
-        <v>0.9257680102506486</v>
+        <v>0.9257680102506484</v>
       </c>
       <c r="F3">
         <v>0.9080795305632809</v>
@@ -477,16 +477,16 @@
         <v>1.030804276817899</v>
       </c>
       <c r="J3">
-        <v>0.931598790921721</v>
+        <v>0.9315987909217205</v>
       </c>
       <c r="K3">
-        <v>0.9344720073441181</v>
+        <v>0.9344720073441175</v>
       </c>
       <c r="L3">
-        <v>0.9374479130120136</v>
+        <v>0.9374479130120132</v>
       </c>
       <c r="M3">
-        <v>0.9200413612789773</v>
+        <v>0.920041361278977</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9216312992616902</v>
+        <v>0.9216312992616882</v>
       </c>
       <c r="D4">
-        <v>0.9346857616067801</v>
+        <v>0.9346857616067783</v>
       </c>
       <c r="E4">
-        <v>0.937362966819357</v>
+        <v>0.9373629668193555</v>
       </c>
       <c r="F4">
-        <v>0.921989551438136</v>
+        <v>0.9219895514381342</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.033364830676214</v>
       </c>
       <c r="J4">
-        <v>0.9432768503131236</v>
+        <v>0.9432768503131217</v>
       </c>
       <c r="K4">
-        <v>0.9456420940106514</v>
+        <v>0.9456420940106494</v>
       </c>
       <c r="L4">
-        <v>0.9482811640035306</v>
+        <v>0.9482811640035292</v>
       </c>
       <c r="M4">
-        <v>0.9331305649688494</v>
+        <v>0.9331305649688477</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9269657451373927</v>
+        <v>0.926965745137395</v>
       </c>
       <c r="D5">
-        <v>0.9394496159326531</v>
+        <v>0.939449615932656</v>
       </c>
       <c r="E5">
-        <v>0.9419898754475481</v>
+        <v>0.9419898754475506</v>
       </c>
       <c r="F5">
-        <v>0.9275397894471435</v>
+        <v>0.9275397894471461</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.034376891549842</v>
       </c>
       <c r="J5">
-        <v>0.9479294452711572</v>
+        <v>0.9479294452711597</v>
       </c>
       <c r="K5">
-        <v>0.9500936645000617</v>
+        <v>0.9500936645000643</v>
       </c>
       <c r="L5">
-        <v>0.9525991069551522</v>
+        <v>0.9525991069551545</v>
       </c>
       <c r="M5">
-        <v>0.9383502908406969</v>
+        <v>0.9383502908406995</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9278458744632712</v>
+        <v>0.927845874463271</v>
       </c>
       <c r="D6">
-        <v>0.9402357790169172</v>
+        <v>0.940235779016917</v>
       </c>
       <c r="E6">
-        <v>0.9427534993425051</v>
+        <v>0.9427534993425053</v>
       </c>
       <c r="F6">
-        <v>0.9284557969786699</v>
+        <v>0.9284557969786698</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.034543320660682</v>
       </c>
       <c r="J6">
-        <v>0.9486968784639318</v>
+        <v>0.9486968784639317</v>
       </c>
       <c r="K6">
-        <v>0.9508280168863779</v>
+        <v>0.9508280168863776</v>
       </c>
       <c r="L6">
-        <v>0.9533114516382915</v>
+        <v>0.9533114516382916</v>
       </c>
       <c r="M6">
-        <v>0.9392115722270634</v>
+        <v>0.9392115722270635</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9217036505435278</v>
+        <v>0.9217036505435299</v>
       </c>
       <c r="D7">
-        <v>0.9347503615617291</v>
+        <v>0.9347503615617311</v>
       </c>
       <c r="E7">
-        <v>0.9374257055822856</v>
+        <v>0.9374257055822875</v>
       </c>
       <c r="F7">
-        <v>0.9220648108304842</v>
+        <v>0.9220648108304862</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.033378594031208</v>
       </c>
       <c r="J7">
-        <v>0.9433399668262562</v>
+        <v>0.9433399668262585</v>
       </c>
       <c r="K7">
-        <v>0.9457024781242721</v>
+        <v>0.945702478124274</v>
       </c>
       <c r="L7">
-        <v>0.9483397330483837</v>
+        <v>0.9483397330483856</v>
       </c>
       <c r="M7">
-        <v>0.9332013548332213</v>
+        <v>0.9332013548332234</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8933958175003659</v>
+        <v>0.8933958175003648</v>
       </c>
       <c r="D8">
-        <v>0.9095030304822447</v>
+        <v>0.9095030304822438</v>
       </c>
       <c r="E8">
-        <v>0.9129138332956871</v>
+        <v>0.9129138332956863</v>
       </c>
       <c r="F8">
-        <v>0.8926537988005443</v>
+        <v>0.8926537988005433</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.027933128403358</v>
       </c>
       <c r="J8">
-        <v>0.9186235376160792</v>
+        <v>0.9186235376160786</v>
       </c>
       <c r="K8">
-        <v>0.9220664449964802</v>
+        <v>0.9220664449964792</v>
       </c>
       <c r="L8">
-        <v>0.9254186826348973</v>
+        <v>0.9254186826348965</v>
       </c>
       <c r="M8">
-        <v>0.9055150626484306</v>
+        <v>0.9055150626484294</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8270472978247869</v>
+        <v>0.8270472978247888</v>
       </c>
       <c r="D9">
-        <v>0.8505878735321706</v>
+        <v>0.8505878735321724</v>
       </c>
       <c r="E9">
-        <v>0.8557670256420031</v>
+        <v>0.8557670256420049</v>
       </c>
       <c r="F9">
-        <v>0.823907150074906</v>
+        <v>0.8239071500749081</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.014988233865621</v>
       </c>
       <c r="J9">
-        <v>0.8606342533330965</v>
+        <v>0.8606342533330983</v>
       </c>
       <c r="K9">
-        <v>0.8666805401082253</v>
+        <v>0.866680540108227</v>
       </c>
       <c r="L9">
-        <v>0.8717321035283884</v>
+        <v>0.8717321035283905</v>
       </c>
       <c r="M9">
-        <v>0.8406917293143635</v>
+        <v>0.8406917293143658</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7521402383014392</v>
+        <v>0.7521402383014387</v>
       </c>
       <c r="D10">
-        <v>0.7846626880666184</v>
+        <v>0.7846626880666181</v>
       </c>
       <c r="E10">
-        <v>0.7918838810872915</v>
+        <v>0.7918838810872914</v>
       </c>
       <c r="F10">
-        <v>0.7463935112848966</v>
+        <v>0.7463935112848963</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J10">
-        <v>0.7953593705007526</v>
+        <v>0.7953593705007522</v>
       </c>
       <c r="K10">
-        <v>0.8044272593094648</v>
+        <v>0.8044272593094646</v>
       </c>
       <c r="L10">
-        <v>0.8114009014044383</v>
+        <v>0.8114009014044381</v>
       </c>
       <c r="M10">
-        <v>0.7675838224319883</v>
+        <v>0.7675838224319882</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7521402383014392</v>
+        <v>0.7521402383014387</v>
       </c>
       <c r="D11">
-        <v>0.7846626880666184</v>
+        <v>0.7846626880666181</v>
       </c>
       <c r="E11">
-        <v>0.7918838810872915</v>
+        <v>0.7918838810872914</v>
       </c>
       <c r="F11">
-        <v>0.7463935112848966</v>
+        <v>0.7463935112848963</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J11">
-        <v>0.7953593705007526</v>
+        <v>0.7953593705007522</v>
       </c>
       <c r="K11">
-        <v>0.8044272593094648</v>
+        <v>0.8044272593094646</v>
       </c>
       <c r="L11">
-        <v>0.8114009014044383</v>
+        <v>0.8114009014044381</v>
       </c>
       <c r="M11">
-        <v>0.7675838224319883</v>
+        <v>0.7675838224319882</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7521402383014392</v>
+        <v>0.7521402383014387</v>
       </c>
       <c r="D12">
-        <v>0.7846626880666184</v>
+        <v>0.7846626880666181</v>
       </c>
       <c r="E12">
-        <v>0.7918838810872915</v>
+        <v>0.7918838810872914</v>
       </c>
       <c r="F12">
-        <v>0.7463935112848966</v>
+        <v>0.7463935112848963</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J12">
-        <v>0.7953593705007526</v>
+        <v>0.7953593705007522</v>
       </c>
       <c r="K12">
-        <v>0.8044272593094648</v>
+        <v>0.8044272593094646</v>
       </c>
       <c r="L12">
-        <v>0.8114009014044383</v>
+        <v>0.8114009014044381</v>
       </c>
       <c r="M12">
-        <v>0.7675838224319883</v>
+        <v>0.7675838224319882</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7521402383014392</v>
+        <v>0.7521402383014387</v>
       </c>
       <c r="D13">
-        <v>0.7846626880666184</v>
+        <v>0.7846626880666181</v>
       </c>
       <c r="E13">
-        <v>0.7918838810872915</v>
+        <v>0.7918838810872914</v>
       </c>
       <c r="F13">
-        <v>0.7463935112848966</v>
+        <v>0.7463935112848963</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J13">
-        <v>0.7953593705007526</v>
+        <v>0.7953593705007522</v>
       </c>
       <c r="K13">
-        <v>0.8044272593094648</v>
+        <v>0.8044272593094646</v>
       </c>
       <c r="L13">
-        <v>0.8114009014044383</v>
+        <v>0.8114009014044381</v>
       </c>
       <c r="M13">
-        <v>0.7675838224319883</v>
+        <v>0.7675838224319882</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7521402383014392</v>
+        <v>0.7521402383014387</v>
       </c>
       <c r="D14">
-        <v>0.7846626880666184</v>
+        <v>0.7846626880666181</v>
       </c>
       <c r="E14">
-        <v>0.7918838810872915</v>
+        <v>0.7918838810872914</v>
       </c>
       <c r="F14">
-        <v>0.7463935112848966</v>
+        <v>0.7463935112848963</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J14">
-        <v>0.7953593705007526</v>
+        <v>0.7953593705007522</v>
       </c>
       <c r="K14">
-        <v>0.8044272593094648</v>
+        <v>0.8044272593094646</v>
       </c>
       <c r="L14">
-        <v>0.8114009014044383</v>
+        <v>0.8114009014044381</v>
       </c>
       <c r="M14">
-        <v>0.7675838224319883</v>
+        <v>0.7675838224319882</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7521402383014392</v>
+        <v>0.7521402383014387</v>
       </c>
       <c r="D15">
-        <v>0.7846626880666184</v>
+        <v>0.7846626880666181</v>
       </c>
       <c r="E15">
-        <v>0.7918838810872915</v>
+        <v>0.7918838810872914</v>
       </c>
       <c r="F15">
-        <v>0.7463935112848966</v>
+        <v>0.7463935112848963</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J15">
-        <v>0.7953593705007526</v>
+        <v>0.7953593705007522</v>
       </c>
       <c r="K15">
-        <v>0.8044272593094648</v>
+        <v>0.8044272593094646</v>
       </c>
       <c r="L15">
-        <v>0.8114009014044383</v>
+        <v>0.8114009014044381</v>
       </c>
       <c r="M15">
-        <v>0.7675838224319883</v>
+        <v>0.7675838224319882</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7521402383014392</v>
+        <v>0.7521402383014387</v>
       </c>
       <c r="D16">
-        <v>0.7846626880666184</v>
+        <v>0.7846626880666181</v>
       </c>
       <c r="E16">
-        <v>0.7918838810872915</v>
+        <v>0.7918838810872914</v>
       </c>
       <c r="F16">
-        <v>0.7463935112848966</v>
+        <v>0.7463935112848963</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J16">
-        <v>0.7953593705007526</v>
+        <v>0.7953593705007522</v>
       </c>
       <c r="K16">
-        <v>0.8044272593094648</v>
+        <v>0.8044272593094646</v>
       </c>
       <c r="L16">
-        <v>0.8114009014044383</v>
+        <v>0.8114009014044381</v>
       </c>
       <c r="M16">
-        <v>0.7675838224319883</v>
+        <v>0.7675838224319882</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7521402383014392</v>
+        <v>0.7521402383014387</v>
       </c>
       <c r="D17">
-        <v>0.7846626880666184</v>
+        <v>0.7846626880666181</v>
       </c>
       <c r="E17">
-        <v>0.7918838810872915</v>
+        <v>0.7918838810872914</v>
       </c>
       <c r="F17">
-        <v>0.7463935112848966</v>
+        <v>0.7463935112848963</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J17">
-        <v>0.7953593705007526</v>
+        <v>0.7953593705007522</v>
       </c>
       <c r="K17">
-        <v>0.8044272593094648</v>
+        <v>0.8044272593094646</v>
       </c>
       <c r="L17">
-        <v>0.8114009014044383</v>
+        <v>0.8114009014044381</v>
       </c>
       <c r="M17">
-        <v>0.7675838224319883</v>
+        <v>0.7675838224319882</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7521402383014392</v>
+        <v>0.7521402383014387</v>
       </c>
       <c r="D18">
-        <v>0.7846626880666184</v>
+        <v>0.7846626880666181</v>
       </c>
       <c r="E18">
-        <v>0.7918838810872915</v>
+        <v>0.7918838810872914</v>
       </c>
       <c r="F18">
-        <v>0.7463935112848966</v>
+        <v>0.7463935112848963</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J18">
-        <v>0.7953593705007526</v>
+        <v>0.7953593705007522</v>
       </c>
       <c r="K18">
-        <v>0.8044272593094648</v>
+        <v>0.8044272593094646</v>
       </c>
       <c r="L18">
-        <v>0.8114009014044383</v>
+        <v>0.8114009014044381</v>
       </c>
       <c r="M18">
-        <v>0.7675838224319883</v>
+        <v>0.7675838224319882</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7521402383014392</v>
+        <v>0.7521402383014387</v>
       </c>
       <c r="D19">
-        <v>0.7846626880666184</v>
+        <v>0.7846626880666181</v>
       </c>
       <c r="E19">
-        <v>0.7918838810872915</v>
+        <v>0.7918838810872914</v>
       </c>
       <c r="F19">
-        <v>0.7463935112848966</v>
+        <v>0.7463935112848963</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J19">
-        <v>0.7953593705007526</v>
+        <v>0.7953593705007522</v>
       </c>
       <c r="K19">
-        <v>0.8044272593094648</v>
+        <v>0.8044272593094646</v>
       </c>
       <c r="L19">
-        <v>0.8114009014044383</v>
+        <v>0.8114009014044381</v>
       </c>
       <c r="M19">
-        <v>0.7675838224319883</v>
+        <v>0.7675838224319882</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7521402383014392</v>
+        <v>0.7521402383014387</v>
       </c>
       <c r="D20">
-        <v>0.7846626880666184</v>
+        <v>0.7846626880666181</v>
       </c>
       <c r="E20">
-        <v>0.7918838810872915</v>
+        <v>0.7918838810872914</v>
       </c>
       <c r="F20">
-        <v>0.7463935112848966</v>
+        <v>0.7463935112848963</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J20">
-        <v>0.7953593705007526</v>
+        <v>0.7953593705007522</v>
       </c>
       <c r="K20">
-        <v>0.8044272593094648</v>
+        <v>0.8044272593094646</v>
       </c>
       <c r="L20">
-        <v>0.8114009014044383</v>
+        <v>0.8114009014044381</v>
       </c>
       <c r="M20">
-        <v>0.7675838224319883</v>
+        <v>0.7675838224319882</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7521402383014392</v>
+        <v>0.7521402383014387</v>
       </c>
       <c r="D21">
-        <v>0.7846626880666184</v>
+        <v>0.7846626880666181</v>
       </c>
       <c r="E21">
-        <v>0.7918838810872915</v>
+        <v>0.7918838810872914</v>
       </c>
       <c r="F21">
-        <v>0.7463935112848966</v>
+        <v>0.7463935112848963</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J21">
-        <v>0.7953593705007526</v>
+        <v>0.7953593705007522</v>
       </c>
       <c r="K21">
-        <v>0.8044272593094648</v>
+        <v>0.8044272593094646</v>
       </c>
       <c r="L21">
-        <v>0.8114009014044383</v>
+        <v>0.8114009014044381</v>
       </c>
       <c r="M21">
-        <v>0.7675838224319883</v>
+        <v>0.7675838224319882</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7521402383014392</v>
+        <v>0.7521402383014387</v>
       </c>
       <c r="D22">
-        <v>0.7846626880666184</v>
+        <v>0.7846626880666181</v>
       </c>
       <c r="E22">
-        <v>0.7918838810872915</v>
+        <v>0.7918838810872914</v>
       </c>
       <c r="F22">
-        <v>0.7463935112848966</v>
+        <v>0.7463935112848963</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J22">
-        <v>0.7953593705007526</v>
+        <v>0.7953593705007522</v>
       </c>
       <c r="K22">
-        <v>0.8044272593094648</v>
+        <v>0.8044272593094646</v>
       </c>
       <c r="L22">
-        <v>0.8114009014044383</v>
+        <v>0.8114009014044381</v>
       </c>
       <c r="M22">
-        <v>0.7675838224319883</v>
+        <v>0.7675838224319882</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7521402383014392</v>
+        <v>0.7521402383014387</v>
       </c>
       <c r="D23">
-        <v>0.7846626880666184</v>
+        <v>0.7846626880666181</v>
       </c>
       <c r="E23">
-        <v>0.7918838810872915</v>
+        <v>0.7918838810872914</v>
       </c>
       <c r="F23">
-        <v>0.7463935112848966</v>
+        <v>0.7463935112848963</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J23">
-        <v>0.7953593705007526</v>
+        <v>0.7953593705007522</v>
       </c>
       <c r="K23">
-        <v>0.8044272593094648</v>
+        <v>0.8044272593094646</v>
       </c>
       <c r="L23">
-        <v>0.8114009014044383</v>
+        <v>0.8114009014044381</v>
       </c>
       <c r="M23">
-        <v>0.7675838224319883</v>
+        <v>0.7675838224319882</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7521402383014392</v>
+        <v>0.7521402383014387</v>
       </c>
       <c r="D24">
-        <v>0.7846626880666184</v>
+        <v>0.7846626880666181</v>
       </c>
       <c r="E24">
-        <v>0.7918838810872915</v>
+        <v>0.7918838810872914</v>
       </c>
       <c r="F24">
-        <v>0.7463935112848966</v>
+        <v>0.7463935112848963</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J24">
-        <v>0.7953593705007526</v>
+        <v>0.7953593705007522</v>
       </c>
       <c r="K24">
-        <v>0.8044272593094648</v>
+        <v>0.8044272593094646</v>
       </c>
       <c r="L24">
-        <v>0.8114009014044383</v>
+        <v>0.8114009014044381</v>
       </c>
       <c r="M24">
-        <v>0.7675838224319883</v>
+        <v>0.7675838224319882</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7521402383014392</v>
+        <v>0.7521402383014387</v>
       </c>
       <c r="D25">
-        <v>0.7846626880666184</v>
+        <v>0.7846626880666181</v>
       </c>
       <c r="E25">
-        <v>0.7918838810872915</v>
+        <v>0.7918838810872914</v>
       </c>
       <c r="F25">
-        <v>0.7463935112848966</v>
+        <v>0.7463935112848963</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J25">
-        <v>0.7953593705007526</v>
+        <v>0.7953593705007522</v>
       </c>
       <c r="K25">
-        <v>0.8044272593094648</v>
+        <v>0.8044272593094646</v>
       </c>
       <c r="L25">
-        <v>0.8114009014044383</v>
+        <v>0.8114009014044381</v>
       </c>
       <c r="M25">
-        <v>0.7675838224319883</v>
+        <v>0.7675838224319882</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8852774139637329</v>
+        <v>0.8852774139637295</v>
       </c>
       <c r="D2">
-        <v>0.9022733431396576</v>
+        <v>0.9022733431396541</v>
       </c>
       <c r="E2">
-        <v>0.9058974999866615</v>
+        <v>0.9058974999866581</v>
       </c>
       <c r="F2">
-        <v>0.8842301482260932</v>
+        <v>0.8842301482260897</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026355044711381</v>
+        <v>1.02635504471138</v>
       </c>
       <c r="J2">
-        <v>0.9115292718544842</v>
+        <v>0.9115292718544806</v>
       </c>
       <c r="K2">
-        <v>0.9152858450398929</v>
+        <v>0.9152858450398894</v>
       </c>
       <c r="L2">
-        <v>0.9188446317621048</v>
+        <v>0.9188446317621014</v>
       </c>
       <c r="M2">
-        <v>0.8975785380501532</v>
+        <v>0.8975785380501498</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9082508578016695</v>
+        <v>0.90825085780167</v>
       </c>
       <c r="D3">
-        <v>0.9227449003724769</v>
+        <v>0.9227449003724775</v>
       </c>
       <c r="E3">
-        <v>0.9257680102506484</v>
+        <v>0.9257680102506486</v>
       </c>
       <c r="F3">
         <v>0.9080795305632809</v>
@@ -477,16 +477,16 @@
         <v>1.030804276817899</v>
       </c>
       <c r="J3">
-        <v>0.9315987909217205</v>
+        <v>0.931598790921721</v>
       </c>
       <c r="K3">
-        <v>0.9344720073441175</v>
+        <v>0.9344720073441181</v>
       </c>
       <c r="L3">
-        <v>0.9374479130120132</v>
+        <v>0.9374479130120136</v>
       </c>
       <c r="M3">
-        <v>0.920041361278977</v>
+        <v>0.9200413612789773</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9216312992616882</v>
+        <v>0.9216312992616902</v>
       </c>
       <c r="D4">
-        <v>0.9346857616067783</v>
+        <v>0.9346857616067801</v>
       </c>
       <c r="E4">
-        <v>0.9373629668193555</v>
+        <v>0.937362966819357</v>
       </c>
       <c r="F4">
-        <v>0.9219895514381342</v>
+        <v>0.921989551438136</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.033364830676214</v>
       </c>
       <c r="J4">
-        <v>0.9432768503131217</v>
+        <v>0.9432768503131236</v>
       </c>
       <c r="K4">
-        <v>0.9456420940106494</v>
+        <v>0.9456420940106514</v>
       </c>
       <c r="L4">
-        <v>0.9482811640035292</v>
+        <v>0.9482811640035306</v>
       </c>
       <c r="M4">
-        <v>0.9331305649688477</v>
+        <v>0.9331305649688494</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.926965745137395</v>
+        <v>0.9269657451373927</v>
       </c>
       <c r="D5">
-        <v>0.939449615932656</v>
+        <v>0.9394496159326531</v>
       </c>
       <c r="E5">
-        <v>0.9419898754475506</v>
+        <v>0.9419898754475481</v>
       </c>
       <c r="F5">
-        <v>0.9275397894471461</v>
+        <v>0.9275397894471435</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.034376891549842</v>
       </c>
       <c r="J5">
-        <v>0.9479294452711597</v>
+        <v>0.9479294452711572</v>
       </c>
       <c r="K5">
-        <v>0.9500936645000643</v>
+        <v>0.9500936645000617</v>
       </c>
       <c r="L5">
-        <v>0.9525991069551545</v>
+        <v>0.9525991069551522</v>
       </c>
       <c r="M5">
-        <v>0.9383502908406995</v>
+        <v>0.9383502908406969</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.927845874463271</v>
+        <v>0.9278458744632712</v>
       </c>
       <c r="D6">
-        <v>0.940235779016917</v>
+        <v>0.9402357790169172</v>
       </c>
       <c r="E6">
-        <v>0.9427534993425053</v>
+        <v>0.9427534993425051</v>
       </c>
       <c r="F6">
-        <v>0.9284557969786698</v>
+        <v>0.9284557969786699</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.034543320660682</v>
       </c>
       <c r="J6">
-        <v>0.9486968784639317</v>
+        <v>0.9486968784639318</v>
       </c>
       <c r="K6">
-        <v>0.9508280168863776</v>
+        <v>0.9508280168863779</v>
       </c>
       <c r="L6">
-        <v>0.9533114516382916</v>
+        <v>0.9533114516382915</v>
       </c>
       <c r="M6">
-        <v>0.9392115722270635</v>
+        <v>0.9392115722270634</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9217036505435299</v>
+        <v>0.9217036505435278</v>
       </c>
       <c r="D7">
-        <v>0.9347503615617311</v>
+        <v>0.9347503615617291</v>
       </c>
       <c r="E7">
-        <v>0.9374257055822875</v>
+        <v>0.9374257055822856</v>
       </c>
       <c r="F7">
-        <v>0.9220648108304862</v>
+        <v>0.9220648108304842</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.033378594031208</v>
       </c>
       <c r="J7">
-        <v>0.9433399668262585</v>
+        <v>0.9433399668262562</v>
       </c>
       <c r="K7">
-        <v>0.945702478124274</v>
+        <v>0.9457024781242721</v>
       </c>
       <c r="L7">
-        <v>0.9483397330483856</v>
+        <v>0.9483397330483837</v>
       </c>
       <c r="M7">
-        <v>0.9332013548332234</v>
+        <v>0.9332013548332213</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8933958175003648</v>
+        <v>0.8933958175003659</v>
       </c>
       <c r="D8">
-        <v>0.9095030304822438</v>
+        <v>0.9095030304822447</v>
       </c>
       <c r="E8">
-        <v>0.9129138332956863</v>
+        <v>0.9129138332956871</v>
       </c>
       <c r="F8">
-        <v>0.8926537988005433</v>
+        <v>0.8926537988005443</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.027933128403358</v>
       </c>
       <c r="J8">
-        <v>0.9186235376160786</v>
+        <v>0.9186235376160792</v>
       </c>
       <c r="K8">
-        <v>0.9220664449964792</v>
+        <v>0.9220664449964802</v>
       </c>
       <c r="L8">
-        <v>0.9254186826348965</v>
+        <v>0.9254186826348973</v>
       </c>
       <c r="M8">
-        <v>0.9055150626484294</v>
+        <v>0.9055150626484306</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8270472978247888</v>
+        <v>0.8270472978247869</v>
       </c>
       <c r="D9">
-        <v>0.8505878735321724</v>
+        <v>0.8505878735321706</v>
       </c>
       <c r="E9">
-        <v>0.8557670256420049</v>
+        <v>0.8557670256420031</v>
       </c>
       <c r="F9">
-        <v>0.8239071500749081</v>
+        <v>0.823907150074906</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.014988233865621</v>
       </c>
       <c r="J9">
-        <v>0.8606342533330983</v>
+        <v>0.8606342533330965</v>
       </c>
       <c r="K9">
-        <v>0.866680540108227</v>
+        <v>0.8666805401082253</v>
       </c>
       <c r="L9">
-        <v>0.8717321035283905</v>
+        <v>0.8717321035283884</v>
       </c>
       <c r="M9">
-        <v>0.8406917293143658</v>
+        <v>0.8406917293143635</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7521402383014387</v>
+        <v>0.7521402383014392</v>
       </c>
       <c r="D10">
-        <v>0.7846626880666181</v>
+        <v>0.7846626880666184</v>
       </c>
       <c r="E10">
-        <v>0.7918838810872914</v>
+        <v>0.7918838810872915</v>
       </c>
       <c r="F10">
-        <v>0.7463935112848963</v>
+        <v>0.7463935112848966</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J10">
-        <v>0.7953593705007522</v>
+        <v>0.7953593705007526</v>
       </c>
       <c r="K10">
-        <v>0.8044272593094646</v>
+        <v>0.8044272593094648</v>
       </c>
       <c r="L10">
-        <v>0.8114009014044381</v>
+        <v>0.8114009014044383</v>
       </c>
       <c r="M10">
-        <v>0.7675838224319882</v>
+        <v>0.7675838224319883</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7521402383014387</v>
+        <v>0.7521402383014392</v>
       </c>
       <c r="D11">
-        <v>0.7846626880666181</v>
+        <v>0.7846626880666184</v>
       </c>
       <c r="E11">
-        <v>0.7918838810872914</v>
+        <v>0.7918838810872915</v>
       </c>
       <c r="F11">
-        <v>0.7463935112848963</v>
+        <v>0.7463935112848966</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J11">
-        <v>0.7953593705007522</v>
+        <v>0.7953593705007526</v>
       </c>
       <c r="K11">
-        <v>0.8044272593094646</v>
+        <v>0.8044272593094648</v>
       </c>
       <c r="L11">
-        <v>0.8114009014044381</v>
+        <v>0.8114009014044383</v>
       </c>
       <c r="M11">
-        <v>0.7675838224319882</v>
+        <v>0.7675838224319883</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7521402383014387</v>
+        <v>0.7521402383014392</v>
       </c>
       <c r="D12">
-        <v>0.7846626880666181</v>
+        <v>0.7846626880666184</v>
       </c>
       <c r="E12">
-        <v>0.7918838810872914</v>
+        <v>0.7918838810872915</v>
       </c>
       <c r="F12">
-        <v>0.7463935112848963</v>
+        <v>0.7463935112848966</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J12">
-        <v>0.7953593705007522</v>
+        <v>0.7953593705007526</v>
       </c>
       <c r="K12">
-        <v>0.8044272593094646</v>
+        <v>0.8044272593094648</v>
       </c>
       <c r="L12">
-        <v>0.8114009014044381</v>
+        <v>0.8114009014044383</v>
       </c>
       <c r="M12">
-        <v>0.7675838224319882</v>
+        <v>0.7675838224319883</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7521402383014387</v>
+        <v>0.7521402383014392</v>
       </c>
       <c r="D13">
-        <v>0.7846626880666181</v>
+        <v>0.7846626880666184</v>
       </c>
       <c r="E13">
-        <v>0.7918838810872914</v>
+        <v>0.7918838810872915</v>
       </c>
       <c r="F13">
-        <v>0.7463935112848963</v>
+        <v>0.7463935112848966</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J13">
-        <v>0.7953593705007522</v>
+        <v>0.7953593705007526</v>
       </c>
       <c r="K13">
-        <v>0.8044272593094646</v>
+        <v>0.8044272593094648</v>
       </c>
       <c r="L13">
-        <v>0.8114009014044381</v>
+        <v>0.8114009014044383</v>
       </c>
       <c r="M13">
-        <v>0.7675838224319882</v>
+        <v>0.7675838224319883</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7521402383014387</v>
+        <v>0.7521402383014392</v>
       </c>
       <c r="D14">
-        <v>0.7846626880666181</v>
+        <v>0.7846626880666184</v>
       </c>
       <c r="E14">
-        <v>0.7918838810872914</v>
+        <v>0.7918838810872915</v>
       </c>
       <c r="F14">
-        <v>0.7463935112848963</v>
+        <v>0.7463935112848966</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J14">
-        <v>0.7953593705007522</v>
+        <v>0.7953593705007526</v>
       </c>
       <c r="K14">
-        <v>0.8044272593094646</v>
+        <v>0.8044272593094648</v>
       </c>
       <c r="L14">
-        <v>0.8114009014044381</v>
+        <v>0.8114009014044383</v>
       </c>
       <c r="M14">
-        <v>0.7675838224319882</v>
+        <v>0.7675838224319883</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7521402383014387</v>
+        <v>0.7521402383014392</v>
       </c>
       <c r="D15">
-        <v>0.7846626880666181</v>
+        <v>0.7846626880666184</v>
       </c>
       <c r="E15">
-        <v>0.7918838810872914</v>
+        <v>0.7918838810872915</v>
       </c>
       <c r="F15">
-        <v>0.7463935112848963</v>
+        <v>0.7463935112848966</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J15">
-        <v>0.7953593705007522</v>
+        <v>0.7953593705007526</v>
       </c>
       <c r="K15">
-        <v>0.8044272593094646</v>
+        <v>0.8044272593094648</v>
       </c>
       <c r="L15">
-        <v>0.8114009014044381</v>
+        <v>0.8114009014044383</v>
       </c>
       <c r="M15">
-        <v>0.7675838224319882</v>
+        <v>0.7675838224319883</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7521402383014387</v>
+        <v>0.7521402383014392</v>
       </c>
       <c r="D16">
-        <v>0.7846626880666181</v>
+        <v>0.7846626880666184</v>
       </c>
       <c r="E16">
-        <v>0.7918838810872914</v>
+        <v>0.7918838810872915</v>
       </c>
       <c r="F16">
-        <v>0.7463935112848963</v>
+        <v>0.7463935112848966</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J16">
-        <v>0.7953593705007522</v>
+        <v>0.7953593705007526</v>
       </c>
       <c r="K16">
-        <v>0.8044272593094646</v>
+        <v>0.8044272593094648</v>
       </c>
       <c r="L16">
-        <v>0.8114009014044381</v>
+        <v>0.8114009014044383</v>
       </c>
       <c r="M16">
-        <v>0.7675838224319882</v>
+        <v>0.7675838224319883</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7521402383014387</v>
+        <v>0.7521402383014392</v>
       </c>
       <c r="D17">
-        <v>0.7846626880666181</v>
+        <v>0.7846626880666184</v>
       </c>
       <c r="E17">
-        <v>0.7918838810872914</v>
+        <v>0.7918838810872915</v>
       </c>
       <c r="F17">
-        <v>0.7463935112848963</v>
+        <v>0.7463935112848966</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J17">
-        <v>0.7953593705007522</v>
+        <v>0.7953593705007526</v>
       </c>
       <c r="K17">
-        <v>0.8044272593094646</v>
+        <v>0.8044272593094648</v>
       </c>
       <c r="L17">
-        <v>0.8114009014044381</v>
+        <v>0.8114009014044383</v>
       </c>
       <c r="M17">
-        <v>0.7675838224319882</v>
+        <v>0.7675838224319883</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7521402383014387</v>
+        <v>0.7521402383014392</v>
       </c>
       <c r="D18">
-        <v>0.7846626880666181</v>
+        <v>0.7846626880666184</v>
       </c>
       <c r="E18">
-        <v>0.7918838810872914</v>
+        <v>0.7918838810872915</v>
       </c>
       <c r="F18">
-        <v>0.7463935112848963</v>
+        <v>0.7463935112848966</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J18">
-        <v>0.7953593705007522</v>
+        <v>0.7953593705007526</v>
       </c>
       <c r="K18">
-        <v>0.8044272593094646</v>
+        <v>0.8044272593094648</v>
       </c>
       <c r="L18">
-        <v>0.8114009014044381</v>
+        <v>0.8114009014044383</v>
       </c>
       <c r="M18">
-        <v>0.7675838224319882</v>
+        <v>0.7675838224319883</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7521402383014387</v>
+        <v>0.7521402383014392</v>
       </c>
       <c r="D19">
-        <v>0.7846626880666181</v>
+        <v>0.7846626880666184</v>
       </c>
       <c r="E19">
-        <v>0.7918838810872914</v>
+        <v>0.7918838810872915</v>
       </c>
       <c r="F19">
-        <v>0.7463935112848963</v>
+        <v>0.7463935112848966</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J19">
-        <v>0.7953593705007522</v>
+        <v>0.7953593705007526</v>
       </c>
       <c r="K19">
-        <v>0.8044272593094646</v>
+        <v>0.8044272593094648</v>
       </c>
       <c r="L19">
-        <v>0.8114009014044381</v>
+        <v>0.8114009014044383</v>
       </c>
       <c r="M19">
-        <v>0.7675838224319882</v>
+        <v>0.7675838224319883</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7521402383014387</v>
+        <v>0.7521402383014392</v>
       </c>
       <c r="D20">
-        <v>0.7846626880666181</v>
+        <v>0.7846626880666184</v>
       </c>
       <c r="E20">
-        <v>0.7918838810872914</v>
+        <v>0.7918838810872915</v>
       </c>
       <c r="F20">
-        <v>0.7463935112848963</v>
+        <v>0.7463935112848966</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J20">
-        <v>0.7953593705007522</v>
+        <v>0.7953593705007526</v>
       </c>
       <c r="K20">
-        <v>0.8044272593094646</v>
+        <v>0.8044272593094648</v>
       </c>
       <c r="L20">
-        <v>0.8114009014044381</v>
+        <v>0.8114009014044383</v>
       </c>
       <c r="M20">
-        <v>0.7675838224319882</v>
+        <v>0.7675838224319883</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7521402383014387</v>
+        <v>0.7521402383014392</v>
       </c>
       <c r="D21">
-        <v>0.7846626880666181</v>
+        <v>0.7846626880666184</v>
       </c>
       <c r="E21">
-        <v>0.7918838810872914</v>
+        <v>0.7918838810872915</v>
       </c>
       <c r="F21">
-        <v>0.7463935112848963</v>
+        <v>0.7463935112848966</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J21">
-        <v>0.7953593705007522</v>
+        <v>0.7953593705007526</v>
       </c>
       <c r="K21">
-        <v>0.8044272593094646</v>
+        <v>0.8044272593094648</v>
       </c>
       <c r="L21">
-        <v>0.8114009014044381</v>
+        <v>0.8114009014044383</v>
       </c>
       <c r="M21">
-        <v>0.7675838224319882</v>
+        <v>0.7675838224319883</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7521402383014387</v>
+        <v>0.7521402383014392</v>
       </c>
       <c r="D22">
-        <v>0.7846626880666181</v>
+        <v>0.7846626880666184</v>
       </c>
       <c r="E22">
-        <v>0.7918838810872914</v>
+        <v>0.7918838810872915</v>
       </c>
       <c r="F22">
-        <v>0.7463935112848963</v>
+        <v>0.7463935112848966</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J22">
-        <v>0.7953593705007522</v>
+        <v>0.7953593705007526</v>
       </c>
       <c r="K22">
-        <v>0.8044272593094646</v>
+        <v>0.8044272593094648</v>
       </c>
       <c r="L22">
-        <v>0.8114009014044381</v>
+        <v>0.8114009014044383</v>
       </c>
       <c r="M22">
-        <v>0.7675838224319882</v>
+        <v>0.7675838224319883</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7521402383014387</v>
+        <v>0.7521402383014392</v>
       </c>
       <c r="D23">
-        <v>0.7846626880666181</v>
+        <v>0.7846626880666184</v>
       </c>
       <c r="E23">
-        <v>0.7918838810872914</v>
+        <v>0.7918838810872915</v>
       </c>
       <c r="F23">
-        <v>0.7463935112848963</v>
+        <v>0.7463935112848966</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J23">
-        <v>0.7953593705007522</v>
+        <v>0.7953593705007526</v>
       </c>
       <c r="K23">
-        <v>0.8044272593094646</v>
+        <v>0.8044272593094648</v>
       </c>
       <c r="L23">
-        <v>0.8114009014044381</v>
+        <v>0.8114009014044383</v>
       </c>
       <c r="M23">
-        <v>0.7675838224319882</v>
+        <v>0.7675838224319883</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7521402383014387</v>
+        <v>0.7521402383014392</v>
       </c>
       <c r="D24">
-        <v>0.7846626880666181</v>
+        <v>0.7846626880666184</v>
       </c>
       <c r="E24">
-        <v>0.7918838810872914</v>
+        <v>0.7918838810872915</v>
       </c>
       <c r="F24">
-        <v>0.7463935112848963</v>
+        <v>0.7463935112848966</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J24">
-        <v>0.7953593705007522</v>
+        <v>0.7953593705007526</v>
       </c>
       <c r="K24">
-        <v>0.8044272593094646</v>
+        <v>0.8044272593094648</v>
       </c>
       <c r="L24">
-        <v>0.8114009014044381</v>
+        <v>0.8114009014044383</v>
       </c>
       <c r="M24">
-        <v>0.7675838224319882</v>
+        <v>0.7675838224319883</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7521402383014387</v>
+        <v>0.7521402383014392</v>
       </c>
       <c r="D25">
-        <v>0.7846626880666181</v>
+        <v>0.7846626880666184</v>
       </c>
       <c r="E25">
-        <v>0.7918838810872914</v>
+        <v>0.7918838810872915</v>
       </c>
       <c r="F25">
-        <v>0.7463935112848963</v>
+        <v>0.7463935112848966</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.000720283957774</v>
       </c>
       <c r="J25">
-        <v>0.7953593705007522</v>
+        <v>0.7953593705007526</v>
       </c>
       <c r="K25">
-        <v>0.8044272593094646</v>
+        <v>0.8044272593094648</v>
       </c>
       <c r="L25">
-        <v>0.8114009014044381</v>
+        <v>0.8114009014044383</v>
       </c>
       <c r="M25">
-        <v>0.7675838224319882</v>
+        <v>0.7675838224319883</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8852774139637295</v>
+        <v>0.889205761010831</v>
       </c>
       <c r="D2">
-        <v>0.9022733431396541</v>
+        <v>0.9058656247867342</v>
       </c>
       <c r="E2">
-        <v>0.9058974999866581</v>
+        <v>0.9093118054588271</v>
       </c>
       <c r="F2">
-        <v>0.8842301482260897</v>
+        <v>0.8880802305788454</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02635504471138</v>
+        <v>1.026937867284157</v>
       </c>
       <c r="J2">
-        <v>0.9115292718544806</v>
+        <v>0.9152933904194477</v>
       </c>
       <c r="K2">
-        <v>0.9152858450398894</v>
+        <v>0.9188133285437443</v>
       </c>
       <c r="L2">
-        <v>0.9188446317621014</v>
+        <v>0.9221979708705814</v>
       </c>
       <c r="M2">
-        <v>0.8975785380501498</v>
+        <v>0.9013554511640655</v>
+      </c>
+      <c r="N2">
+        <v>0.9165932120194614</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.90825085780167</v>
+        <v>0.9120131021082813</v>
       </c>
       <c r="D3">
-        <v>0.9227449003724775</v>
+        <v>0.9261964405012344</v>
       </c>
       <c r="E3">
-        <v>0.9257680102506486</v>
+        <v>0.9290449624685895</v>
       </c>
       <c r="F3">
-        <v>0.9080795305632809</v>
+        <v>0.9117540099799742</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030804276817899</v>
+        <v>1.031357351686074</v>
       </c>
       <c r="J3">
-        <v>0.931598790921721</v>
+        <v>0.9352280127922695</v>
       </c>
       <c r="K3">
-        <v>0.9344720073441181</v>
+        <v>0.9378696854134119</v>
       </c>
       <c r="L3">
-        <v>0.9374479130120136</v>
+        <v>0.9406741403990578</v>
       </c>
       <c r="M3">
-        <v>0.9200413612789773</v>
+        <v>0.9236561194752301</v>
+      </c>
+      <c r="N3">
+        <v>0.9365561438425868</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9216312992616902</v>
+        <v>0.9253134357191733</v>
       </c>
       <c r="D4">
-        <v>0.9346857616067801</v>
+        <v>0.9380696596289199</v>
       </c>
       <c r="E4">
-        <v>0.937362966819357</v>
+        <v>0.9405737856480619</v>
       </c>
       <c r="F4">
-        <v>0.921989551438136</v>
+        <v>0.9255789200678216</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033364830676214</v>
+        <v>1.033903433850172</v>
       </c>
       <c r="J4">
-        <v>0.9432768503131236</v>
+        <v>0.9468418672254783</v>
       </c>
       <c r="K4">
-        <v>0.9456420940106514</v>
+        <v>0.9489778363019352</v>
       </c>
       <c r="L4">
-        <v>0.9482811640035306</v>
+        <v>0.9514466083490105</v>
       </c>
       <c r="M4">
-        <v>0.9331305649688494</v>
+        <v>0.9366670700387615</v>
+      </c>
+      <c r="N4">
+        <v>0.9481864912812185</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9269657451373927</v>
+        <v>0.9306188807272898</v>
       </c>
       <c r="D5">
-        <v>0.9394496159326531</v>
+        <v>0.9428090794972206</v>
       </c>
       <c r="E5">
-        <v>0.9419898754475481</v>
+        <v>0.9451767790336121</v>
       </c>
       <c r="F5">
-        <v>0.9275397894471435</v>
+        <v>0.9310982506023959</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034376891549842</v>
+        <v>1.034910237895113</v>
       </c>
       <c r="J5">
-        <v>0.9479294452711572</v>
+        <v>0.9514714072869748</v>
       </c>
       <c r="K5">
-        <v>0.9500936645000617</v>
+        <v>0.9534071332737548</v>
       </c>
       <c r="L5">
-        <v>0.9525991069551522</v>
+        <v>0.9557426634685416</v>
       </c>
       <c r="M5">
-        <v>0.9383502908406969</v>
+        <v>0.9418584550964875</v>
+      </c>
+      <c r="N5">
+        <v>0.9528226058206181</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9278458744632712</v>
+        <v>0.9314943757695099</v>
       </c>
       <c r="D6">
-        <v>0.9402357790169172</v>
+        <v>0.9435913411187425</v>
       </c>
       <c r="E6">
-        <v>0.9427534993425051</v>
+        <v>0.9459365829052989</v>
       </c>
       <c r="F6">
-        <v>0.9284557969786699</v>
+        <v>0.9320093136347213</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034543320660682</v>
+        <v>1.035075826230319</v>
       </c>
       <c r="J6">
-        <v>0.9486968784639318</v>
+        <v>0.9522351672057977</v>
       </c>
       <c r="K6">
-        <v>0.9508280168863779</v>
+        <v>0.9541379349705141</v>
       </c>
       <c r="L6">
-        <v>0.9533114516382915</v>
+        <v>0.9564515172956138</v>
       </c>
       <c r="M6">
-        <v>0.9392115722270634</v>
+        <v>0.9427152070077908</v>
+      </c>
+      <c r="N6">
+        <v>0.9535874503661301</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9217036505435278</v>
+        <v>0.9253853829685889</v>
       </c>
       <c r="D7">
-        <v>0.9347503615617291</v>
+        <v>0.9381339189502187</v>
       </c>
       <c r="E7">
-        <v>0.9374257055822856</v>
+        <v>0.9406361911194148</v>
       </c>
       <c r="F7">
-        <v>0.9220648108304842</v>
+        <v>0.9256537492555691</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033378594031208</v>
+        <v>1.033917124027246</v>
       </c>
       <c r="J7">
-        <v>0.9433399668262562</v>
+        <v>0.946904661777479</v>
       </c>
       <c r="K7">
-        <v>0.9457024781242721</v>
+        <v>0.9490379095018907</v>
       </c>
       <c r="L7">
-        <v>0.9483397330483837</v>
+        <v>0.9515048719809016</v>
       </c>
       <c r="M7">
-        <v>0.9332013548332213</v>
+        <v>0.9367374651132366</v>
+      </c>
+      <c r="N7">
+        <v>0.948249375008686</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8933958175003659</v>
+        <v>0.8972608941581471</v>
       </c>
       <c r="D8">
-        <v>0.9095030304822447</v>
+        <v>0.9130416408073412</v>
       </c>
       <c r="E8">
-        <v>0.9129138332956871</v>
+        <v>0.9162757923048095</v>
       </c>
       <c r="F8">
-        <v>0.8926537988005443</v>
+        <v>0.8964371028106458</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027933128403358</v>
+        <v>1.028504661577619</v>
       </c>
       <c r="J8">
-        <v>0.9186235376160792</v>
+        <v>0.9223360441237783</v>
       </c>
       <c r="K8">
-        <v>0.9220664449964802</v>
+        <v>0.9255443066154598</v>
       </c>
       <c r="L8">
-        <v>0.9254186826348973</v>
+        <v>0.9287234657871366</v>
       </c>
       <c r="M8">
-        <v>0.9055150626484306</v>
+        <v>0.9092302218237412</v>
+      </c>
+      <c r="N8">
+        <v>0.9236458670998571</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8270472978247869</v>
+        <v>0.8316399899620877</v>
       </c>
       <c r="D9">
-        <v>0.8505878735321706</v>
+        <v>0.8547459452482208</v>
       </c>
       <c r="E9">
-        <v>0.8557670256420031</v>
+        <v>0.8597317793012533</v>
       </c>
       <c r="F9">
-        <v>0.823907150074906</v>
+        <v>0.8284542664101934</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.014988233865621</v>
+        <v>1.015687061342672</v>
       </c>
       <c r="J9">
-        <v>0.8606342533330965</v>
+        <v>0.8649494019541997</v>
       </c>
       <c r="K9">
-        <v>0.8666805401082253</v>
+        <v>0.8707360128204521</v>
       </c>
       <c r="L9">
-        <v>0.8717321035283884</v>
+        <v>0.8756005806441135</v>
       </c>
       <c r="M9">
-        <v>0.8406917293143635</v>
+        <v>0.8451166434406212</v>
+      </c>
+      <c r="N9">
+        <v>0.8661777293160577</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7521402383014392</v>
+        <v>0.7588513319316169</v>
       </c>
       <c r="D10">
-        <v>0.7846626880666184</v>
+        <v>0.7906310317327213</v>
       </c>
       <c r="E10">
-        <v>0.7918838810872915</v>
+        <v>0.7976044547216827</v>
       </c>
       <c r="F10">
-        <v>0.7463935112848966</v>
+        <v>0.7531509367386607</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.000720283957774</v>
+        <v>1.00177430461845</v>
       </c>
       <c r="J10">
-        <v>0.7953593705007526</v>
+        <v>0.8014644781179661</v>
       </c>
       <c r="K10">
-        <v>0.8044272593094648</v>
+        <v>0.8101905493140021</v>
       </c>
       <c r="L10">
-        <v>0.8114009014044383</v>
+        <v>0.816929788136371</v>
       </c>
       <c r="M10">
-        <v>0.7675838224319883</v>
+        <v>0.7740745888883374</v>
+      </c>
+      <c r="N10">
+        <v>0.8026026496061542</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7521402383014392</v>
+        <v>0.6854184344970593</v>
       </c>
       <c r="D11">
-        <v>0.7846626880666184</v>
+        <v>0.7267910109944902</v>
       </c>
       <c r="E11">
-        <v>0.7918838810872915</v>
+        <v>0.7357823931407719</v>
       </c>
       <c r="F11">
-        <v>0.7463935112848966</v>
+        <v>0.6770180479527941</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.000720283957774</v>
+        <v>0.988669969503344</v>
       </c>
       <c r="J11">
-        <v>0.7953593705007526</v>
+        <v>0.7379609902530612</v>
       </c>
       <c r="K11">
-        <v>0.8044272593094648</v>
+        <v>0.7497058906522545</v>
       </c>
       <c r="L11">
-        <v>0.8114009014044383</v>
+        <v>0.7582977703610241</v>
       </c>
       <c r="M11">
-        <v>0.7675838224319883</v>
+        <v>0.702427553250491</v>
+      </c>
+      <c r="N11">
+        <v>0.739008979504529</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7521402383014392</v>
+        <v>0.6854184344970593</v>
       </c>
       <c r="D12">
-        <v>0.7846626880666184</v>
+        <v>0.7267910109944902</v>
       </c>
       <c r="E12">
-        <v>0.7918838810872915</v>
+        <v>0.7357823931407719</v>
       </c>
       <c r="F12">
-        <v>0.7463935112848966</v>
+        <v>0.6770180479527941</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.000720283957774</v>
+        <v>0.988669969503344</v>
       </c>
       <c r="J12">
-        <v>0.7953593705007526</v>
+        <v>0.7379609902530612</v>
       </c>
       <c r="K12">
-        <v>0.8044272593094648</v>
+        <v>0.7497058906522545</v>
       </c>
       <c r="L12">
-        <v>0.8114009014044383</v>
+        <v>0.7582977703610241</v>
       </c>
       <c r="M12">
-        <v>0.7675838224319883</v>
+        <v>0.702427553250491</v>
+      </c>
+      <c r="N12">
+        <v>0.739008979504529</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7521402383014392</v>
+        <v>0.6854184344970593</v>
       </c>
       <c r="D13">
-        <v>0.7846626880666184</v>
+        <v>0.7267910109944902</v>
       </c>
       <c r="E13">
-        <v>0.7918838810872915</v>
+        <v>0.7357823931407719</v>
       </c>
       <c r="F13">
-        <v>0.7463935112848966</v>
+        <v>0.6770180479527941</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.000720283957774</v>
+        <v>0.988669969503344</v>
       </c>
       <c r="J13">
-        <v>0.7953593705007526</v>
+        <v>0.7379609902530612</v>
       </c>
       <c r="K13">
-        <v>0.8044272593094648</v>
+        <v>0.7497058906522545</v>
       </c>
       <c r="L13">
-        <v>0.8114009014044383</v>
+        <v>0.7582977703610241</v>
       </c>
       <c r="M13">
-        <v>0.7675838224319883</v>
+        <v>0.702427553250491</v>
+      </c>
+      <c r="N13">
+        <v>0.739008979504529</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7521402383014392</v>
+        <v>0.6854184344970593</v>
       </c>
       <c r="D14">
-        <v>0.7846626880666184</v>
+        <v>0.7267910109944902</v>
       </c>
       <c r="E14">
-        <v>0.7918838810872915</v>
+        <v>0.7357823931407719</v>
       </c>
       <c r="F14">
-        <v>0.7463935112848966</v>
+        <v>0.6770180479527941</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.000720283957774</v>
+        <v>0.988669969503344</v>
       </c>
       <c r="J14">
-        <v>0.7953593705007526</v>
+        <v>0.7379609902530612</v>
       </c>
       <c r="K14">
-        <v>0.8044272593094648</v>
+        <v>0.7497058906522545</v>
       </c>
       <c r="L14">
-        <v>0.8114009014044383</v>
+        <v>0.7582977703610241</v>
       </c>
       <c r="M14">
-        <v>0.7675838224319883</v>
+        <v>0.702427553250491</v>
+      </c>
+      <c r="N14">
+        <v>0.739008979504529</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7521402383014392</v>
+        <v>0.6854184344970593</v>
       </c>
       <c r="D15">
-        <v>0.7846626880666184</v>
+        <v>0.7267910109944902</v>
       </c>
       <c r="E15">
-        <v>0.7918838810872915</v>
+        <v>0.7357823931407719</v>
       </c>
       <c r="F15">
-        <v>0.7463935112848966</v>
+        <v>0.6770180479527941</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.000720283957774</v>
+        <v>0.988669969503344</v>
       </c>
       <c r="J15">
-        <v>0.7953593705007526</v>
+        <v>0.7379609902530612</v>
       </c>
       <c r="K15">
-        <v>0.8044272593094648</v>
+        <v>0.7497058906522545</v>
       </c>
       <c r="L15">
-        <v>0.8114009014044383</v>
+        <v>0.7582977703610241</v>
       </c>
       <c r="M15">
-        <v>0.7675838224319883</v>
+        <v>0.702427553250491</v>
+      </c>
+      <c r="N15">
+        <v>0.739008979504529</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7521402383014392</v>
+        <v>0.6854184344970593</v>
       </c>
       <c r="D16">
-        <v>0.7846626880666184</v>
+        <v>0.7267910109944902</v>
       </c>
       <c r="E16">
-        <v>0.7918838810872915</v>
+        <v>0.7357823931407719</v>
       </c>
       <c r="F16">
-        <v>0.7463935112848966</v>
+        <v>0.6770180479527941</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.000720283957774</v>
+        <v>0.988669969503344</v>
       </c>
       <c r="J16">
-        <v>0.7953593705007526</v>
+        <v>0.7379609902530612</v>
       </c>
       <c r="K16">
-        <v>0.8044272593094648</v>
+        <v>0.7497058906522545</v>
       </c>
       <c r="L16">
-        <v>0.8114009014044383</v>
+        <v>0.7582977703610241</v>
       </c>
       <c r="M16">
-        <v>0.7675838224319883</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.702427553250491</v>
+      </c>
+      <c r="N16">
+        <v>0.739008979504529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7521402383014392</v>
+        <v>0.6854184344970593</v>
       </c>
       <c r="D17">
-        <v>0.7846626880666184</v>
+        <v>0.7267910109944902</v>
       </c>
       <c r="E17">
-        <v>0.7918838810872915</v>
+        <v>0.7357823931407719</v>
       </c>
       <c r="F17">
-        <v>0.7463935112848966</v>
+        <v>0.6770180479527941</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.000720283957774</v>
+        <v>0.988669969503344</v>
       </c>
       <c r="J17">
-        <v>0.7953593705007526</v>
+        <v>0.7379609902530612</v>
       </c>
       <c r="K17">
-        <v>0.8044272593094648</v>
+        <v>0.7497058906522545</v>
       </c>
       <c r="L17">
-        <v>0.8114009014044383</v>
+        <v>0.7582977703610241</v>
       </c>
       <c r="M17">
-        <v>0.7675838224319883</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.702427553250491</v>
+      </c>
+      <c r="N17">
+        <v>0.739008979504529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7521402383014392</v>
+        <v>0.6854184344970593</v>
       </c>
       <c r="D18">
-        <v>0.7846626880666184</v>
+        <v>0.7267910109944902</v>
       </c>
       <c r="E18">
-        <v>0.7918838810872915</v>
+        <v>0.7357823931407719</v>
       </c>
       <c r="F18">
-        <v>0.7463935112848966</v>
+        <v>0.6770180479527941</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.000720283957774</v>
+        <v>0.988669969503344</v>
       </c>
       <c r="J18">
-        <v>0.7953593705007526</v>
+        <v>0.7379609902530612</v>
       </c>
       <c r="K18">
-        <v>0.8044272593094648</v>
+        <v>0.7497058906522545</v>
       </c>
       <c r="L18">
-        <v>0.8114009014044383</v>
+        <v>0.7582977703610241</v>
       </c>
       <c r="M18">
-        <v>0.7675838224319883</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.702427553250491</v>
+      </c>
+      <c r="N18">
+        <v>0.739008979504529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7521402383014392</v>
+        <v>0.6854184344970593</v>
       </c>
       <c r="D19">
-        <v>0.7846626880666184</v>
+        <v>0.7267910109944902</v>
       </c>
       <c r="E19">
-        <v>0.7918838810872915</v>
+        <v>0.7357823931407719</v>
       </c>
       <c r="F19">
-        <v>0.7463935112848966</v>
+        <v>0.6770180479527941</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.000720283957774</v>
+        <v>0.988669969503344</v>
       </c>
       <c r="J19">
-        <v>0.7953593705007526</v>
+        <v>0.7379609902530612</v>
       </c>
       <c r="K19">
-        <v>0.8044272593094648</v>
+        <v>0.7497058906522545</v>
       </c>
       <c r="L19">
-        <v>0.8114009014044383</v>
+        <v>0.7582977703610241</v>
       </c>
       <c r="M19">
-        <v>0.7675838224319883</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.702427553250491</v>
+      </c>
+      <c r="N19">
+        <v>0.739008979504529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7521402383014392</v>
+        <v>0.6854184344970593</v>
       </c>
       <c r="D20">
-        <v>0.7846626880666184</v>
+        <v>0.7267910109944902</v>
       </c>
       <c r="E20">
-        <v>0.7918838810872915</v>
+        <v>0.7357823931407719</v>
       </c>
       <c r="F20">
-        <v>0.7463935112848966</v>
+        <v>0.6770180479527941</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.000720283957774</v>
+        <v>0.988669969503344</v>
       </c>
       <c r="J20">
-        <v>0.7953593705007526</v>
+        <v>0.7379609902530612</v>
       </c>
       <c r="K20">
-        <v>0.8044272593094648</v>
+        <v>0.7497058906522545</v>
       </c>
       <c r="L20">
-        <v>0.8114009014044383</v>
+        <v>0.7582977703610241</v>
       </c>
       <c r="M20">
-        <v>0.7675838224319883</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.702427553250491</v>
+      </c>
+      <c r="N20">
+        <v>0.739008979504529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7521402383014392</v>
+        <v>0.6854184344970593</v>
       </c>
       <c r="D21">
-        <v>0.7846626880666184</v>
+        <v>0.7267910109944902</v>
       </c>
       <c r="E21">
-        <v>0.7918838810872915</v>
+        <v>0.7357823931407719</v>
       </c>
       <c r="F21">
-        <v>0.7463935112848966</v>
+        <v>0.6770180479527941</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.000720283957774</v>
+        <v>0.988669969503344</v>
       </c>
       <c r="J21">
-        <v>0.7953593705007526</v>
+        <v>0.7379609902530612</v>
       </c>
       <c r="K21">
-        <v>0.8044272593094648</v>
+        <v>0.7497058906522545</v>
       </c>
       <c r="L21">
-        <v>0.8114009014044383</v>
+        <v>0.7582977703610241</v>
       </c>
       <c r="M21">
-        <v>0.7675838224319883</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.702427553250491</v>
+      </c>
+      <c r="N21">
+        <v>0.739008979504529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7521402383014392</v>
+        <v>0.6854184344970593</v>
       </c>
       <c r="D22">
-        <v>0.7846626880666184</v>
+        <v>0.7267910109944902</v>
       </c>
       <c r="E22">
-        <v>0.7918838810872915</v>
+        <v>0.7357823931407719</v>
       </c>
       <c r="F22">
-        <v>0.7463935112848966</v>
+        <v>0.6770180479527941</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.000720283957774</v>
+        <v>0.988669969503344</v>
       </c>
       <c r="J22">
-        <v>0.7953593705007526</v>
+        <v>0.7379609902530612</v>
       </c>
       <c r="K22">
-        <v>0.8044272593094648</v>
+        <v>0.7497058906522545</v>
       </c>
       <c r="L22">
-        <v>0.8114009014044383</v>
+        <v>0.7582977703610241</v>
       </c>
       <c r="M22">
-        <v>0.7675838224319883</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.702427553250491</v>
+      </c>
+      <c r="N22">
+        <v>0.739008979504529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7521402383014392</v>
+        <v>0.6854184344970593</v>
       </c>
       <c r="D23">
-        <v>0.7846626880666184</v>
+        <v>0.7267910109944902</v>
       </c>
       <c r="E23">
-        <v>0.7918838810872915</v>
+        <v>0.7357823931407719</v>
       </c>
       <c r="F23">
-        <v>0.7463935112848966</v>
+        <v>0.6770180479527941</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.000720283957774</v>
+        <v>0.988669969503344</v>
       </c>
       <c r="J23">
-        <v>0.7953593705007526</v>
+        <v>0.7379609902530612</v>
       </c>
       <c r="K23">
-        <v>0.8044272593094648</v>
+        <v>0.7497058906522545</v>
       </c>
       <c r="L23">
-        <v>0.8114009014044383</v>
+        <v>0.7582977703610241</v>
       </c>
       <c r="M23">
-        <v>0.7675838224319883</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.702427553250491</v>
+      </c>
+      <c r="N23">
+        <v>0.739008979504529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7521402383014392</v>
+        <v>0.6854184344970593</v>
       </c>
       <c r="D24">
-        <v>0.7846626880666184</v>
+        <v>0.7267910109944902</v>
       </c>
       <c r="E24">
-        <v>0.7918838810872915</v>
+        <v>0.7357823931407719</v>
       </c>
       <c r="F24">
-        <v>0.7463935112848966</v>
+        <v>0.6770180479527941</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.000720283957774</v>
+        <v>0.988669969503344</v>
       </c>
       <c r="J24">
-        <v>0.7953593705007526</v>
+        <v>0.7379609902530612</v>
       </c>
       <c r="K24">
-        <v>0.8044272593094648</v>
+        <v>0.7497058906522545</v>
       </c>
       <c r="L24">
-        <v>0.8114009014044383</v>
+        <v>0.7582977703610241</v>
       </c>
       <c r="M24">
-        <v>0.7675838224319883</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.702427553250491</v>
+      </c>
+      <c r="N24">
+        <v>0.739008979504529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7521402383014392</v>
+        <v>0.6854184344970593</v>
       </c>
       <c r="D25">
-        <v>0.7846626880666184</v>
+        <v>0.7267910109944902</v>
       </c>
       <c r="E25">
-        <v>0.7918838810872915</v>
+        <v>0.7357823931407719</v>
       </c>
       <c r="F25">
-        <v>0.7463935112848966</v>
+        <v>0.6770180479527941</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.000720283957774</v>
+        <v>0.988669969503344</v>
       </c>
       <c r="J25">
-        <v>0.7953593705007526</v>
+        <v>0.7379609902530612</v>
       </c>
       <c r="K25">
-        <v>0.8044272593094648</v>
+        <v>0.7497058906522545</v>
       </c>
       <c r="L25">
-        <v>0.8114009014044383</v>
+        <v>0.7582977703610241</v>
       </c>
       <c r="M25">
-        <v>0.7675838224319883</v>
+        <v>0.702427553250491</v>
+      </c>
+      <c r="N25">
+        <v>0.739008979504529</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.889205761010831</v>
+        <v>0.951419365417704</v>
       </c>
       <c r="D2">
-        <v>0.9058656247867342</v>
+        <v>0.9668053487265593</v>
       </c>
       <c r="E2">
-        <v>0.9093118054588271</v>
+        <v>0.961845993080427</v>
       </c>
       <c r="F2">
-        <v>0.8880802305788454</v>
+        <v>0.9736431459487497</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026937867284157</v>
+        <v>1.038979585751254</v>
       </c>
       <c r="J2">
-        <v>0.9152933904194477</v>
+        <v>0.975156993974069</v>
       </c>
       <c r="K2">
-        <v>0.9188133285437443</v>
+        <v>0.9787473627989155</v>
       </c>
       <c r="L2">
-        <v>0.9221979708705814</v>
+        <v>0.9738637704539147</v>
       </c>
       <c r="M2">
-        <v>0.9013554511640655</v>
+        <v>0.9854823099317898</v>
       </c>
       <c r="N2">
-        <v>0.9165932120194614</v>
+        <v>0.9765418287575827</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9120131021082813</v>
+        <v>0.9730779255492463</v>
       </c>
       <c r="D3">
-        <v>0.9261964405012344</v>
+        <v>0.9875701173939158</v>
       </c>
       <c r="E3">
-        <v>0.9290449624685895</v>
+        <v>0.9805937521120508</v>
       </c>
       <c r="F3">
-        <v>0.9117540099799742</v>
+        <v>0.9942149513866215</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031357351686074</v>
+        <v>1.043801536799755</v>
       </c>
       <c r="J3">
-        <v>0.9352280127922695</v>
+        <v>0.9943304254772865</v>
       </c>
       <c r="K3">
-        <v>0.9378696854134119</v>
+        <v>0.9983645508475426</v>
       </c>
       <c r="L3">
-        <v>0.9406741403990578</v>
+        <v>0.9914811127587495</v>
       </c>
       <c r="M3">
-        <v>0.9236561194752301</v>
+        <v>1.004922392084294</v>
       </c>
       <c r="N3">
-        <v>0.9365561438425868</v>
+        <v>0.9957424887327581</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9253134357191733</v>
+        <v>0.9859393270754787</v>
       </c>
       <c r="D4">
-        <v>0.9380696596289199</v>
+        <v>0.9999118230536558</v>
       </c>
       <c r="E4">
-        <v>0.9405737856480619</v>
+        <v>0.9917366894333388</v>
       </c>
       <c r="F4">
-        <v>0.9255789200678216</v>
+        <v>1.006441873144443</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033903433850172</v>
+        <v>1.04663835214515</v>
       </c>
       <c r="J4">
-        <v>0.9468418672254783</v>
+        <v>1.005709675689307</v>
       </c>
       <c r="K4">
-        <v>0.9489778363019352</v>
+        <v>1.010011312409919</v>
       </c>
       <c r="L4">
-        <v>0.9514466083490105</v>
+        <v>1.00193587917944</v>
       </c>
       <c r="M4">
-        <v>0.9366670700387615</v>
+        <v>1.016463167244038</v>
       </c>
       <c r="N4">
-        <v>0.9481864912812185</v>
+        <v>1.007137898785297</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9306188807272898</v>
+        <v>0.99111347264889</v>
       </c>
       <c r="D5">
-        <v>0.9428090794972206</v>
+        <v>1.004878997514</v>
       </c>
       <c r="E5">
-        <v>0.9451767790336121</v>
+        <v>0.9962213223688865</v>
       </c>
       <c r="F5">
-        <v>0.9310982506023959</v>
+        <v>1.011362639401932</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034910237895113</v>
+        <v>1.047772614546144</v>
       </c>
       <c r="J5">
-        <v>0.9514714072869748</v>
+        <v>1.010285627321651</v>
       </c>
       <c r="K5">
-        <v>0.9534071332737548</v>
+        <v>1.014695760072639</v>
       </c>
       <c r="L5">
-        <v>0.9557426634685416</v>
+        <v>1.006139816545587</v>
       </c>
       <c r="M5">
-        <v>0.9418584550964875</v>
+        <v>1.021104624206916</v>
       </c>
       <c r="N5">
-        <v>0.9528226058206181</v>
+        <v>1.011720348793829</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9314943757695099</v>
+        <v>0.9919696247386803</v>
       </c>
       <c r="D6">
-        <v>0.9435913411187425</v>
+        <v>1.005701013078976</v>
       </c>
       <c r="E6">
-        <v>0.9459365829052989</v>
+        <v>0.9969634760749772</v>
       </c>
       <c r="F6">
-        <v>0.9320093136347213</v>
+        <v>1.012176957837533</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035075826230319</v>
+        <v>1.047959870617024</v>
       </c>
       <c r="J6">
-        <v>0.9522351672057977</v>
+        <v>1.011042675187103</v>
       </c>
       <c r="K6">
-        <v>0.9541379349705141</v>
+        <v>1.015470810056857</v>
       </c>
       <c r="L6">
-        <v>0.9564515172956138</v>
+        <v>1.006835303008219</v>
       </c>
       <c r="M6">
-        <v>0.9427152070077908</v>
+        <v>1.021872536014131</v>
       </c>
       <c r="N6">
-        <v>0.9535874503661301</v>
+        <v>1.012478471754085</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9253853829685889</v>
+        <v>0.986009330523686</v>
       </c>
       <c r="D7">
-        <v>0.9381339189502187</v>
+        <v>0.9999790185201671</v>
       </c>
       <c r="E7">
-        <v>0.9406361911194148</v>
+        <v>0.9917973575078664</v>
       </c>
       <c r="F7">
-        <v>0.9256537492555691</v>
+        <v>1.006508441865217</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033917124027246</v>
+        <v>1.046653726771591</v>
       </c>
       <c r="J7">
-        <v>0.946904661777479</v>
+        <v>1.005771594017156</v>
       </c>
       <c r="K7">
-        <v>0.9490379095018907</v>
+        <v>1.010074695226107</v>
       </c>
       <c r="L7">
-        <v>0.9515048719809016</v>
+        <v>1.001992764711663</v>
       </c>
       <c r="M7">
-        <v>0.9367374651132366</v>
+        <v>1.016525970007898</v>
       </c>
       <c r="N7">
-        <v>0.948249375008686</v>
+        <v>1.007199905044275</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8972608941581471</v>
+        <v>0.9590081208253899</v>
       </c>
       <c r="D8">
-        <v>0.9130416408073412</v>
+        <v>0.9740781045169573</v>
       </c>
       <c r="E8">
-        <v>0.9162757923048095</v>
+        <v>0.9684122227161417</v>
       </c>
       <c r="F8">
-        <v>0.8964371028106458</v>
+        <v>0.9808481988805912</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028504661577619</v>
+        <v>1.040674489798947</v>
       </c>
       <c r="J8">
-        <v>0.9223360441237783</v>
+        <v>0.981876126460432</v>
       </c>
       <c r="K8">
-        <v>0.9255443066154598</v>
+        <v>0.9856210425522109</v>
       </c>
       <c r="L8">
-        <v>0.9287234657871366</v>
+        <v>0.9800377808096674</v>
       </c>
       <c r="M8">
-        <v>0.9092302218237412</v>
+        <v>0.9922939987366564</v>
       </c>
       <c r="N8">
-        <v>0.9236458670998571</v>
+        <v>0.9832705031827716</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8316399899620877</v>
+        <v>0.8995831265669281</v>
       </c>
       <c r="D9">
-        <v>0.8547459452482208</v>
+        <v>0.9172230804602971</v>
       </c>
       <c r="E9">
-        <v>0.8597317793012533</v>
+        <v>0.917087810337236</v>
       </c>
       <c r="F9">
-        <v>0.8284542664101934</v>
+        <v>0.9245359210751695</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.015687061342672</v>
+        <v>1.027313676615522</v>
       </c>
       <c r="J9">
-        <v>0.8649494019541997</v>
+        <v>0.9292585555645202</v>
       </c>
       <c r="K9">
-        <v>0.8707360128204521</v>
+        <v>0.9318189234589499</v>
       </c>
       <c r="L9">
-        <v>0.8756005806441135</v>
+        <v>0.9316864017395455</v>
       </c>
       <c r="M9">
-        <v>0.8451166434406212</v>
+        <v>0.9389847559586851</v>
       </c>
       <c r="N9">
-        <v>0.8661777293160577</v>
+        <v>0.930578209300868</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7588513319316169</v>
+        <v>0.8436967078831266</v>
       </c>
       <c r="D10">
-        <v>0.7906310317327213</v>
+        <v>0.863998926105413</v>
       </c>
       <c r="E10">
-        <v>0.7976044547216827</v>
+        <v>0.8690721870915017</v>
       </c>
       <c r="F10">
-        <v>0.7531509367386607</v>
+        <v>0.8718763739509395</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.00177430461845</v>
+        <v>1.0147264743944</v>
       </c>
       <c r="J10">
-        <v>0.8014644781179661</v>
+        <v>0.8798527205404247</v>
       </c>
       <c r="K10">
-        <v>0.8101905493140021</v>
+        <v>0.8813506681335004</v>
       </c>
       <c r="L10">
-        <v>0.816929788136371</v>
+        <v>0.8862899046576735</v>
       </c>
       <c r="M10">
-        <v>0.7740745888883374</v>
+        <v>0.8890209174641551</v>
       </c>
       <c r="N10">
-        <v>0.8026026496061542</v>
+        <v>0.8811022123241097</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.6854184344970593</v>
+        <v>0.8100013934348533</v>
       </c>
       <c r="D11">
-        <v>0.7267910109944902</v>
+        <v>0.8320571231142565</v>
       </c>
       <c r="E11">
-        <v>0.7357823931407719</v>
+        <v>0.8402817141529398</v>
       </c>
       <c r="F11">
-        <v>0.6770180479527941</v>
+        <v>0.8403178666702329</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.988669969503344</v>
+        <v>1.007213038120727</v>
       </c>
       <c r="J11">
-        <v>0.7379609902530612</v>
+        <v>0.8501532820262192</v>
       </c>
       <c r="K11">
-        <v>0.7497058906522545</v>
+        <v>0.8510347406460506</v>
       </c>
       <c r="L11">
-        <v>0.7582977703610241</v>
+        <v>0.8590085849236522</v>
       </c>
       <c r="M11">
-        <v>0.702427553250491</v>
+        <v>0.8590436501506002</v>
       </c>
       <c r="N11">
-        <v>0.739008979504529</v>
+        <v>0.8513605972006408</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.6854184344970593</v>
+        <v>0.7943747864069216</v>
       </c>
       <c r="D12">
-        <v>0.7267910109944902</v>
+        <v>0.8172888051963161</v>
       </c>
       <c r="E12">
-        <v>0.7357823931407719</v>
+        <v>0.8269791254683528</v>
       </c>
       <c r="F12">
-        <v>0.6770180479527941</v>
+        <v>0.8257414994827547</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.988669969503344</v>
+        <v>1.003760494875487</v>
       </c>
       <c r="J12">
-        <v>0.7379609902530612</v>
+        <v>0.8364119161222688</v>
       </c>
       <c r="K12">
-        <v>0.7497058906522545</v>
+        <v>0.8370138476808409</v>
       </c>
       <c r="L12">
-        <v>0.7582977703610241</v>
+        <v>0.8463893598367439</v>
       </c>
       <c r="M12">
-        <v>0.702427553250491</v>
+        <v>0.8451913702730274</v>
       </c>
       <c r="N12">
-        <v>0.739008979504529</v>
+        <v>0.8375997169809501</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.6854184344970593</v>
+        <v>0.7979358588925946</v>
       </c>
       <c r="D13">
-        <v>0.7267910109944902</v>
+        <v>0.8206515758087645</v>
       </c>
       <c r="E13">
-        <v>0.7357823931407719</v>
+        <v>0.8300076031059804</v>
       </c>
       <c r="F13">
-        <v>0.6770180479527941</v>
+        <v>0.8290596535305286</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.988669969503344</v>
+        <v>1.004545225450448</v>
       </c>
       <c r="J13">
-        <v>0.7379609902530612</v>
+        <v>0.8395413396388032</v>
       </c>
       <c r="K13">
-        <v>0.7497058906522545</v>
+        <v>0.8402066064076956</v>
       </c>
       <c r="L13">
-        <v>0.7582977703610241</v>
+        <v>0.8492630100108052</v>
       </c>
       <c r="M13">
-        <v>0.702427553250491</v>
+        <v>0.8483449923509903</v>
       </c>
       <c r="N13">
-        <v>0.739008979504529</v>
+        <v>0.840733584637828</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.6854184344970593</v>
+        <v>0.8087950499585749</v>
       </c>
       <c r="D14">
-        <v>0.7267910109944902</v>
+        <v>0.8309159603467412</v>
       </c>
       <c r="E14">
-        <v>0.7357823931407719</v>
+        <v>0.8392535951511755</v>
       </c>
       <c r="F14">
-        <v>0.6770180479527941</v>
+        <v>0.8391911764481237</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.988669969503344</v>
+        <v>1.006945702905791</v>
       </c>
       <c r="J14">
-        <v>0.7379609902530612</v>
+        <v>0.8490916770243992</v>
       </c>
       <c r="K14">
-        <v>0.7497058906522545</v>
+        <v>0.8499514100065805</v>
       </c>
       <c r="L14">
-        <v>0.7582977703610241</v>
+        <v>0.8580335865874373</v>
       </c>
       <c r="M14">
-        <v>0.702427553250491</v>
+        <v>0.8579730543810777</v>
       </c>
       <c r="N14">
-        <v>0.739008979504529</v>
+        <v>0.8502974845979506</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.6854184344970593</v>
+        <v>0.814971951655449</v>
       </c>
       <c r="D15">
-        <v>0.7267910109944902</v>
+        <v>0.8367609507432182</v>
       </c>
       <c r="E15">
-        <v>0.7357823931407719</v>
+        <v>0.8445199396902617</v>
       </c>
       <c r="F15">
-        <v>0.6770180479527941</v>
+        <v>0.8449626455786678</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.988669969503344</v>
+        <v>1.008315888095095</v>
       </c>
       <c r="J15">
-        <v>0.7379609902530612</v>
+        <v>0.8545287980330045</v>
       </c>
       <c r="K15">
-        <v>0.7497058906522545</v>
+        <v>0.8555000295790255</v>
       </c>
       <c r="L15">
-        <v>0.7582977703610241</v>
+        <v>0.8630272823079973</v>
       </c>
       <c r="M15">
-        <v>0.702427553250491</v>
+        <v>0.8634569421691731</v>
       </c>
       <c r="N15">
-        <v>0.739008979504529</v>
+        <v>0.8557423269420346</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.6854184344970593</v>
+        <v>0.8456420311366142</v>
       </c>
       <c r="D16">
-        <v>0.7267910109944902</v>
+        <v>0.8658467335596893</v>
       </c>
       <c r="E16">
-        <v>0.7357823931407719</v>
+        <v>0.8707383772661345</v>
       </c>
       <c r="F16">
-        <v>0.6770180479527941</v>
+        <v>0.8737031841063451</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.988669969503344</v>
+        <v>1.015162596626929</v>
       </c>
       <c r="J16">
-        <v>0.7379609902530612</v>
+        <v>0.8815698150920975</v>
       </c>
       <c r="K16">
-        <v>0.7497058906522545</v>
+        <v>0.8831039142905078</v>
       </c>
       <c r="L16">
-        <v>0.7582977703610241</v>
+        <v>0.8878674340952425</v>
       </c>
       <c r="M16">
-        <v>0.702427553250491</v>
+        <v>0.8907555302749516</v>
       </c>
       <c r="N16">
-        <v>0.739008979504529</v>
+        <v>0.8828217453469998</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.6854184344970593</v>
+        <v>0.8617510351544323</v>
       </c>
       <c r="D17">
-        <v>0.7267910109944902</v>
+        <v>0.8811625150593339</v>
       </c>
       <c r="E17">
-        <v>0.7357823931407719</v>
+        <v>0.884551270715293</v>
       </c>
       <c r="F17">
-        <v>0.6770180479527941</v>
+        <v>0.8888492395959666</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.988669969503344</v>
+        <v>1.018781583696591</v>
       </c>
       <c r="J17">
-        <v>0.7379609902530612</v>
+        <v>0.895797475875316</v>
       </c>
       <c r="K17">
-        <v>0.7497058906522545</v>
+        <v>0.8976332526085703</v>
       </c>
       <c r="L17">
-        <v>0.7582977703610241</v>
+        <v>0.900939445960555</v>
       </c>
       <c r="M17">
-        <v>0.702427553250491</v>
+        <v>0.9051339160762784</v>
       </c>
       <c r="N17">
-        <v>0.739008979504529</v>
+        <v>0.8970696110404657</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.6854184344970593</v>
+        <v>0.870373032420858</v>
       </c>
       <c r="D18">
-        <v>0.7267910109944902</v>
+        <v>0.8893699777054955</v>
       </c>
       <c r="E18">
-        <v>0.7357823931407719</v>
+        <v>0.8919550267382655</v>
       </c>
       <c r="F18">
-        <v>0.6770180479527941</v>
+        <v>0.8969686822861919</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.988669969503344</v>
+        <v>1.020723121570481</v>
       </c>
       <c r="J18">
-        <v>0.7379609902530612</v>
+        <v>0.903418176814902</v>
       </c>
       <c r="K18">
-        <v>0.7497058906522545</v>
+        <v>0.9054171051677138</v>
       </c>
       <c r="L18">
-        <v>0.7582977703610241</v>
+        <v>0.90794163384788</v>
       </c>
       <c r="M18">
-        <v>0.702427553250491</v>
+        <v>0.9128392396943601</v>
       </c>
       <c r="N18">
-        <v>0.739008979504529</v>
+        <v>0.9047011342494924</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.6854184344970593</v>
+        <v>0.8732025782060079</v>
       </c>
       <c r="D19">
-        <v>0.7267910109944902</v>
+        <v>0.8920649354117802</v>
       </c>
       <c r="E19">
-        <v>0.7357823931407719</v>
+        <v>0.8943863143279763</v>
       </c>
       <c r="F19">
-        <v>0.6770180479527941</v>
+        <v>0.8996351482776761</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0.988669969503344</v>
+        <v>1.021360827805137</v>
       </c>
       <c r="J19">
-        <v>0.7379609902530612</v>
+        <v>0.9059198772370514</v>
       </c>
       <c r="K19">
-        <v>0.7497058906522545</v>
+        <v>0.9079726035160296</v>
       </c>
       <c r="L19">
-        <v>0.7582977703610241</v>
+        <v>0.9102403510377755</v>
       </c>
       <c r="M19">
-        <v>0.702427553250491</v>
+        <v>0.9153692810310711</v>
       </c>
       <c r="N19">
-        <v>0.739008979504529</v>
+        <v>0.9072063873731901</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.6854184344970593</v>
+        <v>0.8601082648380609</v>
       </c>
       <c r="D20">
-        <v>0.7267910109944902</v>
+        <v>0.8795995001334133</v>
       </c>
       <c r="E20">
-        <v>0.7357823931407719</v>
+        <v>0.883141437712424</v>
       </c>
       <c r="F20">
-        <v>0.6770180479527941</v>
+        <v>0.8873032090935614</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.988669969503344</v>
+        <v>1.01841197618337</v>
       </c>
       <c r="J20">
-        <v>0.7379609902530612</v>
+        <v>0.8943459042743512</v>
       </c>
       <c r="K20">
-        <v>0.7497058906522545</v>
+        <v>0.8961507283072494</v>
       </c>
       <c r="L20">
-        <v>0.7582977703610241</v>
+        <v>0.8996057216973783</v>
       </c>
       <c r="M20">
-        <v>0.702427553250491</v>
+        <v>0.9036665250877185</v>
       </c>
       <c r="N20">
-        <v>0.739008979504529</v>
+        <v>0.89561597804133</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.6854184344970593</v>
+        <v>0.8057134986064708</v>
       </c>
       <c r="D21">
-        <v>0.7267910109944902</v>
+        <v>0.8280017131215632</v>
       </c>
       <c r="E21">
-        <v>0.7357823931407719</v>
+        <v>0.8366281921369444</v>
       </c>
       <c r="F21">
-        <v>0.6770180479527941</v>
+        <v>0.8363141548678342</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.988669969503344</v>
+        <v>1.006263398403983</v>
       </c>
       <c r="J21">
-        <v>0.7379609902530612</v>
+        <v>0.8463804415951639</v>
       </c>
       <c r="K21">
-        <v>0.7497058906522545</v>
+        <v>0.8471847880245161</v>
       </c>
       <c r="L21">
-        <v>0.7582977703610241</v>
+        <v>0.8555435984224257</v>
       </c>
       <c r="M21">
-        <v>0.702427553250491</v>
+        <v>0.8552391718211183</v>
       </c>
       <c r="N21">
-        <v>0.739008979504529</v>
+        <v>0.8475823989034225</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.6854184344970593</v>
+        <v>0.7461150993674897</v>
       </c>
       <c r="D22">
-        <v>0.7267910109944902</v>
+        <v>0.7718926613821097</v>
       </c>
       <c r="E22">
-        <v>0.7357823931407719</v>
+        <v>0.7861325575999181</v>
       </c>
       <c r="F22">
-        <v>0.6770180479527941</v>
+        <v>0.7810080656325292</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.988669969503344</v>
+        <v>0.9932658802081181</v>
       </c>
       <c r="J22">
-        <v>0.7379609902530612</v>
+        <v>0.7941410674729523</v>
       </c>
       <c r="K22">
-        <v>0.7497058906522545</v>
+        <v>0.7939070033318444</v>
       </c>
       <c r="L22">
-        <v>0.7582977703610241</v>
+        <v>0.8075892928620272</v>
       </c>
       <c r="M22">
-        <v>0.702427553250491</v>
+        <v>0.8026621575124403</v>
       </c>
       <c r="N22">
-        <v>0.739008979504529</v>
+        <v>0.7952688388780175</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.6854184344970593</v>
+        <v>0.7828658637924047</v>
       </c>
       <c r="D23">
-        <v>0.7267910109944902</v>
+        <v>0.8064322228080321</v>
       </c>
       <c r="E23">
-        <v>0.7357823931407719</v>
+        <v>0.8172041372851123</v>
       </c>
       <c r="F23">
-        <v>0.6770180479527941</v>
+        <v>0.8150328453676507</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.988669969503344</v>
+        <v>1.001233257641734</v>
       </c>
       <c r="J23">
-        <v>0.7379609902530612</v>
+        <v>0.8263068218198713</v>
       </c>
       <c r="K23">
-        <v>0.7497058906522545</v>
+        <v>0.8267055632608449</v>
       </c>
       <c r="L23">
-        <v>0.7582977703610241</v>
+        <v>0.8371111483285221</v>
       </c>
       <c r="M23">
-        <v>0.702427553250491</v>
+        <v>0.835012612594165</v>
       </c>
       <c r="N23">
-        <v>0.739008979504529</v>
+        <v>0.8274802722855726</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.6854184344970593</v>
+        <v>0.8608528785648465</v>
       </c>
       <c r="D24">
-        <v>0.7267910109944902</v>
+        <v>0.8803079322083371</v>
       </c>
       <c r="E24">
-        <v>0.7357823931407719</v>
+        <v>0.8837804353814006</v>
       </c>
       <c r="F24">
-        <v>0.6770180479527941</v>
+        <v>0.8880039339650785</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.988669969503344</v>
+        <v>1.018579493370573</v>
       </c>
       <c r="J24">
-        <v>0.7379609902530612</v>
+        <v>0.8950038365651196</v>
       </c>
       <c r="K24">
-        <v>0.7497058906522545</v>
+        <v>0.8968226851587119</v>
       </c>
       <c r="L24">
-        <v>0.7582977703610241</v>
+        <v>0.9002102376138867</v>
       </c>
       <c r="M24">
-        <v>0.702427553250491</v>
+        <v>0.9043316155122241</v>
       </c>
       <c r="N24">
-        <v>0.739008979504529</v>
+        <v>0.8962748446714173</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.6854184344970593</v>
+        <v>0.9169068676539782</v>
       </c>
       <c r="D25">
-        <v>0.7267910109944902</v>
+        <v>0.9337734400529558</v>
       </c>
       <c r="E25">
-        <v>0.7357823931407719</v>
+        <v>0.9320259247113943</v>
       </c>
       <c r="F25">
-        <v>0.6770180479527941</v>
+        <v>0.94092402983696</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.988669969503344</v>
+        <v>1.031222984933072</v>
       </c>
       <c r="J25">
-        <v>0.7379609902530612</v>
+        <v>0.9445951697453735</v>
       </c>
       <c r="K25">
-        <v>0.7497058906522545</v>
+        <v>0.9474949004468592</v>
       </c>
       <c r="L25">
-        <v>0.7582977703610241</v>
+        <v>0.9457798413567887</v>
       </c>
       <c r="M25">
-        <v>0.702427553250491</v>
+        <v>0.9545143176326544</v>
       </c>
       <c r="N25">
-        <v>0.739008979504529</v>
+        <v>0.9459366032329924</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_bus/vm_pu.xlsx
@@ -417,984 +417,840 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1.05</v>
-      </c>
       <c r="C2">
-        <v>0.951419365417704</v>
+        <v>0.9493801536638237</v>
       </c>
       <c r="D2">
-        <v>0.9668053487265593</v>
+        <v>0.9611298744614191</v>
       </c>
       <c r="E2">
-        <v>0.961845993080427</v>
+        <v>0.9623605412089153</v>
       </c>
       <c r="F2">
-        <v>0.9736431459487497</v>
+        <v>0.9233340425675892</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1.038979585751254</v>
-      </c>
       <c r="J2">
-        <v>0.975156993974069</v>
+        <v>0.9731880096596823</v>
       </c>
       <c r="K2">
-        <v>0.9787473627989155</v>
+        <v>0.9731586743334291</v>
       </c>
       <c r="L2">
-        <v>0.9738637704539147</v>
+        <v>0.97437041158175</v>
       </c>
       <c r="M2">
-        <v>0.9854823099317898</v>
+        <v>0.9359759330233843</v>
       </c>
       <c r="N2">
-        <v>0.9765418287575827</v>
+        <v>0.9745700482596239</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.05</v>
-      </c>
       <c r="C3">
-        <v>0.9730779255492463</v>
+        <v>0.9566473130668581</v>
       </c>
       <c r="D3">
-        <v>0.9875701173939158</v>
+        <v>0.9672956944484123</v>
       </c>
       <c r="E3">
-        <v>0.9805937521120508</v>
+        <v>0.9683409372712252</v>
       </c>
       <c r="F3">
-        <v>0.9942149513866215</v>
+        <v>0.9337317822483108</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1.043801536799755</v>
-      </c>
       <c r="J3">
-        <v>0.9943304254772865</v>
+        <v>0.978393880728254</v>
       </c>
       <c r="K3">
-        <v>0.9983645508475426</v>
+        <v>0.9783648719045124</v>
       </c>
       <c r="L3">
-        <v>0.9914811127587495</v>
+        <v>0.979395595653251</v>
       </c>
       <c r="M3">
-        <v>1.004922392084294</v>
+        <v>0.9452892004549172</v>
       </c>
       <c r="N3">
-        <v>0.9957424887327581</v>
+        <v>0.9797833122622349</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1.05</v>
-      </c>
       <c r="C4">
-        <v>0.9859393270754787</v>
+        <v>0.9611994290940833</v>
       </c>
       <c r="D4">
-        <v>0.9999118230536558</v>
+        <v>0.971164453982738</v>
       </c>
       <c r="E4">
-        <v>0.9917366894333388</v>
+        <v>0.9720944427065614</v>
       </c>
       <c r="F4">
-        <v>1.006441873144443</v>
+        <v>0.9402213390415284</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>1.04663835214515</v>
-      </c>
       <c r="J4">
-        <v>1.005709675689307</v>
+        <v>0.9816505722691534</v>
       </c>
       <c r="K4">
-        <v>1.010011312409919</v>
+        <v>0.9816238250499913</v>
       </c>
       <c r="L4">
-        <v>1.00193587917944</v>
+        <v>0.9825417546527208</v>
       </c>
       <c r="M4">
-        <v>1.016463167244038</v>
+        <v>0.9510991232967725</v>
       </c>
       <c r="N4">
-        <v>1.007137898785297</v>
+        <v>0.98304462867867</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1.05</v>
-      </c>
       <c r="C5">
-        <v>0.99111347264889</v>
+        <v>0.9630794496763876</v>
       </c>
       <c r="D5">
-        <v>1.004878997514</v>
+        <v>0.9727637184999979</v>
       </c>
       <c r="E5">
-        <v>0.9962213223688865</v>
+        <v>0.9736463031690844</v>
       </c>
       <c r="F5">
-        <v>1.011362639401932</v>
+        <v>0.9428966673006691</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1.047772614546144</v>
-      </c>
       <c r="J5">
-        <v>1.010285627321651</v>
+        <v>0.9829945363965094</v>
       </c>
       <c r="K5">
-        <v>1.014695760072639</v>
+        <v>0.9829691952027783</v>
       </c>
       <c r="L5">
-        <v>1.006139816545587</v>
+        <v>0.9838406700723764</v>
       </c>
       <c r="M5">
-        <v>1.021104624206916</v>
+        <v>0.95349352742133</v>
       </c>
       <c r="N5">
-        <v>1.011720348793829</v>
+        <v>0.9843905013892414</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1.05</v>
-      </c>
       <c r="C6">
-        <v>0.9919696247386803</v>
+        <v>0.9633931998601515</v>
       </c>
       <c r="D6">
-        <v>1.005701013078976</v>
+        <v>0.973030698093962</v>
       </c>
       <c r="E6">
-        <v>0.9969634760749772</v>
+        <v>0.9739053826626618</v>
       </c>
       <c r="F6">
-        <v>1.012176957837533</v>
+        <v>0.9433428795096618</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1.047959870617024</v>
-      </c>
       <c r="J6">
-        <v>1.011042675187103</v>
+        <v>0.9832187635187125</v>
       </c>
       <c r="K6">
-        <v>1.015470810056857</v>
+        <v>0.9831936841449384</v>
       </c>
       <c r="L6">
-        <v>1.006835303008219</v>
+        <v>0.9840574135891097</v>
       </c>
       <c r="M6">
-        <v>1.021872536014131</v>
+        <v>0.9538928390556092</v>
       </c>
       <c r="N6">
-        <v>1.012478471754085</v>
+        <v>0.9846150469396776</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1.05</v>
-      </c>
       <c r="C7">
-        <v>0.986009330523686</v>
+        <v>0.9612246795548137</v>
       </c>
       <c r="D7">
-        <v>0.9999790185201671</v>
+        <v>0.9711859279233654</v>
       </c>
       <c r="E7">
-        <v>0.9917973575078664</v>
+        <v>0.9721152792141301</v>
       </c>
       <c r="F7">
-        <v>1.006508441865217</v>
+        <v>0.9402572894772957</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1.046653726771591</v>
-      </c>
       <c r="J7">
-        <v>1.005771594017156</v>
+        <v>0.9816686271677135</v>
       </c>
       <c r="K7">
-        <v>1.010074695226107</v>
+        <v>0.9816418969908894</v>
       </c>
       <c r="L7">
-        <v>1.001992764711663</v>
+        <v>0.9825592021671357</v>
       </c>
       <c r="M7">
-        <v>1.016525970007898</v>
+        <v>0.9511313017834613</v>
       </c>
       <c r="N7">
-        <v>1.007199905044275</v>
+        <v>0.9830627092172571</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.05</v>
-      </c>
       <c r="C8">
-        <v>0.9590081208253899</v>
+        <v>0.9518686719465385</v>
       </c>
       <c r="D8">
-        <v>0.9740781045169573</v>
+        <v>0.9632398192710536</v>
       </c>
       <c r="E8">
-        <v>0.9684122227161417</v>
+        <v>0.9644067893606707</v>
       </c>
       <c r="F8">
-        <v>0.9808481988805912</v>
+        <v>0.926900074703838</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1.040674489798947</v>
-      </c>
       <c r="J8">
-        <v>0.981876126460432</v>
+        <v>0.9749715529868157</v>
       </c>
       <c r="K8">
-        <v>0.9856210425522109</v>
+        <v>0.9749418805638999</v>
       </c>
       <c r="L8">
-        <v>0.9800377808096674</v>
+        <v>0.976091499285603</v>
       </c>
       <c r="M8">
-        <v>0.9922939987366564</v>
+        <v>0.9391705707054582</v>
       </c>
       <c r="N8">
-        <v>0.9832705031827716</v>
+        <v>0.9763561244228572</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1.05</v>
-      </c>
       <c r="C9">
-        <v>0.8995831265669281</v>
+        <v>0.9341157183110803</v>
       </c>
       <c r="D9">
-        <v>0.9172230804602971</v>
+        <v>0.9482202980182214</v>
       </c>
       <c r="E9">
-        <v>0.917087810337236</v>
+        <v>0.9498464682871575</v>
       </c>
       <c r="F9">
-        <v>0.9245359210751695</v>
+        <v>0.9013180656380267</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>1.027313676615522</v>
-      </c>
       <c r="J9">
-        <v>0.9292585555645202</v>
+        <v>0.9622305877789935</v>
       </c>
       <c r="K9">
-        <v>0.9318189234589499</v>
+        <v>0.9622133144198259</v>
       </c>
       <c r="L9">
-        <v>0.9316864017395455</v>
+        <v>0.9638092755677461</v>
       </c>
       <c r="M9">
-        <v>0.9389847559586851</v>
+        <v>0.9162445565061558</v>
       </c>
       <c r="N9">
-        <v>0.930578209300868</v>
+        <v>0.9635970655830308</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1.05</v>
-      </c>
       <c r="C10">
-        <v>0.8436967078831266</v>
+        <v>0.9212402979798873</v>
       </c>
       <c r="D10">
-        <v>0.863998926105413</v>
+        <v>0.9373749408551232</v>
       </c>
       <c r="E10">
-        <v>0.8690721870915017</v>
+        <v>0.9393415144502063</v>
       </c>
       <c r="F10">
-        <v>0.8718763739509395</v>
+        <v>0.8825251313620593</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>1.0147264743944</v>
-      </c>
       <c r="J10">
-        <v>0.8798527205404247</v>
+        <v>0.9529691062066534</v>
       </c>
       <c r="K10">
-        <v>0.8813506681335004</v>
+        <v>0.9529751117612542</v>
       </c>
       <c r="L10">
-        <v>0.8862899046576735</v>
+        <v>0.954899723994</v>
       </c>
       <c r="M10">
-        <v>0.8890209174641551</v>
+        <v>0.8993975143496618</v>
       </c>
       <c r="N10">
-        <v>0.8811022123241097</v>
+        <v>0.9543224316445513</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.05</v>
-      </c>
       <c r="C11">
-        <v>0.8100013934348533</v>
+        <v>0.9153664282969038</v>
       </c>
       <c r="D11">
-        <v>0.8320571231142565</v>
+        <v>0.9324405453903708</v>
       </c>
       <c r="E11">
-        <v>0.8402817141529398</v>
+        <v>0.9345646222823928</v>
       </c>
       <c r="F11">
-        <v>0.8403178666702329</v>
+        <v>0.8738719979186093</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1.007213038120727</v>
-      </c>
       <c r="J11">
-        <v>0.8501532820262192</v>
+        <v>0.9487392675083849</v>
       </c>
       <c r="K11">
-        <v>0.8510347406460506</v>
+        <v>0.9487598427366647</v>
       </c>
       <c r="L11">
-        <v>0.8590085849236522</v>
+        <v>0.9508358818915659</v>
       </c>
       <c r="M11">
-        <v>0.8590436501506002</v>
+        <v>0.8916413117738707</v>
       </c>
       <c r="N11">
-        <v>0.8513605972006408</v>
+        <v>0.9500865860901618</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1.05</v>
-      </c>
       <c r="C12">
-        <v>0.7943747864069216</v>
+        <v>0.9131343525804717</v>
       </c>
       <c r="D12">
-        <v>0.8172888051963161</v>
+        <v>0.9305676690499673</v>
       </c>
       <c r="E12">
-        <v>0.8269791254683528</v>
+        <v>0.9327519756214447</v>
       </c>
       <c r="F12">
-        <v>0.8257414994827547</v>
+        <v>0.8705693792967407</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>1.003760494875487</v>
-      </c>
       <c r="J12">
-        <v>0.8364119161222688</v>
+        <v>0.9471312416119555</v>
       </c>
       <c r="K12">
-        <v>0.8370138476808409</v>
+        <v>0.947158003767288</v>
       </c>
       <c r="L12">
-        <v>0.8463893598367439</v>
+        <v>0.9492918425028536</v>
       </c>
       <c r="M12">
-        <v>0.8451913702730274</v>
+        <v>0.8886814022425308</v>
       </c>
       <c r="N12">
-        <v>0.8375997169809501</v>
+        <v>0.9484762766125164</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1.05</v>
-      </c>
       <c r="C13">
-        <v>0.7979358588925946</v>
+        <v>0.9136155116149144</v>
       </c>
       <c r="D13">
-        <v>0.8206515758087645</v>
+        <v>0.9309712945331731</v>
       </c>
       <c r="E13">
-        <v>0.8300076031059804</v>
+        <v>0.933142599762236</v>
       </c>
       <c r="F13">
-        <v>0.8290596535305286</v>
+        <v>0.8712820061623532</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>1.004545225450448</v>
-      </c>
       <c r="J13">
-        <v>0.8395413396388032</v>
+        <v>0.9474779075102512</v>
       </c>
       <c r="K13">
-        <v>0.8402066064076956</v>
+        <v>0.9475033056174794</v>
       </c>
       <c r="L13">
-        <v>0.8492630100108052</v>
+        <v>0.9496246725564639</v>
       </c>
       <c r="M13">
-        <v>0.8483449923509903</v>
+        <v>0.8893200591551365</v>
       </c>
       <c r="N13">
-        <v>0.840733584637828</v>
+        <v>0.9488234348161507</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1.05</v>
-      </c>
       <c r="C14">
-        <v>0.8087950499585749</v>
+        <v>0.9151829840215149</v>
       </c>
       <c r="D14">
-        <v>0.8309159603467412</v>
+        <v>0.9322865763963412</v>
       </c>
       <c r="E14">
-        <v>0.8392535951511755</v>
+        <v>0.9344155953412788</v>
       </c>
       <c r="F14">
-        <v>0.8391911764481237</v>
+        <v>0.873600878520262</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1.006945702905791</v>
-      </c>
       <c r="J14">
-        <v>0.8490916770243992</v>
+        <v>0.9486071248470421</v>
       </c>
       <c r="K14">
-        <v>0.8499514100065805</v>
+        <v>0.9486281950165102</v>
       </c>
       <c r="L14">
-        <v>0.8580335865874373</v>
+        <v>0.9507089790422494</v>
       </c>
       <c r="M14">
-        <v>0.8579730543810777</v>
+        <v>0.8913983169220271</v>
       </c>
       <c r="N14">
-        <v>0.8502974845979506</v>
+        <v>0.9499542557710828</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1.05</v>
-      </c>
       <c r="C15">
-        <v>0.814971951655449</v>
+        <v>0.9161419185621319</v>
       </c>
       <c r="D15">
-        <v>0.8367609507432182</v>
+        <v>0.9330915225765324</v>
       </c>
       <c r="E15">
-        <v>0.8445199396902617</v>
+        <v>0.9351947231326738</v>
       </c>
       <c r="F15">
-        <v>0.8449626455786678</v>
+        <v>0.8750175240238691</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1.008315888095095</v>
-      </c>
       <c r="J15">
-        <v>0.8545287980330045</v>
+        <v>0.9492978582691262</v>
       </c>
       <c r="K15">
-        <v>0.8555000295790255</v>
+        <v>0.9493163679426168</v>
       </c>
       <c r="L15">
-        <v>0.8630272823079973</v>
+        <v>0.9513723593288985</v>
       </c>
       <c r="M15">
-        <v>0.8634569421691731</v>
+        <v>0.8926680237444909</v>
       </c>
       <c r="N15">
-        <v>0.8557423269420346</v>
+        <v>0.9506459701138545</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1.05</v>
-      </c>
       <c r="C16">
-        <v>0.8456420311366142</v>
+        <v>0.9216233954835993</v>
       </c>
       <c r="D16">
-        <v>0.8658467335596893</v>
+        <v>0.9376970561429133</v>
       </c>
       <c r="E16">
-        <v>0.8707383772661345</v>
+        <v>0.9396534065395147</v>
       </c>
       <c r="F16">
-        <v>0.8737031841063451</v>
+        <v>0.8830876579733409</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1.015162596626929</v>
-      </c>
       <c r="J16">
-        <v>0.8815698150920975</v>
+        <v>0.9532448843311727</v>
       </c>
       <c r="K16">
-        <v>0.8831039142905078</v>
+        <v>0.9532500256420373</v>
       </c>
       <c r="L16">
-        <v>0.8878674340952425</v>
+        <v>0.9551647951376339</v>
       </c>
       <c r="M16">
-        <v>0.8907555302749516</v>
+        <v>0.8999017711147863</v>
       </c>
       <c r="N16">
-        <v>0.8828217453469998</v>
+        <v>0.9545986014056393</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1.05</v>
-      </c>
       <c r="C17">
-        <v>0.8617510351544323</v>
+        <v>0.9249782894839239</v>
       </c>
       <c r="D17">
-        <v>0.8811625150593339</v>
+        <v>0.9405194313313482</v>
       </c>
       <c r="E17">
-        <v>0.884551270715293</v>
+        <v>0.9423865071062579</v>
       </c>
       <c r="F17">
-        <v>0.8888492395959666</v>
+        <v>0.8880046812686178</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>1.018781583696591</v>
-      </c>
       <c r="J17">
-        <v>0.895797475875316</v>
+        <v>0.9556594300532324</v>
       </c>
       <c r="K17">
-        <v>0.8976332526085703</v>
+        <v>0.9556574523326014</v>
       </c>
       <c r="L17">
-        <v>0.900939445960555</v>
+        <v>0.9574861972755365</v>
       </c>
       <c r="M17">
-        <v>0.9051339160762784</v>
+        <v>0.9043095892480225</v>
       </c>
       <c r="N17">
-        <v>0.8970696110404657</v>
+        <v>0.9570165760595767</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1.05</v>
-      </c>
       <c r="C18">
-        <v>0.870373032420858</v>
+        <v>0.9269067279139958</v>
       </c>
       <c r="D18">
-        <v>0.8893699777054955</v>
+        <v>0.9421430046318675</v>
       </c>
       <c r="E18">
-        <v>0.8919550267382655</v>
+        <v>0.9439589672750833</v>
       </c>
       <c r="F18">
-        <v>0.8969686822861919</v>
+        <v>0.8908237887752668</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>1.020723121570481</v>
-      </c>
       <c r="J18">
-        <v>0.903418176814902</v>
+        <v>0.9570469055312799</v>
       </c>
       <c r="K18">
-        <v>0.9054171051677138</v>
+        <v>0.9570412007891373</v>
       </c>
       <c r="L18">
-        <v>0.90794163384788</v>
+        <v>0.9588206349202851</v>
       </c>
       <c r="M18">
-        <v>0.9128392396943601</v>
+        <v>0.9068368222006121</v>
       </c>
       <c r="N18">
-        <v>0.9047011342494924</v>
+        <v>0.9584060219119486</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1.05</v>
-      </c>
       <c r="C19">
-        <v>0.8732025782060079</v>
+        <v>0.9275596045114735</v>
       </c>
       <c r="D19">
-        <v>0.8920649354117802</v>
+        <v>0.9426928724901351</v>
       </c>
       <c r="E19">
-        <v>0.8943863143279763</v>
+        <v>0.9444915638896865</v>
       </c>
       <c r="F19">
-        <v>0.8996351482776761</v>
+        <v>0.8917770350513644</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>1.021360827805137</v>
-      </c>
       <c r="J19">
-        <v>0.9059198772370514</v>
+        <v>0.9575165630596283</v>
       </c>
       <c r="K19">
-        <v>0.9079726035160296</v>
+        <v>0.95750965693575</v>
       </c>
       <c r="L19">
-        <v>0.9102403510377755</v>
+        <v>0.9592724192017443</v>
       </c>
       <c r="M19">
-        <v>0.9153692810310711</v>
+        <v>0.9076913806220949</v>
       </c>
       <c r="N19">
-        <v>0.9072063873731901</v>
+        <v>0.9588763464078579</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1.05</v>
-      </c>
       <c r="C20">
-        <v>0.8601082648380609</v>
+        <v>0.9246213160525186</v>
       </c>
       <c r="D20">
-        <v>0.8795995001334133</v>
+        <v>0.9402189902782482</v>
       </c>
       <c r="E20">
-        <v>0.883141437712424</v>
+        <v>0.9420955437787319</v>
       </c>
       <c r="F20">
-        <v>0.8873032090935614</v>
+        <v>0.8874822625888402</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>1.01841197618337</v>
-      </c>
       <c r="J20">
-        <v>0.8943459042743512</v>
+        <v>0.9554025586426702</v>
       </c>
       <c r="K20">
-        <v>0.8961507283072494</v>
+        <v>0.9554013000676834</v>
       </c>
       <c r="L20">
-        <v>0.8996057216973783</v>
+        <v>0.9572391838577003</v>
       </c>
       <c r="M20">
-        <v>0.9036665250877185</v>
+        <v>0.9038412631377283</v>
       </c>
       <c r="N20">
-        <v>0.89561597804133</v>
+        <v>0.9567593398621479</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1.05</v>
-      </c>
       <c r="C21">
-        <v>0.8057134986064708</v>
+        <v>0.9147228378721687</v>
       </c>
       <c r="D21">
-        <v>0.8280017131215632</v>
+        <v>0.9319004011691063</v>
       </c>
       <c r="E21">
-        <v>0.8366281921369444</v>
+        <v>0.9340418228597323</v>
       </c>
       <c r="F21">
-        <v>0.8363141548678342</v>
+        <v>0.8729205697927818</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>1.006263398403983</v>
-      </c>
       <c r="J21">
-        <v>0.8463804415951639</v>
+        <v>0.9482756512069226</v>
       </c>
       <c r="K21">
-        <v>0.8471847880245161</v>
+        <v>0.9482979735315034</v>
       </c>
       <c r="L21">
-        <v>0.8555435984224257</v>
+        <v>0.9503906637028079</v>
       </c>
       <c r="M21">
-        <v>0.8552391718211183</v>
+        <v>0.8907885869464076</v>
       </c>
       <c r="N21">
-        <v>0.8475823989034225</v>
+        <v>0.949622311400374</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1.05</v>
-      </c>
       <c r="C22">
-        <v>0.7461150993674897</v>
+        <v>0.9082050714293788</v>
       </c>
       <c r="D22">
-        <v>0.7718926613821097</v>
+        <v>0.92643593538558</v>
       </c>
       <c r="E22">
-        <v>0.7861325575999181</v>
+        <v>0.9287540101226224</v>
       </c>
       <c r="F22">
-        <v>0.7810080656325292</v>
+        <v>0.8632460423790629</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>0.9932658802081181</v>
-      </c>
       <c r="J22">
-        <v>0.7941410674729523</v>
+        <v>0.9435788507673587</v>
       </c>
       <c r="K22">
-        <v>0.7939070033318444</v>
+        <v>0.9436205510978289</v>
       </c>
       <c r="L22">
-        <v>0.8075892928620272</v>
+        <v>0.9458825507033379</v>
       </c>
       <c r="M22">
-        <v>0.8026621575124403</v>
+        <v>0.8821190141816719</v>
       </c>
       <c r="N22">
-        <v>0.7952688388780175</v>
+        <v>0.9449188409654552</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1.05</v>
-      </c>
       <c r="C23">
-        <v>0.7828658637924047</v>
+        <v>0.911690210638662</v>
       </c>
       <c r="D23">
-        <v>0.8064322228080321</v>
+        <v>0.9293565732738421</v>
       </c>
       <c r="E23">
-        <v>0.8172041372851123</v>
+        <v>0.9315799613158132</v>
       </c>
       <c r="F23">
-        <v>0.8150328453676507</v>
+        <v>0.8684281793897286</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>1.001233257641734</v>
-      </c>
       <c r="J23">
-        <v>0.8263068218198713</v>
+        <v>0.9460906656027904</v>
       </c>
       <c r="K23">
-        <v>0.8267055632608449</v>
+        <v>0.9461216221283543</v>
       </c>
       <c r="L23">
-        <v>0.8371111483285221</v>
+        <v>0.9482929340540596</v>
       </c>
       <c r="M23">
-        <v>0.835012612594165</v>
+        <v>0.8867625336134343</v>
       </c>
       <c r="N23">
-        <v>0.8274802722855726</v>
+        <v>0.9474342228660624</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>1.05</v>
-      </c>
       <c r="C24">
-        <v>0.8608528785648465</v>
+        <v>0.9247827043924871</v>
       </c>
       <c r="D24">
-        <v>0.8803079322083371</v>
+        <v>0.9403548164045523</v>
       </c>
       <c r="E24">
-        <v>0.8837804353814006</v>
+        <v>0.9422270843797996</v>
       </c>
       <c r="F24">
-        <v>0.8880039339650785</v>
+        <v>0.8877184714370866</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>1.018579493370573</v>
-      </c>
       <c r="J24">
-        <v>0.8950038365651196</v>
+        <v>0.9555186920398845</v>
       </c>
       <c r="K24">
-        <v>0.8968226851587119</v>
+        <v>0.9555171072067958</v>
       </c>
       <c r="L24">
-        <v>0.9002102376138867</v>
+        <v>0.9573508588829513</v>
       </c>
       <c r="M24">
-        <v>0.9043316155122241</v>
+        <v>0.9040530141115226</v>
       </c>
       <c r="N24">
-        <v>0.8962748446714173</v>
+        <v>0.956875638182107</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1.05</v>
-      </c>
       <c r="C25">
-        <v>0.9169068676539782</v>
+        <v>0.9388731403260427</v>
       </c>
       <c r="D25">
-        <v>0.9337734400529558</v>
+        <v>0.9522377562429688</v>
       </c>
       <c r="E25">
-        <v>0.9320259247113943</v>
+        <v>0.9537397548930833</v>
       </c>
       <c r="F25">
-        <v>0.94092402983696</v>
+        <v>0.9082077795290386</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>1.031222984933072</v>
-      </c>
       <c r="J25">
-        <v>0.9445951697453735</v>
+        <v>0.9656485748842727</v>
       </c>
       <c r="K25">
-        <v>0.9474949004468592</v>
+        <v>0.9656257184560999</v>
       </c>
       <c r="L25">
-        <v>0.9457798413567887</v>
+        <v>0.9671013242449129</v>
       </c>
       <c r="M25">
-        <v>0.9545143176326544</v>
+        <v>0.9224204418115161</v>
       </c>
       <c r="N25">
-        <v>0.9459366032329924</v>
+        <v>0.9670199066220482</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9493801536638237</v>
+        <v>1.010536130669065</v>
       </c>
       <c r="D2">
-        <v>0.9611298744614191</v>
+        <v>1.013033400758866</v>
       </c>
       <c r="E2">
-        <v>0.9623605412089153</v>
+        <v>1.01278048318499</v>
       </c>
       <c r="F2">
-        <v>0.9233340425675892</v>
+        <v>1.008778288730085</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9731880096596823</v>
+        <v>1.015789810205607</v>
       </c>
       <c r="K2">
-        <v>0.9731586743334291</v>
+        <v>1.015895768886358</v>
       </c>
       <c r="L2">
-        <v>0.97437041158175</v>
+        <v>1.015643611777393</v>
       </c>
       <c r="M2">
-        <v>0.9359759330233843</v>
+        <v>1.011653506336786</v>
       </c>
       <c r="N2">
-        <v>0.9745700482596239</v>
+        <v>1.017232348248819</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9566473130668581</v>
+        <v>1.011961825587722</v>
       </c>
       <c r="D3">
-        <v>0.9672956944484123</v>
+        <v>1.014294552009238</v>
       </c>
       <c r="E3">
-        <v>0.9683409372712252</v>
+        <v>1.014005743137137</v>
       </c>
       <c r="F3">
-        <v>0.9337317822483108</v>
+        <v>1.010859548778239</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.978393880728254</v>
+        <v>1.016845823810705</v>
       </c>
       <c r="K3">
-        <v>0.9783648719045124</v>
+        <v>1.01696028939188</v>
       </c>
       <c r="L3">
-        <v>0.979395595653251</v>
+        <v>1.016672285099133</v>
       </c>
       <c r="M3">
-        <v>0.9452892004549172</v>
+        <v>1.0135348878805</v>
       </c>
       <c r="N3">
-        <v>0.9797833122622349</v>
+        <v>1.018289861514363</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9611994290940833</v>
+        <v>1.012883059000038</v>
       </c>
       <c r="D4">
-        <v>0.971164453982738</v>
+        <v>1.015109664922088</v>
       </c>
       <c r="E4">
-        <v>0.9720944427065614</v>
+        <v>1.014797684216438</v>
       </c>
       <c r="F4">
-        <v>0.9402213390415284</v>
+        <v>1.012204372999632</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9816505722691534</v>
+        <v>1.017527519092688</v>
       </c>
       <c r="K4">
-        <v>0.9816238250499913</v>
+        <v>1.017647633016015</v>
       </c>
       <c r="L4">
-        <v>0.9825417546527208</v>
+        <v>1.017336477009675</v>
       </c>
       <c r="M4">
-        <v>0.9510991232967725</v>
+        <v>1.014750042297969</v>
       </c>
       <c r="N4">
-        <v>0.98304462867867</v>
+        <v>1.018972524881837</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9630794496763876</v>
+        <v>1.013270046004913</v>
       </c>
       <c r="D5">
-        <v>0.9727637184999979</v>
+        <v>1.015452120874031</v>
       </c>
       <c r="E5">
-        <v>0.9736463031690844</v>
+        <v>1.015130410833671</v>
       </c>
       <c r="F5">
-        <v>0.9428966673006691</v>
+        <v>1.012769303319354</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9829945363965094</v>
+        <v>1.01781372325303</v>
       </c>
       <c r="K5">
-        <v>0.9829691952027783</v>
+        <v>1.017936245941869</v>
       </c>
       <c r="L5">
-        <v>0.9838406700723764</v>
+        <v>1.017615367096649</v>
       </c>
       <c r="M5">
-        <v>0.95349352742133</v>
+        <v>1.015260377364592</v>
       </c>
       <c r="N5">
-        <v>0.9843905013892414</v>
+        <v>1.019259135484915</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9633931998601515</v>
+        <v>1.013335005507032</v>
       </c>
       <c r="D6">
-        <v>0.973030698093962</v>
+        <v>1.015509608171699</v>
       </c>
       <c r="E6">
-        <v>0.9739053826626618</v>
+        <v>1.0151862652314</v>
       </c>
       <c r="F6">
-        <v>0.9433428795096618</v>
+        <v>1.012864132710352</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9832187635187125</v>
+        <v>1.017861756060277</v>
       </c>
       <c r="K6">
-        <v>0.9831936841449384</v>
+        <v>1.017984685190564</v>
       </c>
       <c r="L6">
-        <v>0.9840574135891097</v>
+        <v>1.017662174422573</v>
       </c>
       <c r="M6">
-        <v>0.9538928390556092</v>
+        <v>1.015346035106192</v>
       </c>
       <c r="N6">
-        <v>0.9846150469396776</v>
+        <v>1.019307236504258</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9612246795548137</v>
+        <v>1.012888231105818</v>
       </c>
       <c r="D7">
-        <v>0.9711859279233654</v>
+        <v>1.015114241681824</v>
       </c>
       <c r="E7">
-        <v>0.9721152792141301</v>
+        <v>1.014802130925262</v>
       </c>
       <c r="F7">
-        <v>0.9402572894772957</v>
+        <v>1.01221192330768</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9816686271677135</v>
+        <v>1.01753134485412</v>
       </c>
       <c r="K7">
-        <v>0.9816418969908894</v>
+        <v>1.017651490829374</v>
       </c>
       <c r="L7">
-        <v>0.9825592021671357</v>
+        <v>1.017340204866563</v>
       </c>
       <c r="M7">
-        <v>0.9511313017834613</v>
+        <v>1.014756863426336</v>
       </c>
       <c r="N7">
-        <v>0.9830627092172571</v>
+        <v>1.018976356076289</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9518686719465385</v>
+        <v>1.011018222445679</v>
       </c>
       <c r="D8">
-        <v>0.9632398192710536</v>
+        <v>1.013459810595595</v>
       </c>
       <c r="E8">
-        <v>0.9644067893606707</v>
+        <v>1.013194752331359</v>
       </c>
       <c r="F8">
-        <v>0.926900074703838</v>
+        <v>1.009482063001938</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9749715529868157</v>
+        <v>1.01614703342633</v>
       </c>
       <c r="K8">
-        <v>0.9749418805638999</v>
+        <v>1.016255837141191</v>
       </c>
       <c r="L8">
-        <v>0.976091499285603</v>
+        <v>1.015991556027772</v>
       </c>
       <c r="M8">
-        <v>0.9391705707054582</v>
+        <v>1.012289798984072</v>
       </c>
       <c r="N8">
-        <v>0.9763561244228572</v>
+        <v>1.017590078767489</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9341157183110803</v>
+        <v>1.007712793635553</v>
       </c>
       <c r="D9">
-        <v>0.9482202980182214</v>
+        <v>1.010537022317888</v>
       </c>
       <c r="E9">
-        <v>0.9498464682871575</v>
+        <v>1.010355294634129</v>
       </c>
       <c r="F9">
-        <v>0.9013180656380267</v>
+        <v>1.004656380899225</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9622305877789935</v>
+        <v>1.013695035356259</v>
       </c>
       <c r="K9">
-        <v>0.9622133144198259</v>
+        <v>1.013784964082866</v>
       </c>
       <c r="L9">
-        <v>0.9638092755677461</v>
+        <v>1.013603862642245</v>
       </c>
       <c r="M9">
-        <v>0.9162445565061558</v>
+        <v>1.007924714231784</v>
       </c>
       <c r="N9">
-        <v>0.9635970655830308</v>
+        <v>1.015134598578911</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9212402979798873</v>
+        <v>1.005501757834982</v>
       </c>
       <c r="D10">
-        <v>0.9373749408551232</v>
+        <v>1.008583054819447</v>
       </c>
       <c r="E10">
-        <v>0.9393415144502063</v>
+        <v>1.008457187089967</v>
       </c>
       <c r="F10">
-        <v>0.8825251313620593</v>
+        <v>1.001427778714665</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9529691062066534</v>
+        <v>1.012051451805072</v>
       </c>
       <c r="K10">
-        <v>0.9529751117612542</v>
+        <v>1.012129558622804</v>
       </c>
       <c r="L10">
-        <v>0.954899723994</v>
+        <v>1.012004168150265</v>
       </c>
       <c r="M10">
-        <v>0.8993975143496618</v>
+        <v>1.005001624673358</v>
       </c>
       <c r="N10">
-        <v>0.9543224316445513</v>
+        <v>1.01348868095056</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9153664282969038</v>
+        <v>1.004542476014394</v>
       </c>
       <c r="D11">
-        <v>0.9324405453903708</v>
+        <v>1.007735580330921</v>
       </c>
       <c r="E11">
-        <v>0.9345646222823928</v>
+        <v>1.007633978794078</v>
       </c>
       <c r="F11">
-        <v>0.8738719979186093</v>
+        <v>1.000026771836208</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9487392675083849</v>
+        <v>1.011337556294104</v>
       </c>
       <c r="K11">
-        <v>0.9487598427366647</v>
+        <v>1.011410727809409</v>
       </c>
       <c r="L11">
-        <v>0.9508358818915659</v>
+        <v>1.011309526802741</v>
       </c>
       <c r="M11">
-        <v>0.8916413117738707</v>
+        <v>1.003732565962925</v>
       </c>
       <c r="N11">
-        <v>0.9500865860901618</v>
+        <v>1.012773771626081</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9131343525804717</v>
+        <v>1.004185861881782</v>
       </c>
       <c r="D12">
-        <v>0.9305676690499673</v>
+        <v>1.007420572992825</v>
       </c>
       <c r="E12">
-        <v>0.9327519756214447</v>
+        <v>1.007327997268281</v>
       </c>
       <c r="F12">
-        <v>0.8705693792967407</v>
+        <v>0.9995059019300301</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9471312416119555</v>
+        <v>1.011072043372367</v>
       </c>
       <c r="K12">
-        <v>0.947158003767288</v>
+        <v>1.011143409557441</v>
       </c>
       <c r="L12">
-        <v>0.9492918425028536</v>
+        <v>1.011051203965471</v>
       </c>
       <c r="M12">
-        <v>0.8886814022425308</v>
+        <v>1.003260658509234</v>
       </c>
       <c r="N12">
-        <v>0.9484762766125164</v>
+        <v>1.01250788164554</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9136155116149144</v>
+        <v>1.004262370302683</v>
       </c>
       <c r="D13">
-        <v>0.9309712945331731</v>
+        <v>1.007488153114552</v>
       </c>
       <c r="E13">
-        <v>0.933142599762236</v>
+        <v>1.00739364075974</v>
       </c>
       <c r="F13">
-        <v>0.8712820061623532</v>
+        <v>0.9996176520906355</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9474779075102512</v>
+        <v>1.011129012323739</v>
       </c>
       <c r="K13">
-        <v>0.9475033056174794</v>
+        <v>1.011200764493194</v>
       </c>
       <c r="L13">
-        <v>0.9496246725564639</v>
+        <v>1.011106628878238</v>
       </c>
       <c r="M13">
-        <v>0.8893200591551365</v>
+        <v>1.003361908237566</v>
       </c>
       <c r="N13">
-        <v>0.9488234348161507</v>
+        <v>1.012564931499357</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9151829840215149</v>
+        <v>1.004513004240034</v>
       </c>
       <c r="D14">
-        <v>0.9322865763963412</v>
+        <v>1.007709546212349</v>
       </c>
       <c r="E14">
-        <v>0.9344155953412788</v>
+        <v>1.007608690498916</v>
       </c>
       <c r="F14">
-        <v>0.873600878520262</v>
+        <v>0.9999837263603598</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9486071248470421</v>
+        <v>1.011315615901845</v>
       </c>
       <c r="K14">
-        <v>0.9486281950165102</v>
+        <v>1.011388637618081</v>
       </c>
       <c r="L14">
-        <v>0.9507089790422494</v>
+        <v>1.011288179961228</v>
       </c>
       <c r="M14">
-        <v>0.8913983169220271</v>
+        <v>1.003693568724689</v>
       </c>
       <c r="N14">
-        <v>0.9499542557710828</v>
+        <v>1.012751800075948</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9161419185621319</v>
+        <v>1.004667388790181</v>
       </c>
       <c r="D15">
-        <v>0.9330915225765324</v>
+        <v>1.007845924728814</v>
       </c>
       <c r="E15">
-        <v>0.9351947231326738</v>
+        <v>1.007741162302809</v>
       </c>
       <c r="F15">
-        <v>0.8750175240238691</v>
+        <v>1.000209213362901</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9492978582691262</v>
+        <v>1.011430543189605</v>
       </c>
       <c r="K15">
-        <v>0.9493163679426168</v>
+        <v>1.011504350815392</v>
       </c>
       <c r="L15">
-        <v>0.9513723593288985</v>
+        <v>1.011399999326536</v>
       </c>
       <c r="M15">
-        <v>0.8926680237444909</v>
+        <v>1.00389784583789</v>
       </c>
       <c r="N15">
-        <v>0.9506459701138545</v>
+        <v>1.012866890573639</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9216233954835993</v>
+        <v>1.005565381531935</v>
       </c>
       <c r="D16">
-        <v>0.9376970561429133</v>
+        <v>1.008639268849452</v>
       </c>
       <c r="E16">
-        <v>0.9396534065395147</v>
+        <v>1.008511792346673</v>
       </c>
       <c r="F16">
-        <v>0.8830876579733409</v>
+        <v>1.001520693768317</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.9532448843311727</v>
+        <v>1.012098783404229</v>
       </c>
       <c r="K16">
-        <v>0.9532500256420373</v>
+        <v>1.012177221654074</v>
       </c>
       <c r="L16">
-        <v>0.9551647951376339</v>
+        <v>1.012050227237641</v>
       </c>
       <c r="M16">
-        <v>0.8999017711147863</v>
+        <v>1.005085775770965</v>
       </c>
       <c r="N16">
-        <v>0.9545986014056393</v>
+        <v>1.013536079766016</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9249782894839239</v>
+        <v>1.006128155681409</v>
       </c>
       <c r="D17">
-        <v>0.9405194313313482</v>
+        <v>1.009136533771051</v>
       </c>
       <c r="E17">
-        <v>0.9423865071062579</v>
+        <v>1.008994830672333</v>
       </c>
       <c r="F17">
-        <v>0.8880046812686178</v>
+        <v>1.002342531398444</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9556594300532324</v>
+        <v>1.012517354827538</v>
       </c>
       <c r="K17">
-        <v>0.9556574523326014</v>
+        <v>1.012598747105328</v>
       </c>
       <c r="L17">
-        <v>0.9574861972755365</v>
+        <v>1.012457567408557</v>
       </c>
       <c r="M17">
-        <v>0.9043095892480225</v>
+        <v>1.005830023775419</v>
       </c>
       <c r="N17">
-        <v>0.9570165760595767</v>
+        <v>1.013955245608757</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9269067279139958</v>
+        <v>1.006456230793752</v>
       </c>
       <c r="D18">
-        <v>0.9421430046318675</v>
+        <v>1.009426446076374</v>
       </c>
       <c r="E18">
-        <v>0.9439589672750833</v>
+        <v>1.009276452382998</v>
       </c>
       <c r="F18">
-        <v>0.8908237887752668</v>
+        <v>1.002821607394254</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9570469055312799</v>
+        <v>1.012761287471614</v>
       </c>
       <c r="K18">
-        <v>0.9570412007891373</v>
+        <v>1.012844420486503</v>
       </c>
       <c r="L18">
-        <v>0.9588206349202851</v>
+        <v>1.012694973119458</v>
       </c>
       <c r="M18">
-        <v>0.9068368222006121</v>
+        <v>1.006263810019691</v>
       </c>
       <c r="N18">
-        <v>0.9584060219119486</v>
+        <v>1.014199524665167</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9275596045114735</v>
+        <v>1.00656806545137</v>
       </c>
       <c r="D19">
-        <v>0.9426928724901351</v>
+        <v>1.009525276213477</v>
       </c>
       <c r="E19">
-        <v>0.9444915638896865</v>
+        <v>1.009372456905695</v>
       </c>
       <c r="F19">
-        <v>0.8917770350513644</v>
+        <v>1.002984911764681</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9575165630596283</v>
+        <v>1.01284442631006</v>
       </c>
       <c r="K19">
-        <v>0.95750965693575</v>
+        <v>1.012928155865902</v>
       </c>
       <c r="L19">
-        <v>0.9592724192017443</v>
+        <v>1.012775890503791</v>
       </c>
       <c r="M19">
-        <v>0.9076913806220949</v>
+        <v>1.006411666084644</v>
       </c>
       <c r="N19">
-        <v>0.9588763464078579</v>
+        <v>1.0142827815703</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9246213160525186</v>
+        <v>1.006067794192643</v>
       </c>
       <c r="D20">
-        <v>0.9402189902782482</v>
+        <v>1.009083195861317</v>
       </c>
       <c r="E20">
-        <v>0.9420955437787319</v>
+        <v>1.008943018358545</v>
       </c>
       <c r="F20">
-        <v>0.8874822625888402</v>
+        <v>1.00225438595068</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9554025586426702</v>
+        <v>1.012472468162121</v>
       </c>
       <c r="K20">
-        <v>0.9554013000676834</v>
+        <v>1.012553541667681</v>
       </c>
       <c r="L20">
-        <v>0.9572391838577003</v>
+        <v>1.012413883255999</v>
       </c>
       <c r="M20">
-        <v>0.9038412631377283</v>
+        <v>1.00575020636113</v>
       </c>
       <c r="N20">
-        <v>0.9567593398621479</v>
+        <v>1.013910295199127</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9147228378721687</v>
+        <v>1.004439206996361</v>
       </c>
       <c r="D21">
-        <v>0.9319004011691063</v>
+        <v>1.007644357535612</v>
       </c>
       <c r="E21">
-        <v>0.9340418228597323</v>
+        <v>1.007545369440663</v>
       </c>
       <c r="F21">
-        <v>0.8729205697927818</v>
+        <v>0.9998759398687239</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9482756512069226</v>
+        <v>1.011260675257756</v>
       </c>
       <c r="K21">
-        <v>0.9482979735315034</v>
+        <v>1.011333322352852</v>
       </c>
       <c r="L21">
-        <v>0.9503906637028079</v>
+        <v>1.011234726090134</v>
       </c>
       <c r="M21">
-        <v>0.8907885869464076</v>
+        <v>1.00359591756811</v>
       </c>
       <c r="N21">
-        <v>0.949622311400374</v>
+        <v>1.012696781409842</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9082050714293788</v>
+        <v>1.003413542493865</v>
       </c>
       <c r="D22">
-        <v>0.92643593538558</v>
+        <v>1.006738439806417</v>
       </c>
       <c r="E22">
-        <v>0.9287540101226224</v>
+        <v>1.00666542034573</v>
       </c>
       <c r="F22">
-        <v>0.8632460423790629</v>
+        <v>0.9983777650426463</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9435788507673587</v>
+        <v>1.01049679989066</v>
       </c>
       <c r="K22">
-        <v>0.9436205510978289</v>
+        <v>1.010564310295488</v>
       </c>
       <c r="L22">
-        <v>0.9458825507033379</v>
+        <v>1.010491591642553</v>
       </c>
       <c r="M22">
-        <v>0.8821190141816719</v>
+        <v>1.002238397112824</v>
       </c>
       <c r="N22">
-        <v>0.9449188409654552</v>
+        <v>1.011931821252107</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.911690210638662</v>
+        <v>1.003957431960013</v>
       </c>
       <c r="D23">
-        <v>0.9293565732738421</v>
+        <v>1.007218806407243</v>
       </c>
       <c r="E23">
-        <v>0.9315799613158132</v>
+        <v>1.007132013570319</v>
       </c>
       <c r="F23">
-        <v>0.8684281793897286</v>
+        <v>0.9991722443141443</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9460906656027904</v>
+        <v>1.010901934346577</v>
       </c>
       <c r="K23">
-        <v>0.9461216221283543</v>
+        <v>1.010972152426064</v>
       </c>
       <c r="L23">
-        <v>0.9482929340540596</v>
+        <v>1.010885709715521</v>
       </c>
       <c r="M23">
-        <v>0.8867625336134343</v>
+        <v>1.00295833883997</v>
       </c>
       <c r="N23">
-        <v>0.9474342228660624</v>
+        <v>1.012337531045421</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9247827043924871</v>
+        <v>1.006095069512178</v>
       </c>
       <c r="D24">
-        <v>0.9403548164045523</v>
+        <v>1.009107297380737</v>
       </c>
       <c r="E24">
-        <v>0.9422270843797996</v>
+        <v>1.008966430503548</v>
       </c>
       <c r="F24">
-        <v>0.8877184714370866</v>
+        <v>1.002294215973764</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9555186920398845</v>
+        <v>1.012492751172289</v>
       </c>
       <c r="K24">
-        <v>0.9555171072067958</v>
+        <v>1.012573968662617</v>
       </c>
       <c r="L24">
-        <v>0.9573508588829513</v>
+        <v>1.012433622828032</v>
       </c>
       <c r="M24">
-        <v>0.9040530141115226</v>
+        <v>1.00578627340651</v>
       </c>
       <c r="N24">
-        <v>0.956875638182107</v>
+        <v>1.013930607013495</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9388731403260427</v>
+        <v>1.008568593910982</v>
       </c>
       <c r="D25">
-        <v>0.9522377562429688</v>
+        <v>1.011293561302735</v>
       </c>
       <c r="E25">
-        <v>0.9537397548930833</v>
+        <v>1.011090238544764</v>
       </c>
       <c r="F25">
-        <v>0.9082077795290386</v>
+        <v>1.005905871714893</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9656485748842727</v>
+        <v>1.014330477726549</v>
       </c>
       <c r="K25">
-        <v>0.9656257184560999</v>
+        <v>1.014425152924449</v>
       </c>
       <c r="L25">
-        <v>0.9671013242449129</v>
+        <v>1.014222503702876</v>
       </c>
       <c r="M25">
-        <v>0.9224204418115161</v>
+        <v>1.009055411827614</v>
       </c>
       <c r="N25">
-        <v>0.9670199066220482</v>
+        <v>1.015770943350252</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.010536130669065</v>
+        <v>0.949380153663825</v>
       </c>
       <c r="D2">
-        <v>1.013033400758866</v>
+        <v>0.9611298744614206</v>
       </c>
       <c r="E2">
-        <v>1.01278048318499</v>
+        <v>0.9623605412089167</v>
       </c>
       <c r="F2">
-        <v>1.008778288730085</v>
+        <v>0.923334042567591</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.015789810205607</v>
+        <v>0.9731880096596837</v>
       </c>
       <c r="K2">
-        <v>1.015895768886358</v>
+        <v>0.9731586743334303</v>
       </c>
       <c r="L2">
-        <v>1.015643611777393</v>
+        <v>0.9743704115817513</v>
       </c>
       <c r="M2">
-        <v>1.011653506336786</v>
+        <v>0.935975933023386</v>
       </c>
       <c r="N2">
-        <v>1.017232348248819</v>
+        <v>0.9745700482596255</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.011961825587722</v>
+        <v>0.9566473130668577</v>
       </c>
       <c r="D3">
-        <v>1.014294552009238</v>
+        <v>0.9672956944484119</v>
       </c>
       <c r="E3">
-        <v>1.014005743137137</v>
+        <v>0.9683409372712244</v>
       </c>
       <c r="F3">
-        <v>1.010859548778239</v>
+        <v>0.9337317822483102</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.016845823810705</v>
+        <v>0.9783938807282535</v>
       </c>
       <c r="K3">
-        <v>1.01696028939188</v>
+        <v>0.9783648719045119</v>
       </c>
       <c r="L3">
-        <v>1.016672285099133</v>
+        <v>0.9793955956532504</v>
       </c>
       <c r="M3">
-        <v>1.0135348878805</v>
+        <v>0.9452892004549165</v>
       </c>
       <c r="N3">
-        <v>1.018289861514363</v>
+        <v>0.9797833122622345</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.012883059000038</v>
+        <v>0.9611994290940845</v>
       </c>
       <c r="D4">
-        <v>1.015109664922088</v>
+        <v>0.9711644539827389</v>
       </c>
       <c r="E4">
-        <v>1.014797684216438</v>
+        <v>0.9720944427065626</v>
       </c>
       <c r="F4">
-        <v>1.012204372999632</v>
+        <v>0.9402213390415293</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.017527519092688</v>
+        <v>0.9816505722691545</v>
       </c>
       <c r="K4">
-        <v>1.017647633016015</v>
+        <v>0.9816238250499922</v>
       </c>
       <c r="L4">
-        <v>1.017336477009675</v>
+        <v>0.9825417546527219</v>
       </c>
       <c r="M4">
-        <v>1.014750042297969</v>
+        <v>0.9510991232967733</v>
       </c>
       <c r="N4">
-        <v>1.018972524881837</v>
+        <v>0.983044628678671</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.013270046004913</v>
+        <v>0.9630794496763881</v>
       </c>
       <c r="D5">
-        <v>1.015452120874031</v>
+        <v>0.9727637184999985</v>
       </c>
       <c r="E5">
-        <v>1.015130410833671</v>
+        <v>0.9736463031690851</v>
       </c>
       <c r="F5">
-        <v>1.012769303319354</v>
+        <v>0.9428966673006696</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.01781372325303</v>
+        <v>0.98299453639651</v>
       </c>
       <c r="K5">
-        <v>1.017936245941869</v>
+        <v>0.9829691952027789</v>
       </c>
       <c r="L5">
-        <v>1.017615367096649</v>
+        <v>0.9838406700723769</v>
       </c>
       <c r="M5">
-        <v>1.015260377364592</v>
+        <v>0.9534935274213302</v>
       </c>
       <c r="N5">
-        <v>1.019259135484915</v>
+        <v>0.9843905013892422</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.013335005507032</v>
+        <v>0.96339319986015</v>
       </c>
       <c r="D6">
-        <v>1.015509608171699</v>
+        <v>0.9730306980939608</v>
       </c>
       <c r="E6">
-        <v>1.0151862652314</v>
+        <v>0.9739053826626602</v>
       </c>
       <c r="F6">
-        <v>1.012864132710352</v>
+        <v>0.9433428795096597</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.017861756060277</v>
+        <v>0.9832187635187112</v>
       </c>
       <c r="K6">
-        <v>1.017984685190564</v>
+        <v>0.983193684144937</v>
       </c>
       <c r="L6">
-        <v>1.017662174422573</v>
+        <v>0.9840574135891083</v>
       </c>
       <c r="M6">
-        <v>1.015346035106192</v>
+        <v>0.9538928390556072</v>
       </c>
       <c r="N6">
-        <v>1.019307236504258</v>
+        <v>0.9846150469396763</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.012888231105818</v>
+        <v>0.9612246795548128</v>
       </c>
       <c r="D7">
-        <v>1.015114241681824</v>
+        <v>0.9711859279233646</v>
       </c>
       <c r="E7">
-        <v>1.014802130925262</v>
+        <v>0.9721152792141293</v>
       </c>
       <c r="F7">
-        <v>1.01221192330768</v>
+        <v>0.9402572894772956</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.01753134485412</v>
+        <v>0.9816686271677129</v>
       </c>
       <c r="K7">
-        <v>1.017651490829374</v>
+        <v>0.9816418969908888</v>
       </c>
       <c r="L7">
-        <v>1.017340204866563</v>
+        <v>0.9825592021671348</v>
       </c>
       <c r="M7">
-        <v>1.014756863426336</v>
+        <v>0.9511313017834611</v>
       </c>
       <c r="N7">
-        <v>1.018976356076289</v>
+        <v>0.9830627092172564</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.011018222445679</v>
+        <v>0.9518686719465383</v>
       </c>
       <c r="D8">
-        <v>1.013459810595595</v>
+        <v>0.9632398192710533</v>
       </c>
       <c r="E8">
-        <v>1.013194752331359</v>
+        <v>0.9644067893606703</v>
       </c>
       <c r="F8">
-        <v>1.009482063001938</v>
+        <v>0.9269000747038378</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.01614703342633</v>
+        <v>0.9749715529868156</v>
       </c>
       <c r="K8">
-        <v>1.016255837141191</v>
+        <v>0.9749418805638996</v>
       </c>
       <c r="L8">
-        <v>1.015991556027772</v>
+        <v>0.9760914992856027</v>
       </c>
       <c r="M8">
-        <v>1.012289798984072</v>
+        <v>0.9391705707054581</v>
       </c>
       <c r="N8">
-        <v>1.017590078767489</v>
+        <v>0.976356124422857</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.007712793635553</v>
+        <v>0.9341157183110794</v>
       </c>
       <c r="D9">
-        <v>1.010537022317888</v>
+        <v>0.9482202980182205</v>
       </c>
       <c r="E9">
-        <v>1.010355294634129</v>
+        <v>0.9498464682871565</v>
       </c>
       <c r="F9">
-        <v>1.004656380899225</v>
+        <v>0.901318065638026</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.013695035356259</v>
+        <v>0.9622305877789927</v>
       </c>
       <c r="K9">
-        <v>1.013784964082866</v>
+        <v>0.962213314419825</v>
       </c>
       <c r="L9">
-        <v>1.013603862642245</v>
+        <v>0.9638092755677452</v>
       </c>
       <c r="M9">
-        <v>1.007924714231784</v>
+        <v>0.916244556506155</v>
       </c>
       <c r="N9">
-        <v>1.015134598578911</v>
+        <v>0.96359706558303</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.005501757834982</v>
+        <v>0.9212402979798864</v>
       </c>
       <c r="D10">
-        <v>1.008583054819447</v>
+        <v>0.9373749408551221</v>
       </c>
       <c r="E10">
-        <v>1.008457187089967</v>
+        <v>0.9393415144502054</v>
       </c>
       <c r="F10">
-        <v>1.001427778714665</v>
+        <v>0.8825251313620582</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.012051451805072</v>
+        <v>0.9529691062066524</v>
       </c>
       <c r="K10">
-        <v>1.012129558622804</v>
+        <v>0.952975111761253</v>
       </c>
       <c r="L10">
-        <v>1.012004168150265</v>
+        <v>0.9548997239939991</v>
       </c>
       <c r="M10">
-        <v>1.005001624673358</v>
+        <v>0.8993975143496604</v>
       </c>
       <c r="N10">
-        <v>1.01348868095056</v>
+        <v>0.9543224316445503</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.004542476014394</v>
+        <v>0.9153664282969044</v>
       </c>
       <c r="D11">
-        <v>1.007735580330921</v>
+        <v>0.9324405453903716</v>
       </c>
       <c r="E11">
-        <v>1.007633978794078</v>
+        <v>0.9345646222823937</v>
       </c>
       <c r="F11">
-        <v>1.000026771836208</v>
+        <v>0.8738719979186094</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.011337556294104</v>
+        <v>0.9487392675083854</v>
       </c>
       <c r="K11">
-        <v>1.011410727809409</v>
+        <v>0.9487598427366652</v>
       </c>
       <c r="L11">
-        <v>1.011309526802741</v>
+        <v>0.9508358818915665</v>
       </c>
       <c r="M11">
-        <v>1.003732565962925</v>
+        <v>0.8916413117738707</v>
       </c>
       <c r="N11">
-        <v>1.012773771626081</v>
+        <v>0.9500865860901621</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.004185861881782</v>
+        <v>0.9131343525804724</v>
       </c>
       <c r="D12">
-        <v>1.007420572992825</v>
+        <v>0.9305676690499676</v>
       </c>
       <c r="E12">
-        <v>1.007327997268281</v>
+        <v>0.9327519756214449</v>
       </c>
       <c r="F12">
-        <v>0.9995059019300301</v>
+        <v>0.8705693792967413</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.011072043372367</v>
+        <v>0.9471312416119561</v>
       </c>
       <c r="K12">
-        <v>1.011143409557441</v>
+        <v>0.9471580037672882</v>
       </c>
       <c r="L12">
-        <v>1.011051203965471</v>
+        <v>0.9492918425028537</v>
       </c>
       <c r="M12">
-        <v>1.003260658509234</v>
+        <v>0.8886814022425314</v>
       </c>
       <c r="N12">
-        <v>1.01250788164554</v>
+        <v>0.9484762766125168</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.004262370302683</v>
+        <v>0.9136155116149156</v>
       </c>
       <c r="D13">
-        <v>1.007488153114552</v>
+        <v>0.9309712945331741</v>
       </c>
       <c r="E13">
-        <v>1.00739364075974</v>
+        <v>0.9331425997622371</v>
       </c>
       <c r="F13">
-        <v>0.9996176520906355</v>
+        <v>0.8712820061623544</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.011129012323739</v>
+        <v>0.9474779075102522</v>
       </c>
       <c r="K13">
-        <v>1.011200764493194</v>
+        <v>0.9475033056174803</v>
       </c>
       <c r="L13">
-        <v>1.011106628878238</v>
+        <v>0.9496246725564649</v>
       </c>
       <c r="M13">
-        <v>1.003361908237566</v>
+        <v>0.8893200591551377</v>
       </c>
       <c r="N13">
-        <v>1.012564931499357</v>
+        <v>0.9488234348161516</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.004513004240034</v>
+        <v>0.9151829840215154</v>
       </c>
       <c r="D14">
-        <v>1.007709546212349</v>
+        <v>0.9322865763963413</v>
       </c>
       <c r="E14">
-        <v>1.007608690498916</v>
+        <v>0.9344155953412792</v>
       </c>
       <c r="F14">
-        <v>0.9999837263603598</v>
+        <v>0.8736008785202626</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.011315615901845</v>
+        <v>0.9486071248470423</v>
       </c>
       <c r="K14">
-        <v>1.011388637618081</v>
+        <v>0.9486281950165104</v>
       </c>
       <c r="L14">
-        <v>1.011288179961228</v>
+        <v>0.9507089790422499</v>
       </c>
       <c r="M14">
-        <v>1.003693568724689</v>
+        <v>0.8913983169220276</v>
       </c>
       <c r="N14">
-        <v>1.012751800075948</v>
+        <v>0.9499542557710833</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.004667388790181</v>
+        <v>0.9161419185621311</v>
       </c>
       <c r="D15">
-        <v>1.007845924728814</v>
+        <v>0.9330915225765315</v>
       </c>
       <c r="E15">
-        <v>1.007741162302809</v>
+        <v>0.9351947231326729</v>
       </c>
       <c r="F15">
-        <v>1.000209213362901</v>
+        <v>0.8750175240238683</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.011430543189605</v>
+        <v>0.9492978582691255</v>
       </c>
       <c r="K15">
-        <v>1.011504350815392</v>
+        <v>0.9493163679426164</v>
       </c>
       <c r="L15">
-        <v>1.011399999326536</v>
+        <v>0.9513723593288977</v>
       </c>
       <c r="M15">
-        <v>1.00389784583789</v>
+        <v>0.8926680237444902</v>
       </c>
       <c r="N15">
-        <v>1.012866890573639</v>
+        <v>0.9506459701138538</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.005565381531935</v>
+        <v>0.9216233954835977</v>
       </c>
       <c r="D16">
-        <v>1.008639268849452</v>
+        <v>0.9376970561429118</v>
       </c>
       <c r="E16">
-        <v>1.008511792346673</v>
+        <v>0.9396534065395131</v>
       </c>
       <c r="F16">
-        <v>1.001520693768317</v>
+        <v>0.8830876579733393</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.012098783404229</v>
+        <v>0.9532448843311712</v>
       </c>
       <c r="K16">
-        <v>1.012177221654074</v>
+        <v>0.9532500256420356</v>
       </c>
       <c r="L16">
-        <v>1.012050227237641</v>
+        <v>0.9551647951376324</v>
       </c>
       <c r="M16">
-        <v>1.005085775770965</v>
+        <v>0.8999017711147846</v>
       </c>
       <c r="N16">
-        <v>1.013536079766016</v>
+        <v>0.9545986014056379</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.006128155681409</v>
+        <v>0.9249782894839236</v>
       </c>
       <c r="D17">
-        <v>1.009136533771051</v>
+        <v>0.9405194313313482</v>
       </c>
       <c r="E17">
-        <v>1.008994830672333</v>
+        <v>0.9423865071062577</v>
       </c>
       <c r="F17">
-        <v>1.002342531398444</v>
+        <v>0.8880046812686173</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.012517354827538</v>
+        <v>0.9556594300532321</v>
       </c>
       <c r="K17">
-        <v>1.012598747105328</v>
+        <v>0.9556574523326012</v>
       </c>
       <c r="L17">
-        <v>1.012457567408557</v>
+        <v>0.9574861972755362</v>
       </c>
       <c r="M17">
-        <v>1.005830023775419</v>
+        <v>0.9043095892480223</v>
       </c>
       <c r="N17">
-        <v>1.013955245608757</v>
+        <v>0.9570165760595765</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.006456230793752</v>
+        <v>0.9269067279139958</v>
       </c>
       <c r="D18">
-        <v>1.009426446076374</v>
+        <v>0.942143004631868</v>
       </c>
       <c r="E18">
-        <v>1.009276452382998</v>
+        <v>0.9439589672750831</v>
       </c>
       <c r="F18">
-        <v>1.002821607394254</v>
+        <v>0.8908237887752669</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.012761287471614</v>
+        <v>0.95704690553128</v>
       </c>
       <c r="K18">
-        <v>1.012844420486503</v>
+        <v>0.9570412007891377</v>
       </c>
       <c r="L18">
-        <v>1.012694973119458</v>
+        <v>0.9588206349202849</v>
       </c>
       <c r="M18">
-        <v>1.006263810019691</v>
+        <v>0.9068368222006121</v>
       </c>
       <c r="N18">
-        <v>1.014199524665167</v>
+        <v>0.9584060219119488</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.00656806545137</v>
+        <v>0.9275596045114736</v>
       </c>
       <c r="D19">
-        <v>1.009525276213477</v>
+        <v>0.9426928724901351</v>
       </c>
       <c r="E19">
-        <v>1.009372456905695</v>
+        <v>0.9444915638896865</v>
       </c>
       <c r="F19">
-        <v>1.002984911764681</v>
+        <v>0.8917770350513644</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.01284442631006</v>
+        <v>0.9575165630596284</v>
       </c>
       <c r="K19">
-        <v>1.012928155865902</v>
+        <v>0.9575096569357503</v>
       </c>
       <c r="L19">
-        <v>1.012775890503791</v>
+        <v>0.9592724192017444</v>
       </c>
       <c r="M19">
-        <v>1.006411666084644</v>
+        <v>0.9076913806220948</v>
       </c>
       <c r="N19">
-        <v>1.0142827815703</v>
+        <v>0.9588763464078579</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.006067794192643</v>
+        <v>0.924621316052517</v>
       </c>
       <c r="D20">
-        <v>1.009083195861317</v>
+        <v>0.9402189902782466</v>
       </c>
       <c r="E20">
-        <v>1.008943018358545</v>
+        <v>0.9420955437787305</v>
       </c>
       <c r="F20">
-        <v>1.00225438595068</v>
+        <v>0.8874822625888384</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.012472468162121</v>
+        <v>0.9554025586426687</v>
       </c>
       <c r="K20">
-        <v>1.012553541667681</v>
+        <v>0.9554013000676823</v>
       </c>
       <c r="L20">
-        <v>1.012413883255999</v>
+        <v>0.9572391838576989</v>
       </c>
       <c r="M20">
-        <v>1.00575020636113</v>
+        <v>0.9038412631377266</v>
       </c>
       <c r="N20">
-        <v>1.013910295199127</v>
+        <v>0.9567593398621466</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.004439206996361</v>
+        <v>0.9147228378721691</v>
       </c>
       <c r="D21">
-        <v>1.007644357535612</v>
+        <v>0.9319004011691066</v>
       </c>
       <c r="E21">
-        <v>1.007545369440663</v>
+        <v>0.9340418228597327</v>
       </c>
       <c r="F21">
-        <v>0.9998759398687239</v>
+        <v>0.8729205697927821</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.011260675257756</v>
+        <v>0.9482756512069231</v>
       </c>
       <c r="K21">
-        <v>1.011333322352852</v>
+        <v>0.9482979735315037</v>
       </c>
       <c r="L21">
-        <v>1.011234726090134</v>
+        <v>0.9503906637028083</v>
       </c>
       <c r="M21">
-        <v>1.00359591756811</v>
+        <v>0.8907885869464081</v>
       </c>
       <c r="N21">
-        <v>1.012696781409842</v>
+        <v>0.9496223114003745</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.003413542493865</v>
+        <v>0.9082050714293783</v>
       </c>
       <c r="D22">
-        <v>1.006738439806417</v>
+        <v>0.9264359353855793</v>
       </c>
       <c r="E22">
-        <v>1.00666542034573</v>
+        <v>0.9287540101226222</v>
       </c>
       <c r="F22">
-        <v>0.9983777650426463</v>
+        <v>0.8632460423790624</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.01049679989066</v>
+        <v>0.9435788507673584</v>
       </c>
       <c r="K22">
-        <v>1.010564310295488</v>
+        <v>0.9436205510978283</v>
       </c>
       <c r="L22">
-        <v>1.010491591642553</v>
+        <v>0.9458825507033378</v>
       </c>
       <c r="M22">
-        <v>1.002238397112824</v>
+        <v>0.8821190141816715</v>
       </c>
       <c r="N22">
-        <v>1.011931821252107</v>
+        <v>0.944918840965455</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.003957431960013</v>
+        <v>0.9116902106386622</v>
       </c>
       <c r="D23">
-        <v>1.007218806407243</v>
+        <v>0.9293565732738421</v>
       </c>
       <c r="E23">
-        <v>1.007132013570319</v>
+        <v>0.9315799613158136</v>
       </c>
       <c r="F23">
-        <v>0.9991722443141443</v>
+        <v>0.868428179389729</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.010901934346577</v>
+        <v>0.9460906656027904</v>
       </c>
       <c r="K23">
-        <v>1.010972152426064</v>
+        <v>0.9461216221283542</v>
       </c>
       <c r="L23">
-        <v>1.010885709715521</v>
+        <v>0.9482929340540598</v>
       </c>
       <c r="M23">
-        <v>1.00295833883997</v>
+        <v>0.8867625336134347</v>
       </c>
       <c r="N23">
-        <v>1.012337531045421</v>
+        <v>0.9474342228660626</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.006095069512178</v>
+        <v>0.924782704392486</v>
       </c>
       <c r="D24">
-        <v>1.009107297380737</v>
+        <v>0.9403548164045515</v>
       </c>
       <c r="E24">
-        <v>1.008966430503548</v>
+        <v>0.9422270843797985</v>
       </c>
       <c r="F24">
-        <v>1.002294215973764</v>
+        <v>0.887718471437085</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.012492751172289</v>
+        <v>0.9555186920398835</v>
       </c>
       <c r="K24">
-        <v>1.012573968662617</v>
+        <v>0.9555171072067951</v>
       </c>
       <c r="L24">
-        <v>1.012433622828032</v>
+        <v>0.9573508588829502</v>
       </c>
       <c r="M24">
-        <v>1.00578627340651</v>
+        <v>0.9040530141115213</v>
       </c>
       <c r="N24">
-        <v>1.013930607013495</v>
+        <v>0.9568756381821059</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.008568593910982</v>
+        <v>0.9388731403260436</v>
       </c>
       <c r="D25">
-        <v>1.011293561302735</v>
+        <v>0.9522377562429694</v>
       </c>
       <c r="E25">
-        <v>1.011090238544764</v>
+        <v>0.9537397548930842</v>
       </c>
       <c r="F25">
-        <v>1.005905871714893</v>
+        <v>0.9082077795290397</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.014330477726549</v>
+        <v>0.9656485748842735</v>
       </c>
       <c r="K25">
-        <v>1.014425152924449</v>
+        <v>0.9656257184561005</v>
       </c>
       <c r="L25">
-        <v>1.014222503702876</v>
+        <v>0.9671013242449136</v>
       </c>
       <c r="M25">
-        <v>1.009055411827614</v>
+        <v>0.9224204418115173</v>
       </c>
       <c r="N25">
-        <v>1.015770943350252</v>
+        <v>0.9670199066220487</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,845 +412,1289 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
       <c r="C2">
-        <v>0.949380153663825</v>
+        <v>1.014722174556743</v>
       </c>
       <c r="D2">
-        <v>0.9611298744614206</v>
+        <v>1.030511170312343</v>
       </c>
       <c r="E2">
-        <v>0.9623605412089167</v>
+        <v>1.019050718587502</v>
       </c>
       <c r="F2">
-        <v>0.923334042567591</v>
+        <v>1.037967819084471</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.055130410096101</v>
+      </c>
       <c r="J2">
-        <v>0.9731880096596837</v>
+        <v>1.036471290807174</v>
       </c>
       <c r="K2">
-        <v>0.9731586743334303</v>
+        <v>1.041561191565211</v>
       </c>
       <c r="L2">
-        <v>0.9743704115817513</v>
+        <v>1.030250876424387</v>
       </c>
       <c r="M2">
-        <v>0.935975933023386</v>
+        <v>1.048922378676315</v>
       </c>
       <c r="N2">
-        <v>0.9745700482596255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015702757930997</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.047291140163878</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.04045764441106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.9566473130668577</v>
+        <v>1.01906171449199</v>
       </c>
       <c r="D3">
-        <v>0.9672956944484119</v>
+        <v>1.033718720697612</v>
       </c>
       <c r="E3">
-        <v>0.9683409372712244</v>
+        <v>1.022526440089661</v>
       </c>
       <c r="F3">
-        <v>0.9337317822483102</v>
+        <v>1.041065068487127</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.056225070638306</v>
+      </c>
       <c r="J3">
-        <v>0.9783938807282535</v>
+        <v>1.039045890031776</v>
       </c>
       <c r="K3">
-        <v>0.9783648719045119</v>
+        <v>1.043937603167889</v>
       </c>
       <c r="L3">
-        <v>0.9793955956532504</v>
+        <v>1.032878981093277</v>
       </c>
       <c r="M3">
-        <v>0.9452892004549165</v>
+        <v>1.051198151781143</v>
       </c>
       <c r="N3">
-        <v>0.9797833122622345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016591843879367</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.049092243037726</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.042135310707407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.9611994290940845</v>
+        <v>1.021814086035369</v>
       </c>
       <c r="D4">
-        <v>0.9711644539827389</v>
+        <v>1.035759784058397</v>
       </c>
       <c r="E4">
-        <v>0.9720944427065626</v>
+        <v>1.024736542583164</v>
       </c>
       <c r="F4">
-        <v>0.9402213390415293</v>
+        <v>1.043036767756023</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.056904172017646</v>
+      </c>
       <c r="J4">
-        <v>0.9816505722691545</v>
+        <v>1.040675779564223</v>
       </c>
       <c r="K4">
-        <v>0.9816238250499922</v>
+        <v>1.045444957878448</v>
       </c>
       <c r="L4">
-        <v>0.9825417546527219</v>
+        <v>1.03454531187719</v>
       </c>
       <c r="M4">
-        <v>0.9510991232967733</v>
+        <v>1.052642107396181</v>
       </c>
       <c r="N4">
-        <v>0.983044628678671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017154627127737</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.050235022803585</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.043202026436388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.9630794496763881</v>
+        <v>1.022963588658239</v>
       </c>
       <c r="D5">
-        <v>0.9727637184999985</v>
+        <v>1.03661635529539</v>
       </c>
       <c r="E5">
-        <v>0.9736463031690851</v>
+        <v>1.025661600048017</v>
       </c>
       <c r="F5">
-        <v>0.9428966673006696</v>
+        <v>1.043862784250805</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.057185099381215</v>
+      </c>
       <c r="J5">
-        <v>0.98299453639651</v>
+        <v>1.041357747600034</v>
       </c>
       <c r="K5">
-        <v>0.9829691952027789</v>
+        <v>1.046078020746821</v>
       </c>
       <c r="L5">
-        <v>0.9838406700723769</v>
+        <v>1.035242780589961</v>
       </c>
       <c r="M5">
-        <v>0.9534935274213302</v>
+        <v>1.053247079090007</v>
       </c>
       <c r="N5">
-        <v>0.9843905013892422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017390953599039</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.050713810830115</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.043656787806804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.96339319986015</v>
+        <v>1.023162283964937</v>
       </c>
       <c r="D6">
-        <v>0.9730306980939608</v>
+        <v>1.036767629075855</v>
       </c>
       <c r="E6">
-        <v>0.9739053826626602</v>
+        <v>1.025822445676243</v>
       </c>
       <c r="F6">
-        <v>0.9433428795096597</v>
+        <v>1.044006698061169</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.057234680720575</v>
+      </c>
       <c r="J6">
-        <v>0.9832187635187112</v>
+        <v>1.04147804984781</v>
       </c>
       <c r="K6">
-        <v>0.983193684144937</v>
+        <v>1.046191735399061</v>
       </c>
       <c r="L6">
-        <v>0.9840574135891083</v>
+        <v>1.035365407877872</v>
       </c>
       <c r="M6">
-        <v>0.9538928390556072</v>
+        <v>1.053353868810124</v>
       </c>
       <c r="N6">
-        <v>0.9846150469396763</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017433697474435</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.050798326553096</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043745893882115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.9612246795548128</v>
+        <v>1.021846889888184</v>
       </c>
       <c r="D7">
-        <v>0.9711859279233646</v>
+        <v>1.035792594196438</v>
       </c>
       <c r="E7">
-        <v>0.9721152792141293</v>
+        <v>1.024765303928014</v>
       </c>
       <c r="F7">
-        <v>0.9402572894772956</v>
+        <v>1.043063103561558</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.05691555024672</v>
+      </c>
       <c r="J7">
-        <v>0.9816686271677129</v>
+        <v>1.040701899181656</v>
       </c>
       <c r="K7">
-        <v>0.9816418969908888</v>
+        <v>1.045474541882006</v>
       </c>
       <c r="L7">
-        <v>0.9825592021671348</v>
+        <v>1.034570842169559</v>
       </c>
       <c r="M7">
-        <v>0.9511313017834611</v>
+        <v>1.052665320200405</v>
       </c>
       <c r="N7">
-        <v>0.9830627092172564</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017166559403858</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.050253393937743</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.043242963054663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.9518686719465383</v>
+        <v>1.016222686047937</v>
       </c>
       <c r="D8">
-        <v>0.9632398192710533</v>
+        <v>1.031629349190943</v>
       </c>
       <c r="E8">
-        <v>0.9644067893606703</v>
+        <v>1.020254494481664</v>
       </c>
       <c r="F8">
-        <v>0.9269000747038378</v>
+        <v>1.039040727669283</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.055516121403726</v>
+      </c>
       <c r="J8">
-        <v>0.9749715529868156</v>
+        <v>1.037370544816387</v>
       </c>
       <c r="K8">
-        <v>0.9749418805638996</v>
+        <v>1.042397269632791</v>
       </c>
       <c r="L8">
-        <v>0.9760914992856027</v>
+        <v>1.031166920923464</v>
       </c>
       <c r="M8">
-        <v>0.9391705707054581</v>
+        <v>1.049716612863783</v>
       </c>
       <c r="N8">
-        <v>0.976356124422857</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016017111807501</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.047919717154427</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.041071656069746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.9341157183110794</v>
+        <v>1.005836971507297</v>
       </c>
       <c r="D9">
-        <v>0.9482202980182205</v>
+        <v>1.023982808019714</v>
       </c>
       <c r="E9">
-        <v>0.9498464682871565</v>
+        <v>1.011967289692636</v>
       </c>
       <c r="F9">
-        <v>0.901318065638026</v>
+        <v>1.031668546312556</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.052808276962173</v>
+      </c>
       <c r="J9">
-        <v>0.9622305877789927</v>
+        <v>1.031185281721617</v>
       </c>
       <c r="K9">
-        <v>0.962213314419825</v>
+        <v>1.036698405683282</v>
       </c>
       <c r="L9">
-        <v>0.9638092755677452</v>
+        <v>1.024869144627831</v>
       </c>
       <c r="M9">
-        <v>0.916244556506155</v>
+        <v>1.044267899924669</v>
       </c>
       <c r="N9">
-        <v>0.96359706558303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013877648060642</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.043607457362796</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.03703901323741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.9212402979798864</v>
+        <v>0.998664252433957</v>
       </c>
       <c r="D10">
-        <v>0.9373749408551221</v>
+        <v>1.018771790784985</v>
       </c>
       <c r="E10">
-        <v>0.9393415144502054</v>
+        <v>1.006290829259559</v>
       </c>
       <c r="F10">
-        <v>0.8825251313620582</v>
+        <v>1.026695192470236</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.050880114752885</v>
+      </c>
       <c r="J10">
-        <v>0.9529691062066524</v>
+        <v>1.02693096726343</v>
       </c>
       <c r="K10">
-        <v>0.952975111761253</v>
+        <v>1.032810189226903</v>
       </c>
       <c r="L10">
-        <v>0.9548997239939991</v>
+        <v>1.020547422251716</v>
       </c>
       <c r="M10">
-        <v>0.8993975143496604</v>
+        <v>1.040598623688649</v>
       </c>
       <c r="N10">
-        <v>0.9543224316445503</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012421354856278</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.040754774571835</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.034306609869639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.9153664282969044</v>
+        <v>0.9961010169346162</v>
       </c>
       <c r="D11">
-        <v>0.9324405453903716</v>
+        <v>1.017146984504007</v>
       </c>
       <c r="E11">
-        <v>0.9345646222823937</v>
+        <v>1.004370726171563</v>
       </c>
       <c r="F11">
-        <v>0.8738719979186094</v>
+        <v>1.025517395049467</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.050309494484938</v>
+      </c>
       <c r="J11">
-        <v>0.9487392675083854</v>
+        <v>1.025636902557087</v>
       </c>
       <c r="K11">
-        <v>0.9487598427366652</v>
+        <v>1.031752619955769</v>
       </c>
       <c r="L11">
-        <v>0.9508358818915665</v>
+        <v>1.019210685037198</v>
       </c>
       <c r="M11">
-        <v>0.8916413117738707</v>
+        <v>1.039973617779388</v>
       </c>
       <c r="N11">
-        <v>0.9500865860901621</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012100101015545</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.040695249292068</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.033591757804846</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.9131343525804724</v>
+        <v>0.9953411468086035</v>
       </c>
       <c r="D12">
-        <v>0.9305676690499676</v>
+        <v>1.016755902392195</v>
       </c>
       <c r="E12">
-        <v>0.9327519756214449</v>
+        <v>1.003846057862338</v>
       </c>
       <c r="F12">
-        <v>0.8705693792967413</v>
+        <v>1.02542413872012</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.050191574891376</v>
+      </c>
       <c r="J12">
-        <v>0.9471312416119561</v>
+        <v>1.025343994842837</v>
       </c>
       <c r="K12">
-        <v>0.9471580037672882</v>
+        <v>1.031568975618668</v>
       </c>
       <c r="L12">
-        <v>0.9492918425028537</v>
+        <v>1.018899942565477</v>
       </c>
       <c r="M12">
-        <v>0.8886814022425314</v>
+        <v>1.040079940769389</v>
       </c>
       <c r="N12">
-        <v>0.9484762766125168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012092499708715</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.041104952981581</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.03346191486312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.9136155116149156</v>
+        <v>0.9959478260387611</v>
       </c>
       <c r="D13">
-        <v>0.9309712945331741</v>
+        <v>1.017320542198769</v>
       </c>
       <c r="E13">
-        <v>0.9331425997622371</v>
+        <v>1.004384446875851</v>
       </c>
       <c r="F13">
-        <v>0.8712820061623544</v>
+        <v>1.026193914191693</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.050433084733971</v>
+      </c>
       <c r="J13">
-        <v>0.9474779075102522</v>
+        <v>1.0258314243985</v>
       </c>
       <c r="K13">
-        <v>0.9475033056174803</v>
+        <v>1.032080318627169</v>
       </c>
       <c r="L13">
-        <v>0.9496246725564649</v>
+        <v>1.019384373759614</v>
       </c>
       <c r="M13">
-        <v>0.8893200591551377</v>
+        <v>1.040793507453221</v>
       </c>
       <c r="N13">
-        <v>0.9488234348161516</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012339620287823</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.041945185979154</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.033820955392813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.9151829840215154</v>
+        <v>0.9969906716290767</v>
       </c>
       <c r="D14">
-        <v>0.9322865763963413</v>
+        <v>1.018148558385243</v>
       </c>
       <c r="E14">
-        <v>0.9344155953412792</v>
+        <v>1.005241823587456</v>
       </c>
       <c r="F14">
-        <v>0.8736008785202626</v>
+        <v>1.027122545312964</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.050764120385096</v>
+      </c>
       <c r="J14">
-        <v>0.9486071248470423</v>
+        <v>1.026525014110427</v>
       </c>
       <c r="K14">
-        <v>0.9486281950165104</v>
+        <v>1.032752678605807</v>
       </c>
       <c r="L14">
-        <v>0.9507089790422499</v>
+        <v>1.020082399294987</v>
       </c>
       <c r="M14">
-        <v>0.8913983169220276</v>
+        <v>1.041566799555197</v>
       </c>
       <c r="N14">
-        <v>0.9499542557710833</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012627285090524</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.042729397518274</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.034297764185361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.9161419185621311</v>
+        <v>0.9975520470064788</v>
       </c>
       <c r="D15">
-        <v>0.9330915225765315</v>
+        <v>1.018572284005024</v>
       </c>
       <c r="E15">
-        <v>0.9351947231326729</v>
+        <v>1.005691957457739</v>
       </c>
       <c r="F15">
-        <v>0.8750175240238683</v>
+        <v>1.027555691543188</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.050928426644719</v>
+      </c>
       <c r="J15">
-        <v>0.9492978582691255</v>
+        <v>1.026875311798868</v>
       </c>
       <c r="K15">
-        <v>0.9493163679426164</v>
+        <v>1.033082221222285</v>
       </c>
       <c r="L15">
-        <v>0.9513723593288977</v>
+        <v>1.020435988674689</v>
       </c>
       <c r="M15">
-        <v>0.8926680237444902</v>
+        <v>1.041906858934357</v>
       </c>
       <c r="N15">
-        <v>0.9506459701138538</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012758214604649</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.043035637372475</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.03453663974835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.9216233954835977</v>
+        <v>1.000486360719851</v>
       </c>
       <c r="D16">
-        <v>0.9376970561429118</v>
+        <v>1.020685630484202</v>
       </c>
       <c r="E16">
-        <v>0.9396534065395131</v>
+        <v>1.00799654569238</v>
       </c>
       <c r="F16">
-        <v>0.8830876579733393</v>
+        <v>1.029553569837632</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.051724515332054</v>
+      </c>
       <c r="J16">
-        <v>0.9532448843311712</v>
+        <v>1.028603971774068</v>
       </c>
       <c r="K16">
-        <v>0.9532500256420356</v>
+        <v>1.034655569042446</v>
       </c>
       <c r="L16">
-        <v>0.9551647951376324</v>
+        <v>1.022186647525282</v>
       </c>
       <c r="M16">
-        <v>0.8999017711147846</v>
+        <v>1.043373795420311</v>
       </c>
       <c r="N16">
-        <v>0.9545986014056379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013334610743488</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.044156480558297</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.035652217577697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.9249782894839236</v>
+        <v>1.002192607671959</v>
       </c>
       <c r="D17">
-        <v>0.9405194313313482</v>
+        <v>1.021875256098805</v>
       </c>
       <c r="E17">
-        <v>0.9423865071062577</v>
+        <v>1.009318659476281</v>
       </c>
       <c r="F17">
-        <v>0.8880046812686173</v>
+        <v>1.030596013011512</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.052158238142903</v>
+      </c>
       <c r="J17">
-        <v>0.9556594300532321</v>
+        <v>1.029566787177627</v>
       </c>
       <c r="K17">
-        <v>0.9556574523326012</v>
+        <v>1.035510304336849</v>
       </c>
       <c r="L17">
-        <v>0.9574861972755362</v>
+        <v>1.023165248101322</v>
       </c>
       <c r="M17">
-        <v>0.9043095892480223</v>
+        <v>1.044088038652097</v>
       </c>
       <c r="N17">
-        <v>0.9570165760595765</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013626410440357</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.044592357796736</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036259131441786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.9269067279139958</v>
+        <v>1.002978694558538</v>
       </c>
       <c r="D18">
-        <v>0.942143004631868</v>
+        <v>1.022342218221769</v>
       </c>
       <c r="E18">
-        <v>0.9439589672750831</v>
+        <v>1.009891898273479</v>
       </c>
       <c r="F18">
-        <v>0.8908237887752669</v>
+        <v>1.030856849272423</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.0523090047254</v>
+      </c>
       <c r="J18">
-        <v>0.95704690553128</v>
+        <v>1.029929640792309</v>
       </c>
       <c r="K18">
-        <v>0.9570412007891377</v>
+        <v>1.03578612677635</v>
       </c>
       <c r="L18">
-        <v>0.9588206349202849</v>
+        <v>1.02354204158193</v>
       </c>
       <c r="M18">
-        <v>0.9068368222006121</v>
+        <v>1.04416339338649</v>
       </c>
       <c r="N18">
-        <v>0.9584060219119488</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013684250048849</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.044414992271641</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.036442510790422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.9275596045114736</v>
+        <v>1.00294254981989</v>
       </c>
       <c r="D19">
-        <v>0.9426928724901351</v>
+        <v>1.022170072069667</v>
       </c>
       <c r="E19">
-        <v>0.9444915638896865</v>
+        <v>1.009797594786812</v>
       </c>
       <c r="F19">
-        <v>0.8917770350513644</v>
+        <v>1.030414716023219</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.052210135841833</v>
+      </c>
       <c r="J19">
-        <v>0.9575165630596284</v>
+        <v>1.029760870172443</v>
       </c>
       <c r="K19">
-        <v>0.9575096569357503</v>
+        <v>1.035554235798279</v>
       </c>
       <c r="L19">
-        <v>0.9592724192017444</v>
+        <v>1.023385677208868</v>
       </c>
       <c r="M19">
-        <v>0.9076913806220948</v>
+        <v>1.043666478253854</v>
       </c>
       <c r="N19">
-        <v>0.9588763464078579</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013541201719702</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.043697723234614</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.036284951501295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.924621316052517</v>
+        <v>1.000575848241797</v>
       </c>
       <c r="D20">
-        <v>0.9402189902782466</v>
+        <v>1.020180676772007</v>
       </c>
       <c r="E20">
-        <v>0.9420955437787305</v>
+        <v>1.007808967203073</v>
       </c>
       <c r="F20">
-        <v>0.8874822625888384</v>
+        <v>1.028028861101402</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.051407929514553</v>
+      </c>
       <c r="J20">
-        <v>0.9554025586426687</v>
+        <v>1.028084589938381</v>
       </c>
       <c r="K20">
-        <v>0.9554013000676823</v>
+        <v>1.033877718377246</v>
       </c>
       <c r="L20">
-        <v>0.9572391838576989</v>
+        <v>1.021715881196645</v>
       </c>
       <c r="M20">
-        <v>0.9038412631377266</v>
+        <v>1.041596133522234</v>
       </c>
       <c r="N20">
-        <v>0.9567593398621466</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012825634411316</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.041533676209631</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.035103520494541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.9147228378721691</v>
+        <v>0.9950505085219272</v>
       </c>
       <c r="D21">
-        <v>0.9319004011691066</v>
+        <v>1.016133184301658</v>
       </c>
       <c r="E21">
-        <v>0.9340418228597327</v>
+        <v>1.003429228269038</v>
       </c>
       <c r="F21">
-        <v>0.8729205697927821</v>
+        <v>1.024097554753602</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.049869728623881</v>
+      </c>
       <c r="J21">
-        <v>0.9482756512069231</v>
+        <v>1.024756633463992</v>
       </c>
       <c r="K21">
-        <v>0.9482979735315037</v>
+        <v>1.030815221847122</v>
       </c>
       <c r="L21">
-        <v>0.9503906637028083</v>
+        <v>1.018345922817219</v>
       </c>
       <c r="M21">
-        <v>0.8907885869464081</v>
+        <v>1.038636334705444</v>
       </c>
       <c r="N21">
-        <v>0.9496223114003745</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011663107201503</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.03915045648497</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.032941464821266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.9082050714293783</v>
+        <v>0.9915148754827365</v>
       </c>
       <c r="D22">
-        <v>0.9264359353855793</v>
+        <v>1.013557860163949</v>
       </c>
       <c r="E22">
-        <v>0.9287540101226222</v>
+        <v>1.000637694574068</v>
       </c>
       <c r="F22">
-        <v>0.8632460423790624</v>
+        <v>1.02162670686258</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.048875845334724</v>
+      </c>
       <c r="J22">
-        <v>0.9435788507673584</v>
+        <v>1.022632060214597</v>
       </c>
       <c r="K22">
-        <v>0.9436205510978283</v>
+        <v>1.02886543434841</v>
       </c>
       <c r="L22">
-        <v>0.9458825507033378</v>
+        <v>1.016196529186667</v>
       </c>
       <c r="M22">
-        <v>0.8821190141816715</v>
+        <v>1.036781573449509</v>
       </c>
       <c r="N22">
-        <v>0.944918840965455</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010924310860494</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.037682533049103</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031549338959193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.9116902106386622</v>
+        <v>0.9933791339559149</v>
       </c>
       <c r="D23">
-        <v>0.9293565732738421</v>
+        <v>1.014907045779577</v>
       </c>
       <c r="E23">
-        <v>0.9315799613158136</v>
+        <v>1.002105981931802</v>
       </c>
       <c r="F23">
-        <v>0.868428179389729</v>
+        <v>1.022925815940789</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.049398633178164</v>
+      </c>
       <c r="J23">
-        <v>0.9460906656027904</v>
+        <v>1.0237460954082</v>
       </c>
       <c r="K23">
-        <v>0.9461216221283542</v>
+        <v>1.029882754182805</v>
       </c>
       <c r="L23">
-        <v>0.9482929340540598</v>
+        <v>1.017323986898855</v>
       </c>
       <c r="M23">
-        <v>0.8867625336134347</v>
+        <v>1.037753766909451</v>
       </c>
       <c r="N23">
-        <v>0.9474342228660626</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011308439581997</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.038451961597493</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.032258964743702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.924782704392486</v>
+        <v>1.000578994959446</v>
       </c>
       <c r="D24">
-        <v>0.9403548164045515</v>
+        <v>1.020148995168123</v>
       </c>
       <c r="E24">
-        <v>0.9422270843797985</v>
+        <v>1.007797959939694</v>
       </c>
       <c r="F24">
-        <v>0.887718471437085</v>
+        <v>1.027968674412539</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.051391523485458</v>
+      </c>
       <c r="J24">
-        <v>0.9555186920398835</v>
+        <v>1.028054775148815</v>
       </c>
       <c r="K24">
-        <v>0.9555171072067951</v>
+        <v>1.033831275988068</v>
       </c>
       <c r="L24">
-        <v>0.9573508588829502</v>
+        <v>1.021689504695164</v>
       </c>
       <c r="M24">
-        <v>0.9040530141115213</v>
+        <v>1.041521808045554</v>
       </c>
       <c r="N24">
-        <v>0.9568756381821059</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012799545035603</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.041434115829133</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035043250061304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.9388731403260436</v>
+        <v>1.008607041044413</v>
       </c>
       <c r="D25">
-        <v>0.9522377562429694</v>
+        <v>1.026028908109418</v>
       </c>
       <c r="E25">
-        <v>0.9537397548930842</v>
+        <v>1.01417620596858</v>
       </c>
       <c r="F25">
-        <v>0.9082077795290397</v>
+        <v>1.033631953770515</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.053548958557933</v>
+      </c>
       <c r="J25">
-        <v>0.9656485748842735</v>
+        <v>1.032848175713862</v>
       </c>
       <c r="K25">
-        <v>0.9656257184561005</v>
+        <v>1.038236162523002</v>
       </c>
       <c r="L25">
-        <v>0.9671013242449136</v>
+        <v>1.02655836947332</v>
       </c>
       <c r="M25">
-        <v>0.9224204418115173</v>
+        <v>1.045729683789832</v>
       </c>
       <c r="N25">
-        <v>0.9670199066220487</v>
+        <v>1.014457970537364</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.044764355406166</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.038154863224497</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014722174556743</v>
+        <v>1.013925809362731</v>
       </c>
       <c r="D2">
-        <v>1.030511170312343</v>
+        <v>1.0290945120825</v>
       </c>
       <c r="E2">
-        <v>1.019050718587502</v>
+        <v>1.018411839554759</v>
       </c>
       <c r="F2">
-        <v>1.037967819084471</v>
+        <v>1.037044096302115</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055130410096101</v>
+        <v>1.05477338244949</v>
       </c>
       <c r="J2">
-        <v>1.036471290807174</v>
+        <v>1.035697832738494</v>
       </c>
       <c r="K2">
-        <v>1.041561191565211</v>
+        <v>1.040162865409883</v>
       </c>
       <c r="L2">
-        <v>1.030250876424387</v>
+        <v>1.02962049177617</v>
       </c>
       <c r="M2">
-        <v>1.048922378676315</v>
+        <v>1.048010388554135</v>
       </c>
       <c r="N2">
-        <v>1.015702757930997</v>
+        <v>1.016468014328031</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047291140163878</v>
+        <v>1.046569367493538</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.04045764441106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039477665181916</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022555870503393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01906171449199</v>
+        <v>1.017977081527587</v>
       </c>
       <c r="D3">
-        <v>1.033718720697612</v>
+        <v>1.031949844910665</v>
       </c>
       <c r="E3">
-        <v>1.022526440089661</v>
+        <v>1.021630207393579</v>
       </c>
       <c r="F3">
-        <v>1.041065068487127</v>
+        <v>1.03989118050667</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056225070638306</v>
+        <v>1.055742110242193</v>
       </c>
       <c r="J3">
-        <v>1.039045890031776</v>
+        <v>1.037989387728789</v>
       </c>
       <c r="K3">
-        <v>1.043937603167889</v>
+        <v>1.042189612376366</v>
       </c>
       <c r="L3">
-        <v>1.032878981093277</v>
+        <v>1.031993608524394</v>
       </c>
       <c r="M3">
-        <v>1.051198151781143</v>
+        <v>1.050037873230294</v>
       </c>
       <c r="N3">
-        <v>1.016591843879367</v>
+        <v>1.017089285783402</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049092243037726</v>
+        <v>1.048173970568743</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042135310707407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040907808791099</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023011334604836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021814086035369</v>
+        <v>1.020548883609964</v>
       </c>
       <c r="D4">
-        <v>1.035759784058397</v>
+        <v>1.033769004858859</v>
       </c>
       <c r="E4">
-        <v>1.024736542583164</v>
+        <v>1.023678953808916</v>
       </c>
       <c r="F4">
-        <v>1.043036767756023</v>
+        <v>1.041705604353718</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.056904172017646</v>
+        <v>1.056341968162371</v>
       </c>
       <c r="J4">
-        <v>1.040675779564223</v>
+        <v>1.039441162987514</v>
       </c>
       <c r="K4">
-        <v>1.045444957878448</v>
+        <v>1.043476259889361</v>
       </c>
       <c r="L4">
-        <v>1.03454531187719</v>
+        <v>1.033499753639533</v>
       </c>
       <c r="M4">
-        <v>1.052642107396181</v>
+        <v>1.051325445566244</v>
       </c>
       <c r="N4">
-        <v>1.017154627127737</v>
+        <v>1.017483008765527</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050235022803585</v>
+        <v>1.049192986344646</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043202026436388</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041818547517494</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023298116274976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022963588658239</v>
+        <v>1.021623149021441</v>
       </c>
       <c r="D5">
-        <v>1.03661635529539</v>
+        <v>1.034533015546991</v>
       </c>
       <c r="E5">
-        <v>1.025661600048017</v>
+        <v>1.024536689213814</v>
       </c>
       <c r="F5">
-        <v>1.043862784250805</v>
+        <v>1.042466057356934</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.057185099381215</v>
+        <v>1.056589802391599</v>
       </c>
       <c r="J5">
-        <v>1.041357747600034</v>
+        <v>1.040048741326684</v>
       </c>
       <c r="K5">
-        <v>1.046078020746821</v>
+        <v>1.044017170933025</v>
       </c>
       <c r="L5">
-        <v>1.035242780589961</v>
+        <v>1.034130320295891</v>
       </c>
       <c r="M5">
-        <v>1.053247079090007</v>
+        <v>1.051865162722793</v>
       </c>
       <c r="N5">
-        <v>1.017390953599039</v>
+        <v>1.01764839417965</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.050713810830115</v>
+        <v>1.049620131093497</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043656787806804</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042208864459437</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023418905257775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023162283964937</v>
+        <v>1.021808457641049</v>
       </c>
       <c r="D6">
-        <v>1.036767629075855</v>
+        <v>1.034668033829233</v>
       </c>
       <c r="E6">
-        <v>1.025822445676243</v>
+        <v>1.024685479576133</v>
       </c>
       <c r="F6">
-        <v>1.044006698061169</v>
+        <v>1.042598416203137</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057234680720575</v>
+        <v>1.056633500592023</v>
       </c>
       <c r="J6">
-        <v>1.04147804984781</v>
+        <v>1.040155806838257</v>
       </c>
       <c r="K6">
-        <v>1.046191735399061</v>
+        <v>1.044114701115214</v>
       </c>
       <c r="L6">
-        <v>1.035365407877872</v>
+        <v>1.034240967198023</v>
       </c>
       <c r="M6">
-        <v>1.053353868810124</v>
+        <v>1.051960451533899</v>
       </c>
       <c r="N6">
-        <v>1.017433697474435</v>
+        <v>1.017678243513144</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050798326553096</v>
+        <v>1.049695544856171</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043745893882115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042287400300959</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023441619250647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021846889888184</v>
+        <v>1.020587463207123</v>
       </c>
       <c r="D7">
-        <v>1.035792594196438</v>
+        <v>1.033805472442086</v>
       </c>
       <c r="E7">
-        <v>1.024765303928014</v>
+        <v>1.023713031473253</v>
       </c>
       <c r="F7">
-        <v>1.043063103561558</v>
+        <v>1.041734995824864</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05691555024672</v>
+        <v>1.056355709083054</v>
       </c>
       <c r="J7">
-        <v>1.040701899181656</v>
+        <v>1.039472904784833</v>
       </c>
       <c r="K7">
-        <v>1.045474541882006</v>
+        <v>1.043509451616908</v>
       </c>
       <c r="L7">
-        <v>1.034570842169559</v>
+        <v>1.033530534873109</v>
       </c>
       <c r="M7">
-        <v>1.052665320200405</v>
+        <v>1.051351674990569</v>
       </c>
       <c r="N7">
-        <v>1.017166559403858</v>
+        <v>1.017520068397298</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.050253393937743</v>
+        <v>1.049213744928635</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043242963054663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041864044027672</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023309277495867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016222686047937</v>
+        <v>1.015352408799578</v>
       </c>
       <c r="D8">
-        <v>1.031629349190943</v>
+        <v>1.030111278360045</v>
       </c>
       <c r="E8">
-        <v>1.020254494481664</v>
+        <v>1.019550638015394</v>
       </c>
       <c r="F8">
-        <v>1.039040727669283</v>
+        <v>1.038046479966057</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055516121403726</v>
+        <v>1.055126329461819</v>
       </c>
       <c r="J8">
-        <v>1.037370544816387</v>
+        <v>1.036524453581247</v>
       </c>
       <c r="K8">
-        <v>1.042397269632791</v>
+        <v>1.040898254158888</v>
       </c>
       <c r="L8">
-        <v>1.031166920923464</v>
+        <v>1.030472138739706</v>
       </c>
       <c r="M8">
-        <v>1.049716612863783</v>
+        <v>1.048734616827758</v>
       </c>
       <c r="N8">
-        <v>1.016017111807501</v>
+        <v>1.016775381852174</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.047919717154427</v>
+        <v>1.047142540617787</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041071656069746</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040022754870881</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022728553254946</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005836971507297</v>
+        <v>1.005676491459483</v>
       </c>
       <c r="D9">
-        <v>1.023982808019714</v>
+        <v>1.023321302371692</v>
       </c>
       <c r="E9">
-        <v>1.011967289692636</v>
+        <v>1.011896443719407</v>
       </c>
       <c r="F9">
-        <v>1.031668546312556</v>
+        <v>1.0312851424881</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052808276962173</v>
+        <v>1.052726077605738</v>
       </c>
       <c r="J9">
-        <v>1.031185281721617</v>
+        <v>1.031030378389277</v>
       </c>
       <c r="K9">
-        <v>1.036698405683282</v>
+        <v>1.036047009164259</v>
       </c>
       <c r="L9">
-        <v>1.024869144627831</v>
+        <v>1.024799413651633</v>
       </c>
       <c r="M9">
-        <v>1.044267899924669</v>
+        <v>1.043890242688923</v>
       </c>
       <c r="N9">
-        <v>1.013877648060642</v>
+        <v>1.015294581776959</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.043607457362796</v>
+        <v>1.043308568201881</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.03703901323741</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036589169559787</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02162289458577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.998664252433957</v>
+        <v>0.9990382615748385</v>
       </c>
       <c r="D10">
-        <v>1.018771790784985</v>
+        <v>1.018732963755899</v>
       </c>
       <c r="E10">
-        <v>1.006290829259559</v>
+        <v>1.006695519073134</v>
       </c>
       <c r="F10">
-        <v>1.026695192470236</v>
+        <v>1.026759658669441</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050880114752885</v>
+        <v>1.051026316323169</v>
       </c>
       <c r="J10">
-        <v>1.02693096726343</v>
+        <v>1.027290089008583</v>
       </c>
       <c r="K10">
-        <v>1.032810189226903</v>
+        <v>1.032772030260704</v>
       </c>
       <c r="L10">
-        <v>1.020547422251716</v>
+        <v>1.02094492708343</v>
       </c>
       <c r="M10">
-        <v>1.040598623688649</v>
+        <v>1.040662002790479</v>
       </c>
       <c r="N10">
-        <v>1.012421354856278</v>
+        <v>1.014410723765495</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.040754774571835</v>
+        <v>1.040804931752421</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.034306609869639</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034292057117469</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02088071942806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9961010169346162</v>
+        <v>0.9966407087265994</v>
       </c>
       <c r="D11">
-        <v>1.017146984504007</v>
+        <v>1.017297755561657</v>
       </c>
       <c r="E11">
-        <v>1.004370726171563</v>
+        <v>1.00491170155238</v>
       </c>
       <c r="F11">
-        <v>1.025517395049467</v>
+        <v>1.025716664332316</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.050309494484938</v>
+        <v>1.050525000692578</v>
       </c>
       <c r="J11">
-        <v>1.025636902557087</v>
+        <v>1.026153908997676</v>
       </c>
       <c r="K11">
-        <v>1.031752619955769</v>
+        <v>1.031900671467267</v>
       </c>
       <c r="L11">
-        <v>1.019210685037198</v>
+        <v>1.019741581030829</v>
       </c>
       <c r="M11">
-        <v>1.039973617779388</v>
+        <v>1.04016936861989</v>
       </c>
       <c r="N11">
-        <v>1.012100101015545</v>
+        <v>1.014411977102649</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040695249292068</v>
+        <v>1.040850085830858</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033591757804846</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033712077971816</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020771681189348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9953411468086035</v>
+        <v>0.9958979764083759</v>
       </c>
       <c r="D12">
-        <v>1.016755902392195</v>
+        <v>1.01693165166082</v>
       </c>
       <c r="E12">
-        <v>1.003846057862338</v>
+        <v>1.004391963659772</v>
       </c>
       <c r="F12">
-        <v>1.02542413872012</v>
+        <v>1.025638921974986</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.050191574891376</v>
+        <v>1.05041379648319</v>
       </c>
       <c r="J12">
-        <v>1.025343994842837</v>
+        <v>1.025876961585463</v>
       </c>
       <c r="K12">
-        <v>1.031568975618668</v>
+        <v>1.031741501518648</v>
       </c>
       <c r="L12">
-        <v>1.018899942565477</v>
+        <v>1.019435501541154</v>
       </c>
       <c r="M12">
-        <v>1.040079940769389</v>
+        <v>1.040290870972903</v>
       </c>
       <c r="N12">
-        <v>1.012092499708715</v>
+        <v>1.014494560236359</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041104952981581</v>
+        <v>1.041271740019494</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03346191486312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033599541671966</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020797271483866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9959478260387611</v>
+        <v>0.9963934464995682</v>
       </c>
       <c r="D13">
-        <v>1.017320542198769</v>
+        <v>1.017384052524188</v>
       </c>
       <c r="E13">
-        <v>1.004384446875851</v>
+        <v>1.004821189288771</v>
       </c>
       <c r="F13">
-        <v>1.026193914191693</v>
+        <v>1.026324108158099</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.050433084733971</v>
+        <v>1.050608182515253</v>
       </c>
       <c r="J13">
-        <v>1.0258314243985</v>
+        <v>1.026258047797804</v>
       </c>
       <c r="K13">
-        <v>1.032080318627169</v>
+        <v>1.032142669533331</v>
       </c>
       <c r="L13">
-        <v>1.019384373759614</v>
+        <v>1.019812876547458</v>
       </c>
       <c r="M13">
-        <v>1.040793507453221</v>
+        <v>1.040921377911431</v>
       </c>
       <c r="N13">
-        <v>1.012339620287823</v>
+        <v>1.014618308928828</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041945185979154</v>
+        <v>1.042046270603262</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033820955392813</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033880436573418</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020937100677432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9969906716290767</v>
+        <v>0.9973024121747111</v>
       </c>
       <c r="D14">
-        <v>1.018148558385243</v>
+        <v>1.01807337937822</v>
       </c>
       <c r="E14">
-        <v>1.005241823587456</v>
+        <v>1.005552984726586</v>
       </c>
       <c r="F14">
-        <v>1.027122545312964</v>
+        <v>1.027149773687086</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050764120385096</v>
+        <v>1.050882676875527</v>
       </c>
       <c r="J14">
-        <v>1.026525014110427</v>
+        <v>1.026823661287182</v>
       </c>
       <c r="K14">
-        <v>1.032752678605807</v>
+        <v>1.032678854338881</v>
       </c>
       <c r="L14">
-        <v>1.020082399294987</v>
+        <v>1.02038776670509</v>
       </c>
       <c r="M14">
-        <v>1.041566799555197</v>
+        <v>1.04159354838329</v>
       </c>
       <c r="N14">
-        <v>1.012627285090524</v>
+        <v>1.014725485788947</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042729397518274</v>
+        <v>1.042750540258324</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034297764185361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034261095227316</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021087558780036</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9975520470064788</v>
+        <v>0.9978027177921683</v>
       </c>
       <c r="D15">
-        <v>1.018572284005024</v>
+        <v>1.018432684047232</v>
       </c>
       <c r="E15">
-        <v>1.005691957457739</v>
+        <v>1.005947395916018</v>
       </c>
       <c r="F15">
-        <v>1.027555691543188</v>
+        <v>1.027535526818744</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050928426644719</v>
+        <v>1.051021209426698</v>
       </c>
       <c r="J15">
-        <v>1.026875311798868</v>
+        <v>1.027115548733367</v>
       </c>
       <c r="K15">
-        <v>1.033082221222285</v>
+        <v>1.032945117210188</v>
       </c>
       <c r="L15">
-        <v>1.020435988674689</v>
+        <v>1.020686708711963</v>
       </c>
       <c r="M15">
-        <v>1.041906858934357</v>
+        <v>1.041887046567827</v>
       </c>
       <c r="N15">
-        <v>1.012758214604649</v>
+        <v>1.014767575676778</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043035637372475</v>
+        <v>1.043019977743244</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03453663974835</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.03445579668229</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021154042258407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000486360719851</v>
+        <v>1.000473628085337</v>
       </c>
       <c r="D16">
-        <v>1.020685630484202</v>
+        <v>1.020258666919234</v>
       </c>
       <c r="E16">
-        <v>1.00799654569238</v>
+        <v>1.008019361103399</v>
       </c>
       <c r="F16">
-        <v>1.029553569837632</v>
+        <v>1.029324744279495</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.051724515332054</v>
+        <v>1.051705931098685</v>
       </c>
       <c r="J16">
-        <v>1.028603971774068</v>
+        <v>1.028591742012429</v>
       </c>
       <c r="K16">
-        <v>1.034655569042446</v>
+        <v>1.034235898526311</v>
       </c>
       <c r="L16">
-        <v>1.022186647525282</v>
+        <v>1.022209060625933</v>
       </c>
       <c r="M16">
-        <v>1.043373795420311</v>
+        <v>1.043148791230399</v>
       </c>
       <c r="N16">
-        <v>1.013334610743488</v>
+        <v>1.014945154017115</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044156480558297</v>
+        <v>1.043978632873109</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035652217577697</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035371882194726</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021435534217105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002192607671959</v>
+        <v>1.002056893806188</v>
       </c>
       <c r="D17">
-        <v>1.021875256098805</v>
+        <v>1.021306992118133</v>
       </c>
       <c r="E17">
-        <v>1.009318659476281</v>
+        <v>1.009236250647072</v>
       </c>
       <c r="F17">
-        <v>1.030596013011512</v>
+        <v>1.030266196566753</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052158238142903</v>
+        <v>1.052087418747665</v>
       </c>
       <c r="J17">
-        <v>1.029566787177627</v>
+        <v>1.029436257450828</v>
       </c>
       <c r="K17">
-        <v>1.035510304336849</v>
+        <v>1.034951469169829</v>
       </c>
       <c r="L17">
-        <v>1.023165248101322</v>
+        <v>1.023084250075749</v>
       </c>
       <c r="M17">
-        <v>1.044088038652097</v>
+        <v>1.043763574699383</v>
       </c>
       <c r="N17">
-        <v>1.013626410440357</v>
+        <v>1.015054477464097</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044592357796736</v>
+        <v>1.044335869706851</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036259131441786</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035880645645158</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021574059361936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002978694558538</v>
+        <v>1.002822082327921</v>
       </c>
       <c r="D18">
-        <v>1.022342218221769</v>
+        <v>1.021741119577127</v>
       </c>
       <c r="E18">
-        <v>1.009891898273479</v>
+        <v>1.009797827519425</v>
       </c>
       <c r="F18">
-        <v>1.030856849272423</v>
+        <v>1.030505737833617</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.0523090047254</v>
+        <v>1.052229287662581</v>
       </c>
       <c r="J18">
-        <v>1.029929640792309</v>
+        <v>1.029778897109518</v>
       </c>
       <c r="K18">
-        <v>1.03578612677635</v>
+        <v>1.035194836693523</v>
       </c>
       <c r="L18">
-        <v>1.02354204158193</v>
+        <v>1.023449554037311</v>
       </c>
       <c r="M18">
-        <v>1.04416339338649</v>
+        <v>1.043817888816545</v>
       </c>
       <c r="N18">
-        <v>1.013684250048849</v>
+        <v>1.015065773550804</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.044414992271641</v>
+        <v>1.04414181499717</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036442510790422</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.03603994072038</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021586542077693</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.00294254981989</v>
+        <v>1.002847967555688</v>
       </c>
       <c r="D19">
-        <v>1.022170072069667</v>
+        <v>1.021627206637572</v>
       </c>
       <c r="E19">
-        <v>1.009797594786812</v>
+        <v>1.009767591463956</v>
       </c>
       <c r="F19">
-        <v>1.030414716023219</v>
+        <v>1.03010864672718</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.052210135841833</v>
+        <v>1.052156926617669</v>
       </c>
       <c r="J19">
-        <v>1.029760870172443</v>
+        <v>1.029669811419701</v>
       </c>
       <c r="K19">
-        <v>1.035554235798279</v>
+        <v>1.035020184603746</v>
       </c>
       <c r="L19">
-        <v>1.023385677208868</v>
+        <v>1.023356176217882</v>
       </c>
       <c r="M19">
-        <v>1.043666478253854</v>
+        <v>1.043365275617126</v>
       </c>
       <c r="N19">
-        <v>1.013541201719702</v>
+        <v>1.014974407690434</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043697723234614</v>
+        <v>1.043459496507166</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036284951501295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035923477097934</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021490840468414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.000575848241797</v>
+        <v>1.000776766352903</v>
       </c>
       <c r="D20">
-        <v>1.020180676772007</v>
+        <v>1.019952088310984</v>
       </c>
       <c r="E20">
-        <v>1.007808967203073</v>
+        <v>1.008057501271258</v>
       </c>
       <c r="F20">
-        <v>1.028028861101402</v>
+        <v>1.027954962810494</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051407929514553</v>
+        <v>1.05148078987893</v>
       </c>
       <c r="J20">
-        <v>1.028084589938381</v>
+        <v>1.028277777763468</v>
       </c>
       <c r="K20">
-        <v>1.033877718377246</v>
+        <v>1.033652948176897</v>
       </c>
       <c r="L20">
-        <v>1.021715881196645</v>
+        <v>1.021960133597485</v>
       </c>
       <c r="M20">
-        <v>1.041596133522234</v>
+        <v>1.041523445254021</v>
       </c>
       <c r="N20">
-        <v>1.012825634411316</v>
+        <v>1.014580169072575</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.041533676209631</v>
+        <v>1.041476151231578</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.035103520494541</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034961115589002</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021085351635808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9950505085219272</v>
+        <v>0.9958079872172985</v>
       </c>
       <c r="D21">
-        <v>1.016133184301658</v>
+        <v>1.016500299462543</v>
       </c>
       <c r="E21">
-        <v>1.003429228269038</v>
+        <v>1.004182460397158</v>
       </c>
       <c r="F21">
-        <v>1.024097554753602</v>
+        <v>1.024460176430535</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049869728623881</v>
+        <v>1.050177417846327</v>
       </c>
       <c r="J21">
-        <v>1.024756633463992</v>
+        <v>1.025482026372848</v>
       </c>
       <c r="K21">
-        <v>1.030815221847122</v>
+        <v>1.031175669390593</v>
       </c>
       <c r="L21">
-        <v>1.018345922817219</v>
+        <v>1.019085025673107</v>
       </c>
       <c r="M21">
-        <v>1.038636334705444</v>
+        <v>1.03899250260257</v>
       </c>
       <c r="N21">
-        <v>1.011663107201503</v>
+        <v>1.014248768570196</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.03915045648497</v>
+        <v>1.039432339968876</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032941464821266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033213171663159</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020521706289614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9915148754827365</v>
+        <v>0.9926263607348271</v>
       </c>
       <c r="D22">
-        <v>1.013557860163949</v>
+        <v>1.014303645436878</v>
       </c>
       <c r="E22">
-        <v>1.000637694574068</v>
+        <v>1.001711943756045</v>
       </c>
       <c r="F22">
-        <v>1.02162670686258</v>
+        <v>1.022266864226636</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048875845334724</v>
+        <v>1.04933205975641</v>
       </c>
       <c r="J22">
-        <v>1.022632060214597</v>
+        <v>1.023693636804519</v>
       </c>
       <c r="K22">
-        <v>1.02886543434841</v>
+        <v>1.029596971873888</v>
       </c>
       <c r="L22">
-        <v>1.016196529186667</v>
+        <v>1.017249562821844</v>
       </c>
       <c r="M22">
-        <v>1.036781573449509</v>
+        <v>1.037409750188508</v>
       </c>
       <c r="N22">
-        <v>1.010924310860494</v>
+        <v>1.014031024691959</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.037682533049103</v>
+        <v>1.038179694600196</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031549338959193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032082137362973</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020163280306118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9933791339559149</v>
+        <v>0.9942905362414655</v>
       </c>
       <c r="D23">
-        <v>1.014907045779577</v>
+        <v>1.015442392488662</v>
       </c>
       <c r="E23">
-        <v>1.002105981931802</v>
+        <v>1.002998287159396</v>
       </c>
       <c r="F23">
-        <v>1.022925815940789</v>
+        <v>1.023411270644163</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049398633178164</v>
+        <v>1.049771116980178</v>
       </c>
       <c r="J23">
-        <v>1.0237460954082</v>
+        <v>1.024617809040883</v>
       </c>
       <c r="K23">
-        <v>1.029882754182805</v>
+        <v>1.03040814152382</v>
       </c>
       <c r="L23">
-        <v>1.017323986898855</v>
+        <v>1.01819914015608</v>
       </c>
       <c r="M23">
-        <v>1.037753766909451</v>
+        <v>1.038230373142095</v>
       </c>
       <c r="N23">
-        <v>1.011308439581997</v>
+        <v>1.014096639833629</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.038451961597493</v>
+        <v>1.038829164451493</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032258964743702</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032645061558024</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02034254435494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000578994959446</v>
+        <v>1.000789439627938</v>
       </c>
       <c r="D24">
-        <v>1.020148995168123</v>
+        <v>1.019928879201194</v>
       </c>
       <c r="E24">
-        <v>1.007797959939694</v>
+        <v>1.008056568648213</v>
       </c>
       <c r="F24">
-        <v>1.027968674412539</v>
+        <v>1.027901472406377</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.051391523485458</v>
+        <v>1.051468448180017</v>
       </c>
       <c r="J24">
-        <v>1.028054775148815</v>
+        <v>1.028257134549278</v>
       </c>
       <c r="K24">
-        <v>1.033831275988068</v>
+        <v>1.033614832301665</v>
       </c>
       <c r="L24">
-        <v>1.021689504695164</v>
+        <v>1.021943663836838</v>
       </c>
       <c r="M24">
-        <v>1.041521808045554</v>
+        <v>1.041455705164908</v>
       </c>
       <c r="N24">
-        <v>1.012799545035603</v>
+        <v>1.01456096263213</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.041434115829133</v>
+        <v>1.041381799896963</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035043250061304</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03490406278377</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021064937138529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008607041044413</v>
+        <v>1.008241370116203</v>
       </c>
       <c r="D25">
-        <v>1.026028908109418</v>
+        <v>1.025126999445531</v>
       </c>
       <c r="E25">
-        <v>1.01417620596858</v>
+        <v>1.013921614877586</v>
       </c>
       <c r="F25">
-        <v>1.033631953770515</v>
+        <v>1.033075864798884</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.053548958557933</v>
+        <v>1.053378487192695</v>
       </c>
       <c r="J25">
-        <v>1.032848175713862</v>
+        <v>1.032494527211814</v>
       </c>
       <c r="K25">
-        <v>1.038236162523002</v>
+        <v>1.037347382872235</v>
       </c>
       <c r="L25">
-        <v>1.02655836947332</v>
+        <v>1.02630759244106</v>
       </c>
       <c r="M25">
-        <v>1.045729683789832</v>
+        <v>1.045181536302549</v>
       </c>
       <c r="N25">
-        <v>1.014457970537364</v>
+        <v>1.015661050279765</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.044764355406166</v>
+        <v>1.044330535840331</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038154863224497</v>
+        <v>1.037539976825832</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021924280613698</v>
       </c>
     </row>
   </sheetData>
